--- a/analysis/Balve/raw_data/Balver_Höhle.xlsx
+++ b/analysis/Balve/raw_data/Balver_Höhle.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11576" uniqueCount="1863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11580" uniqueCount="1862">
   <si>
     <t>Balver_Höhle</t>
   </si>
@@ -5650,9 +5650,6 @@
   </si>
   <si>
     <t>0.048</t>
-  </si>
-  <si>
-    <t>1294.0</t>
   </si>
   <si>
     <t>perimeter basis.back</t>
@@ -6011,8 +6008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB190" sqref="AB190"/>
+    <sheetView tabSelected="1" topLeftCell="N313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC313" sqref="AC313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,7 +6141,7 @@
         <v>1762</v>
       </c>
       <c r="AD1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AE1" t="s">
         <v>1763</v>
@@ -6387,8 +6384,8 @@
       <c r="AB3" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>1859</v>
+      <c r="AC3" s="2">
+        <v>1.294</v>
       </c>
       <c r="AD3" t="s">
         <v>31</v>
@@ -9822,8 +9819,8 @@
       <c r="AB33" t="s">
         <v>268</v>
       </c>
-      <c r="AC33" s="2">
-        <v>0</v>
+      <c r="AC33" t="s">
+        <v>12</v>
       </c>
       <c r="AD33" t="s">
         <v>269</v>
@@ -9938,8 +9935,8 @@
       <c r="AB34" t="s">
         <v>279</v>
       </c>
-      <c r="AC34" s="2">
-        <v>0</v>
+      <c r="AC34" t="s">
+        <v>12</v>
       </c>
       <c r="AD34" t="s">
         <v>280</v>
@@ -10054,8 +10051,8 @@
       <c r="AB35" t="s">
         <v>288</v>
       </c>
-      <c r="AC35" s="2">
-        <v>0</v>
+      <c r="AC35" t="s">
+        <v>12</v>
       </c>
       <c r="AD35" t="s">
         <v>90</v>
@@ -10158,8 +10155,8 @@
       <c r="AB36" t="s">
         <v>296</v>
       </c>
-      <c r="AC36" s="2">
-        <v>0</v>
+      <c r="AC36" t="s">
+        <v>12</v>
       </c>
       <c r="AD36" t="s">
         <v>155</v>
@@ -27505,10 +27502,10 @@
         <v>39</v>
       </c>
       <c r="Z186" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AA186" t="s">
         <v>1861</v>
-      </c>
-      <c r="AA186" t="s">
-        <v>1862</v>
       </c>
       <c r="AB186" t="s">
         <v>1107</v>
@@ -40397,8 +40394,8 @@
       <c r="AB313" t="s">
         <v>1592</v>
       </c>
-      <c r="AC313" s="2">
-        <v>0</v>
+      <c r="AC313" t="s">
+        <v>12</v>
       </c>
       <c r="AD313">
         <v>0</v>

--- a/analysis/Balve/raw_data/Balver_Höhle.xlsx
+++ b/analysis/Balve/raw_data/Balver_Höhle.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schunk\Documents\GitHub\Lithic_analysis_archaeology\analysis\Balve\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12345"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="28512" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -73,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11580" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11576" uniqueCount="1862">
   <si>
     <t>Balver_Höhle</t>
   </si>
@@ -5340,12 +5345,6 @@
     <t>tip morphology</t>
   </si>
   <si>
-    <t>application 'pradnick method'</t>
-  </si>
-  <si>
-    <t>frequency application 'pradnick method'</t>
-  </si>
-  <si>
     <t>type lateral sharpening spall</t>
   </si>
   <si>
@@ -5659,12 +5658,18 @@
   </si>
   <si>
     <t>33.93</t>
+  </si>
+  <si>
+    <t>application pradnick method</t>
+  </si>
+  <si>
+    <t>frequency application pradnick method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -5711,6 +5716,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5720,9 +5728,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5760,9 +5768,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5797,7 +5805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5832,7 +5840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6008,51 +6016,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC313" sqref="AC313"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.77734375" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="33" max="33" width="14.77734375" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1734</v>
       </c>
@@ -6117,73 +6127,73 @@
         <v>1754</v>
       </c>
       <c r="V1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="X1" t="s">
         <v>1755</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>1756</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>1757</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>1758</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>1759</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AE1" t="s">
         <v>1761</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>1762</v>
       </c>
-      <c r="AD1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>1763</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>1764</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>1765</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>1766</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>1767</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>1768</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>1769</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>1770</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>1771</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>1772</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>1773</v>
       </c>
-      <c r="AP1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>1775</v>
-      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>19</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="AD2" t="s">
         <v>20</v>
@@ -6305,7 +6315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6514,7 @@
         <v>42</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AD4" t="s">
         <v>43</v>
@@ -6543,7 +6553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6617,7 +6627,7 @@
         <v>52</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AD5" t="s">
         <v>53</v>
@@ -6656,7 +6666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v>62</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="AD6" t="s">
         <v>63</v>
@@ -6778,7 +6788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6852,7 +6862,7 @@
         <v>70</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="AD7" t="s">
         <v>71</v>
@@ -6891,7 +6901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>79</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD8" t="s">
         <v>80</v>
@@ -7004,7 +7014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7084,7 +7094,7 @@
         <v>89</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="AD9" t="s">
         <v>90</v>
@@ -7123,7 +7133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7200,7 +7210,7 @@
         <v>100</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD10" t="s">
         <v>54</v>
@@ -7239,7 +7249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +7326,7 @@
         <v>107</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="AD11" t="s">
         <v>108</v>
@@ -7355,7 +7365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +7445,7 @@
         <v>115</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD12" t="s">
         <v>116</v>
@@ -7474,7 +7484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7551,7 +7561,7 @@
         <v>125</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="AD13">
         <v>6</v>
@@ -7590,7 +7600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7670,7 +7680,7 @@
         <v>133</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AD14" t="s">
         <v>134</v>
@@ -7709,7 +7719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7789,7 +7799,7 @@
         <v>142</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="AD15" t="s">
         <v>20</v>
@@ -7828,7 +7838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7905,7 +7915,7 @@
         <v>151</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD16" t="s">
         <v>152</v>
@@ -7944,7 +7954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8028,7 @@
         <v>160</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="AD17" t="s">
         <v>161</v>
@@ -8057,7 +8067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>167</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="AD18" t="s">
         <v>168</v>
@@ -8176,7 +8186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8253,7 +8263,7 @@
         <v>175</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AD19" t="s">
         <v>155</v>
@@ -8292,7 +8302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8369,7 +8379,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="AD20" t="s">
         <v>184</v>
@@ -8408,7 +8418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8488,7 +8498,7 @@
         <v>191</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="AD21" t="s">
         <v>43</v>
@@ -8527,7 +8537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8607,7 +8617,7 @@
         <v>200</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="AD22" t="s">
         <v>201</v>
@@ -8646,7 +8656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8729,7 +8739,7 @@
         <v>170</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AD23" t="s">
         <v>134</v>
@@ -8768,7 +8778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8845,7 +8855,7 @@
         <v>214</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD24" t="s">
         <v>81</v>
@@ -8884,7 +8894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8946,7 +8956,7 @@
         <v>224</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -8960,9 +8970,6 @@
       <c r="AG25">
         <v>0</v>
       </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
       <c r="AI25" t="s">
         <v>12</v>
       </c>
@@ -8985,7 +8992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -9047,7 +9054,7 @@
         <v>230</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -9061,9 +9068,6 @@
       <c r="AG26">
         <v>0</v>
       </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26" t="s">
         <v>12</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>235</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -9162,9 +9166,6 @@
       <c r="AG27">
         <v>0</v>
       </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
       <c r="AI27" t="s">
         <v>12</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>240</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -9263,9 +9264,6 @@
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
       <c r="AI28" t="s">
         <v>12</v>
       </c>
@@ -9288,7 +9286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -9350,7 +9348,7 @@
         <v>244</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -9364,9 +9362,6 @@
       <c r="AG29">
         <v>0</v>
       </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
       <c r="AI29" t="s">
         <v>12</v>
       </c>
@@ -9389,7 +9384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -9466,7 +9461,7 @@
         <v>63</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD30" t="s">
         <v>53</v>
@@ -9505,7 +9500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -9588,7 +9583,7 @@
         <v>254</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="AD31" t="s">
         <v>168</v>
@@ -9627,7 +9622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -9704,7 +9699,7 @@
         <v>260</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="AD32" t="s">
         <v>143</v>
@@ -9743,7 +9738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -9819,9 +9814,7 @@
       <c r="AB33" t="s">
         <v>268</v>
       </c>
-      <c r="AC33" t="s">
-        <v>12</v>
-      </c>
+      <c r="AC33"/>
       <c r="AD33" t="s">
         <v>269</v>
       </c>
@@ -9859,7 +9852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -9935,9 +9928,7 @@
       <c r="AB34" t="s">
         <v>279</v>
       </c>
-      <c r="AC34" t="s">
-        <v>12</v>
-      </c>
+      <c r="AC34"/>
       <c r="AD34" t="s">
         <v>280</v>
       </c>
@@ -9975,7 +9966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -10051,9 +10042,7 @@
       <c r="AB35" t="s">
         <v>288</v>
       </c>
-      <c r="AC35" t="s">
-        <v>12</v>
-      </c>
+      <c r="AC35"/>
       <c r="AD35" t="s">
         <v>90</v>
       </c>
@@ -10091,7 +10080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -10155,9 +10144,7 @@
       <c r="AB36" t="s">
         <v>296</v>
       </c>
-      <c r="AC36" t="s">
-        <v>12</v>
-      </c>
+      <c r="AC36"/>
       <c r="AD36" t="s">
         <v>155</v>
       </c>
@@ -10195,7 +10182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -10266,7 +10253,7 @@
         <v>301</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="AD37" t="s">
         <v>280</v>
@@ -10305,7 +10292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -10379,7 +10366,7 @@
         <v>308</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="AD38" t="s">
         <v>309</v>
@@ -10418,7 +10405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -10492,7 +10479,7 @@
         <v>315</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="AD39" t="s">
         <v>161</v>
@@ -10531,7 +10518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -10599,7 +10586,7 @@
         <v>321</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AD40" t="s">
         <v>92</v>
@@ -10638,7 +10625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -10709,7 +10696,7 @@
         <v>328</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD41">
         <v>6</v>
@@ -10748,7 +10735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -10822,7 +10809,7 @@
         <v>334</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AD42" t="s">
         <v>201</v>
@@ -10861,7 +10848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -10932,7 +10919,7 @@
         <v>215</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AD43" t="s">
         <v>281</v>
@@ -10971,7 +10958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -11039,7 +11026,7 @@
         <v>342</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="AD44">
         <v>8</v>
@@ -11078,7 +11065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -11143,7 +11130,7 @@
         <v>348</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AD45" t="s">
         <v>126</v>
@@ -11182,7 +11169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -11256,7 +11243,7 @@
         <v>354</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD46" t="s">
         <v>355</v>
@@ -11295,7 +11282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -11366,7 +11353,7 @@
         <v>360</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="AD47" t="s">
         <v>43</v>
@@ -11405,7 +11392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -11479,7 +11466,7 @@
         <v>367</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD48" t="s">
         <v>368</v>
@@ -11518,7 +11505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -11595,7 +11582,7 @@
         <v>374</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="AD49" t="s">
         <v>127</v>
@@ -11634,7 +11621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -11711,7 +11698,7 @@
         <v>380</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="AD50" t="s">
         <v>381</v>
@@ -11750,7 +11737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -11827,7 +11814,7 @@
         <v>388</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="AD51" t="s">
         <v>389</v>
@@ -11866,7 +11853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -11937,7 +11924,7 @@
         <v>395</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="AD52" t="s">
         <v>55</v>
@@ -11976,7 +11963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -12047,7 +12034,7 @@
         <v>399</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AD53" t="s">
         <v>400</v>
@@ -12086,7 +12073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -12163,7 +12150,7 @@
         <v>406</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AD54" t="s">
         <v>375</v>
@@ -12202,7 +12189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -12270,7 +12257,7 @@
         <v>411</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD55" t="s">
         <v>44</v>
@@ -12309,7 +12296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -12383,7 +12370,7 @@
         <v>417</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="AD56" t="s">
         <v>270</v>
@@ -12422,7 +12409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -12490,7 +12477,7 @@
         <v>422</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="AD57" t="s">
         <v>154</v>
@@ -12529,7 +12516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -12600,7 +12587,7 @@
         <v>429</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="AD58" t="s">
         <v>92</v>
@@ -12639,7 +12626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -12689,7 +12676,7 @@
         <v>436</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="AD59" t="s">
         <v>152</v>
@@ -12728,7 +12715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -12793,7 +12780,7 @@
         <v>442</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="AD60" t="s">
         <v>289</v>
@@ -12832,7 +12819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -12912,7 +12899,7 @@
         <v>452</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -12924,9 +12911,6 @@
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
         <v>0</v>
       </c>
       <c r="AI61" t="s">
@@ -12951,7 +12935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -13028,7 +13012,7 @@
         <v>308</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="AD62" t="s">
         <v>72</v>
@@ -13070,7 +13054,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -13153,7 +13137,7 @@
         <v>467</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD63" t="s">
         <v>53</v>
@@ -13195,7 +13179,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -13269,7 +13253,7 @@
         <v>144</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="AD64" t="s">
         <v>474</v>
@@ -13311,7 +13295,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -13385,7 +13369,7 @@
         <v>480</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AD65" t="s">
         <v>72</v>
@@ -13424,7 +13408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -13501,7 +13485,7 @@
         <v>488</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="AD66" t="s">
         <v>92</v>
@@ -13543,7 +13527,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -13620,7 +13604,7 @@
         <v>136</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="AD67" t="s">
         <v>127</v>
@@ -13662,7 +13646,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -13739,7 +13723,7 @@
         <v>500</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="AD68" t="s">
         <v>201</v>
@@ -13781,7 +13765,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -13855,7 +13839,7 @@
         <v>505</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="AD69" t="s">
         <v>506</v>
@@ -13897,7 +13881,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -13968,7 +13952,7 @@
         <v>512</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="AD70" t="s">
         <v>481</v>
@@ -14010,7 +13994,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -14087,7 +14071,7 @@
         <v>517</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="AD71" t="s">
         <v>127</v>
@@ -14129,7 +14113,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -14212,7 +14196,7 @@
         <v>524</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="AD72" t="s">
         <v>92</v>
@@ -14251,7 +14235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -14328,7 +14312,7 @@
         <v>530</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AD73" t="s">
         <v>201</v>
@@ -14367,7 +14351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -14438,7 +14422,7 @@
         <v>536</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="AD74">
         <v>6</v>
@@ -14480,7 +14464,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -14560,7 +14544,7 @@
         <v>542</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="AD75" t="s">
         <v>162</v>
@@ -14599,7 +14583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -14676,7 +14660,7 @@
         <v>547</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD76" t="s">
         <v>21</v>
@@ -14718,7 +14702,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -14789,7 +14773,7 @@
         <v>552</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="AD77" t="s">
         <v>302</v>
@@ -14831,7 +14815,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -14905,7 +14889,7 @@
         <v>558</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="AD78" t="s">
         <v>80</v>
@@ -14947,7 +14931,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -15018,7 +15002,7 @@
         <v>563</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD79" t="s">
         <v>322</v>
@@ -15057,7 +15041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -15131,7 +15115,7 @@
         <v>570</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD80" t="s">
         <v>54</v>
@@ -15173,7 +15157,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +15234,7 @@
         <v>577</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="AD81">
         <v>4</v>
@@ -15292,7 +15276,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -15372,7 +15356,7 @@
         <v>583</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="AD82" t="s">
         <v>389</v>
@@ -15414,7 +15398,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -15491,7 +15475,7 @@
         <v>588</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="AD83" t="s">
         <v>134</v>
@@ -15530,7 +15514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -15607,7 +15591,7 @@
         <v>594</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD84" t="s">
         <v>44</v>
@@ -15646,7 +15630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -15723,7 +15707,7 @@
         <v>308</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="AD85" t="s">
         <v>400</v>
@@ -15765,7 +15749,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -15845,7 +15829,7 @@
         <v>602</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="AD86" t="s">
         <v>162</v>
@@ -15887,7 +15871,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -15961,7 +15945,7 @@
         <v>606</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="AD87" t="s">
         <v>53</v>
@@ -16000,7 +15984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -16077,7 +16061,7 @@
         <v>613</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="AD88" t="s">
         <v>614</v>
@@ -16119,7 +16103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -16190,7 +16174,7 @@
         <v>620</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AD89" t="s">
         <v>621</v>
@@ -16232,7 +16216,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -16309,7 +16293,7 @@
         <v>626</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="AD90" t="s">
         <v>44</v>
@@ -16348,7 +16332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -16425,7 +16409,7 @@
         <v>631</v>
       </c>
       <c r="AC91" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD91" t="s">
         <v>375</v>
@@ -16464,7 +16448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -16541,7 +16525,7 @@
         <v>636</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD92" t="s">
         <v>92</v>
@@ -16580,7 +16564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -16651,7 +16635,7 @@
         <v>643</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="AD93" t="s">
         <v>289</v>
@@ -16690,7 +16674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -16767,7 +16751,7 @@
         <v>649</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AD94" t="s">
         <v>154</v>
@@ -16809,7 +16793,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -16877,7 +16861,7 @@
         <v>655</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD95" t="s">
         <v>127</v>
@@ -16916,7 +16900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -16993,7 +16977,7 @@
         <v>662</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="AD96" t="s">
         <v>474</v>
@@ -17035,7 +17019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -17115,7 +17099,7 @@
         <v>552</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="AD97" t="s">
         <v>614</v>
@@ -17154,7 +17138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -17228,7 +17212,7 @@
         <v>675</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AD98">
         <v>6</v>
@@ -17270,7 +17254,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -17341,7 +17325,7 @@
         <v>680</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD99" t="s">
         <v>116</v>
@@ -17380,7 +17364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -17451,7 +17435,7 @@
         <v>686</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="AD100" t="s">
         <v>80</v>
@@ -17493,7 +17477,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -17573,7 +17557,7 @@
         <v>489</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AD101" t="s">
         <v>155</v>
@@ -17612,7 +17596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -17689,7 +17673,7 @@
         <v>698</v>
       </c>
       <c r="AC102" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AD102" t="s">
         <v>281</v>
@@ -17728,7 +17712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -17811,7 +17795,7 @@
         <v>56</v>
       </c>
       <c r="AC103" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="AD103" t="s">
         <v>201</v>
@@ -17850,7 +17834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -17927,7 +17911,7 @@
         <v>239</v>
       </c>
       <c r="AC104" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="AD104" t="s">
         <v>155</v>
@@ -17966,7 +17950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -18049,7 +18033,7 @@
         <v>120</v>
       </c>
       <c r="AC105" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AD105">
         <v>6</v>
@@ -18088,7 +18072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -18171,7 +18155,7 @@
         <v>716</v>
       </c>
       <c r="AC106" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="AD106" t="s">
         <v>143</v>
@@ -18210,7 +18194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -18287,7 +18271,7 @@
         <v>721</v>
       </c>
       <c r="AC107" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD107" t="s">
         <v>249</v>
@@ -18326,7 +18310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -18409,7 +18393,7 @@
         <v>321</v>
       </c>
       <c r="AC108" s="2" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="AD108" t="s">
         <v>289</v>
@@ -18448,7 +18432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -18528,7 +18512,7 @@
         <v>733</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="AD109" t="s">
         <v>162</v>
@@ -18570,7 +18554,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -18641,7 +18625,7 @@
         <v>739</v>
       </c>
       <c r="AC110" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD110" t="s">
         <v>53</v>
@@ -18680,7 +18664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -18760,7 +18744,7 @@
         <v>744</v>
       </c>
       <c r="AC111" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AD111" t="s">
         <v>745</v>
@@ -18802,7 +18786,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -18873,7 +18857,7 @@
         <v>385</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD112" t="s">
         <v>650</v>
@@ -18915,7 +18899,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -18986,7 +18970,7 @@
         <v>757</v>
       </c>
       <c r="AC113" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD113" t="s">
         <v>116</v>
@@ -19028,7 +19012,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -19108,7 +19092,7 @@
         <v>762</v>
       </c>
       <c r="AC114" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="AD114" t="s">
         <v>126</v>
@@ -19147,7 +19131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -19221,7 +19205,7 @@
         <v>768</v>
       </c>
       <c r="AC115" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="AD115" t="s">
         <v>382</v>
@@ -19263,7 +19247,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -19337,7 +19321,7 @@
         <v>773</v>
       </c>
       <c r="AC116" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="AD116" t="s">
         <v>603</v>
@@ -19379,7 +19363,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -19450,7 +19434,7 @@
         <v>780</v>
       </c>
       <c r="AC117" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="AD117" t="s">
         <v>375</v>
@@ -19492,7 +19476,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -19566,7 +19550,7 @@
         <v>773</v>
       </c>
       <c r="AC118" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="AD118" t="s">
         <v>603</v>
@@ -19608,7 +19592,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -19682,7 +19666,7 @@
         <v>787</v>
       </c>
       <c r="AC119" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AD119" t="s">
         <v>92</v>
@@ -19724,7 +19708,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -19795,7 +19779,7 @@
         <v>792</v>
       </c>
       <c r="AC120" s="2" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="AD120">
         <v>6</v>
@@ -19837,7 +19821,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -19911,7 +19895,7 @@
         <v>530</v>
       </c>
       <c r="AC121" s="2" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="AD121" t="s">
         <v>162</v>
@@ -19950,7 +19934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -20030,7 +20014,7 @@
         <v>801</v>
       </c>
       <c r="AC122" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AD122">
         <v>5</v>
@@ -20072,7 +20056,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -20143,7 +20127,7 @@
         <v>805</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="AD123" t="s">
         <v>400</v>
@@ -20185,7 +20169,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -20256,7 +20240,7 @@
         <v>809</v>
       </c>
       <c r="AC124" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD124" t="s">
         <v>53</v>
@@ -20295,7 +20279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -20372,7 +20356,7 @@
         <v>815</v>
       </c>
       <c r="AC125" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="AD125" t="s">
         <v>43</v>
@@ -20414,7 +20398,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -20494,7 +20478,7 @@
         <v>821</v>
       </c>
       <c r="AC126" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="AD126" t="s">
         <v>506</v>
@@ -20533,7 +20517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -20607,7 +20591,7 @@
         <v>569</v>
       </c>
       <c r="AC127" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="AD127" t="s">
         <v>289</v>
@@ -20649,7 +20633,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -20717,7 +20701,7 @@
         <v>832</v>
       </c>
       <c r="AC128" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AD128" t="s">
         <v>474</v>
@@ -20756,7 +20740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -20833,7 +20817,7 @@
         <v>838</v>
       </c>
       <c r="AC129" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="AD129" t="s">
         <v>92</v>
@@ -20875,7 +20859,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -20949,7 +20933,7 @@
         <v>843</v>
       </c>
       <c r="AC130" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="AD130" t="s">
         <v>481</v>
@@ -20991,7 +20975,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -21071,7 +21055,7 @@
         <v>848</v>
       </c>
       <c r="AC131" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD131" t="s">
         <v>152</v>
@@ -21113,7 +21097,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -21193,7 +21177,7 @@
         <v>852</v>
       </c>
       <c r="AC132" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="AD132" t="s">
         <v>853</v>
@@ -21235,7 +21219,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -21312,7 +21296,7 @@
         <v>859</v>
       </c>
       <c r="AC133" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AD133" t="s">
         <v>43</v>
@@ -21354,7 +21338,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -21431,7 +21415,7 @@
         <v>864</v>
       </c>
       <c r="AC134" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AD134" t="s">
         <v>865</v>
@@ -21473,7 +21457,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -21541,7 +21525,7 @@
         <v>870</v>
       </c>
       <c r="AC135" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="AD135" t="s">
         <v>54</v>
@@ -21580,7 +21564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -21651,7 +21635,7 @@
         <v>875</v>
       </c>
       <c r="AC136" s="2" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="AD136" t="s">
         <v>80</v>
@@ -21693,7 +21677,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -21770,7 +21754,7 @@
         <v>880</v>
       </c>
       <c r="AC137" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD137" t="s">
         <v>368</v>
@@ -21812,7 +21796,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -21886,7 +21870,7 @@
         <v>885</v>
       </c>
       <c r="AC138" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD138" t="s">
         <v>55</v>
@@ -21925,7 +21909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -21996,7 +21980,7 @@
         <v>889</v>
       </c>
       <c r="AC139" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD139" t="s">
         <v>55</v>
@@ -22035,7 +22019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -22115,7 +22099,7 @@
         <v>895</v>
       </c>
       <c r="AC140" s="2" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="AD140" t="s">
         <v>244</v>
@@ -22154,7 +22138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -22222,7 +22206,7 @@
         <v>899</v>
       </c>
       <c r="AC141" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD141" t="s">
         <v>481</v>
@@ -22261,7 +22245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -22338,7 +22322,7 @@
         <v>864</v>
       </c>
       <c r="AC142" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="AD142" t="s">
         <v>904</v>
@@ -22380,7 +22364,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -22448,7 +22432,7 @@
         <v>909</v>
       </c>
       <c r="AC143" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD143" t="s">
         <v>368</v>
@@ -22487,7 +22471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -22567,7 +22551,7 @@
         <v>109</v>
       </c>
       <c r="AC144" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD144" t="s">
         <v>126</v>
@@ -22609,7 +22593,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -22677,7 +22661,7 @@
         <v>919</v>
       </c>
       <c r="AC145" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="AD145" t="s">
         <v>261</v>
@@ -22716,7 +22700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -22793,7 +22777,7 @@
         <v>923</v>
       </c>
       <c r="AC146" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="AD146" t="s">
         <v>269</v>
@@ -22835,7 +22819,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -22912,7 +22896,7 @@
         <v>927</v>
       </c>
       <c r="AC147" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="AD147" t="s">
         <v>152</v>
@@ -22951,7 +22935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -23019,7 +23003,7 @@
         <v>931</v>
       </c>
       <c r="AC148" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AD148" t="s">
         <v>400</v>
@@ -23058,7 +23042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -23132,7 +23116,7 @@
         <v>335</v>
       </c>
       <c r="AC149" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD149" t="s">
         <v>193</v>
@@ -23174,7 +23158,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -23248,7 +23232,7 @@
         <v>941</v>
       </c>
       <c r="AC150" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="AD150" t="s">
         <v>400</v>
@@ -23290,7 +23274,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -23367,7 +23351,7 @@
         <v>946</v>
       </c>
       <c r="AC151" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AD151">
         <v>7</v>
@@ -23409,7 +23393,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -23486,7 +23470,7 @@
         <v>644</v>
       </c>
       <c r="AC152" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="AD152" t="s">
         <v>155</v>
@@ -23528,7 +23512,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -23605,7 +23589,7 @@
         <v>955</v>
       </c>
       <c r="AC153" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="AD153" t="s">
         <v>137</v>
@@ -23644,7 +23628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -23718,7 +23702,7 @@
         <v>962</v>
       </c>
       <c r="AC154" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="AD154" t="s">
         <v>44</v>
@@ -23757,7 +23741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -23837,7 +23821,7 @@
         <v>967</v>
       </c>
       <c r="AC155" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD155" t="s">
         <v>854</v>
@@ -23876,7 +23860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -23944,7 +23928,7 @@
         <v>971</v>
       </c>
       <c r="AC156" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD156" t="s">
         <v>481</v>
@@ -23986,7 +23970,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -24063,7 +24047,7 @@
         <v>860</v>
       </c>
       <c r="AC157" s="2" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="AD157">
         <v>4</v>
@@ -24105,7 +24089,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -24182,7 +24166,7 @@
         <v>978</v>
       </c>
       <c r="AC158" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD158" t="s">
         <v>80</v>
@@ -24224,7 +24208,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -24301,7 +24285,7 @@
         <v>637</v>
       </c>
       <c r="AC159" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="AD159" t="s">
         <v>54</v>
@@ -24340,7 +24324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -24411,7 +24395,7 @@
         <v>987</v>
       </c>
       <c r="AC160" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AD160" t="s">
         <v>117</v>
@@ -24450,7 +24434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -24524,7 +24508,7 @@
         <v>993</v>
       </c>
       <c r="AC161" s="2" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AD161" t="s">
         <v>44</v>
@@ -24566,7 +24550,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -24643,7 +24627,7 @@
         <v>997</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AD162" t="s">
         <v>270</v>
@@ -24682,7 +24666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -24759,7 +24743,7 @@
         <v>1001</v>
       </c>
       <c r="AC163" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="AD163" t="s">
         <v>244</v>
@@ -24801,7 +24785,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -24881,7 +24865,7 @@
         <v>1006</v>
       </c>
       <c r="AC164" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="AD164" t="s">
         <v>127</v>
@@ -24923,7 +24907,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -25003,7 +24987,7 @@
         <v>1011</v>
       </c>
       <c r="AC165" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD165" t="s">
         <v>81</v>
@@ -25045,7 +25029,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -25125,7 +25109,7 @@
         <v>1015</v>
       </c>
       <c r="AC166" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD166" t="s">
         <v>506</v>
@@ -25167,7 +25151,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -25238,7 +25222,7 @@
         <v>1020</v>
       </c>
       <c r="AC167" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="AD167" t="s">
         <v>117</v>
@@ -25280,7 +25264,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -25363,7 +25347,7 @@
         <v>588</v>
       </c>
       <c r="AC168" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="AD168">
         <v>7</v>
@@ -25405,7 +25389,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -25488,7 +25472,7 @@
         <v>417</v>
       </c>
       <c r="AC169" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="AD169" t="s">
         <v>44</v>
@@ -25527,7 +25511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -25598,7 +25582,7 @@
         <v>1034</v>
       </c>
       <c r="AC170" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="AD170" t="s">
         <v>854</v>
@@ -25637,7 +25621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -25708,7 +25692,7 @@
         <v>1039</v>
       </c>
       <c r="AC171" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="AD171" t="s">
         <v>54</v>
@@ -25747,7 +25731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -25827,7 +25811,7 @@
         <v>543</v>
       </c>
       <c r="AC172" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="AD172" t="s">
         <v>438</v>
@@ -25869,7 +25853,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -25943,7 +25927,7 @@
         <v>83</v>
       </c>
       <c r="AC173" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="AD173" t="s">
         <v>154</v>
@@ -25985,7 +25969,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -26065,7 +26049,7 @@
         <v>1050</v>
       </c>
       <c r="AC174" s="2" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="AD174">
         <v>3</v>
@@ -26107,7 +26091,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -26190,7 +26174,7 @@
         <v>780</v>
       </c>
       <c r="AC175" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD175" t="s">
         <v>43</v>
@@ -26229,7 +26213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -26306,7 +26290,7 @@
         <v>1061</v>
       </c>
       <c r="AC176" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AD176" t="s">
         <v>854</v>
@@ -26345,7 +26329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -26428,7 +26412,7 @@
         <v>780</v>
       </c>
       <c r="AC177" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="AD177" t="s">
         <v>656</v>
@@ -26470,7 +26454,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -26550,7 +26534,7 @@
         <v>1073</v>
       </c>
       <c r="AC178" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AD178" t="s">
         <v>506</v>
@@ -26589,7 +26573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -26669,7 +26653,7 @@
         <v>1075</v>
       </c>
       <c r="AC179" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD179" t="s">
         <v>92</v>
@@ -26708,7 +26692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -26788,7 +26772,7 @@
         <v>1079</v>
       </c>
       <c r="AC180" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AD180" t="s">
         <v>152</v>
@@ -26830,7 +26814,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -26907,7 +26891,7 @@
         <v>1085</v>
       </c>
       <c r="AC181" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AD181" t="s">
         <v>92</v>
@@ -26946,7 +26930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -27029,7 +27013,7 @@
         <v>1090</v>
       </c>
       <c r="AC182" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AD182" t="s">
         <v>71</v>
@@ -27071,7 +27055,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -27151,7 +27135,7 @@
         <v>1096</v>
       </c>
       <c r="AC183" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="AD183" t="s">
         <v>1067</v>
@@ -27193,7 +27177,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -27273,7 +27257,7 @@
         <v>1099</v>
       </c>
       <c r="AC184" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AD184" t="s">
         <v>80</v>
@@ -27312,7 +27296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -27392,7 +27376,7 @@
         <v>1103</v>
       </c>
       <c r="AC185" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD185" t="s">
         <v>368</v>
@@ -27431,7 +27415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -27502,16 +27486,16 @@
         <v>39</v>
       </c>
       <c r="Z186" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="AA186" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="AB186" t="s">
         <v>1107</v>
       </c>
       <c r="AC186" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD186" t="s">
         <v>137</v>
@@ -27553,7 +27537,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -27627,7 +27611,7 @@
         <v>1112</v>
       </c>
       <c r="AC187" s="2" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="AD187" t="s">
         <v>438</v>
@@ -27669,7 +27653,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -27752,7 +27736,7 @@
         <v>1117</v>
       </c>
       <c r="AC188" s="2" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="AD188" t="s">
         <v>44</v>
@@ -27791,7 +27775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -27868,7 +27852,7 @@
         <v>1122</v>
       </c>
       <c r="AC189" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="AD189" t="s">
         <v>854</v>
@@ -27907,7 +27891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -27990,7 +27974,7 @@
         <v>1128</v>
       </c>
       <c r="AC190" s="2" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="AD190" t="s">
         <v>72</v>
@@ -28032,7 +28016,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -28112,7 +28096,7 @@
         <v>1131</v>
       </c>
       <c r="AC191" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="AD191" t="s">
         <v>55</v>
@@ -28154,7 +28138,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -28237,7 +28221,7 @@
         <v>1137</v>
       </c>
       <c r="AC192" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="AD192" t="s">
         <v>269</v>
@@ -28279,7 +28263,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -28356,7 +28340,7 @@
         <v>1143</v>
       </c>
       <c r="AC193" s="2" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="AD193" t="s">
         <v>588</v>
@@ -28398,7 +28382,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -28478,7 +28462,7 @@
         <v>1149</v>
       </c>
       <c r="AC194" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AD194" t="s">
         <v>134</v>
@@ -28517,7 +28501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -28597,7 +28581,7 @@
         <v>1155</v>
       </c>
       <c r="AC195" s="2" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="AD195" t="s">
         <v>184</v>
@@ -28639,7 +28623,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -28716,7 +28700,7 @@
         <v>1162</v>
       </c>
       <c r="AC196" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AD196" t="s">
         <v>72</v>
@@ -28758,7 +28742,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -28835,7 +28819,7 @@
         <v>864</v>
       </c>
       <c r="AC197" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="AD197" t="s">
         <v>155</v>
@@ -28877,7 +28861,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -28957,7 +28941,7 @@
         <v>1170</v>
       </c>
       <c r="AC198" s="2" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AD198" t="s">
         <v>302</v>
@@ -28996,7 +28980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -29073,7 +29057,7 @@
         <v>1174</v>
       </c>
       <c r="AC199" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AD199" t="s">
         <v>154</v>
@@ -29115,7 +29099,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -29195,7 +29179,7 @@
         <v>1178</v>
       </c>
       <c r="AC200" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="AD200" t="s">
         <v>382</v>
@@ -29237,7 +29221,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -29308,7 +29292,7 @@
         <v>1183</v>
       </c>
       <c r="AC201" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="AD201" t="s">
         <v>126</v>
@@ -29350,7 +29334,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -29430,7 +29414,7 @@
         <v>1188</v>
       </c>
       <c r="AC202" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AD202" t="s">
         <v>154</v>
@@ -29472,7 +29456,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -29540,7 +29524,7 @@
         <v>1051</v>
       </c>
       <c r="AC203" s="2" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="AD203" t="s">
         <v>368</v>
@@ -29579,7 +29563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -29656,7 +29640,7 @@
         <v>1199</v>
       </c>
       <c r="AC204" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD204" t="s">
         <v>43</v>
@@ -29695,7 +29679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -29772,7 +29756,7 @@
         <v>1204</v>
       </c>
       <c r="AC205" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="AD205" t="s">
         <v>280</v>
@@ -29811,7 +29795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -29894,7 +29878,7 @@
         <v>1209</v>
       </c>
       <c r="AC206" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AD206" t="s">
         <v>44</v>
@@ -29933,7 +29917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -30016,7 +30000,7 @@
         <v>1215</v>
       </c>
       <c r="AC207" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="AD207" t="s">
         <v>302</v>
@@ -30058,7 +30042,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -30141,7 +30125,7 @@
         <v>1220</v>
       </c>
       <c r="AC208" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="AD208" t="s">
         <v>375</v>
@@ -30180,7 +30164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -30257,7 +30241,7 @@
         <v>1225</v>
       </c>
       <c r="AC209" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="AD209" t="s">
         <v>389</v>
@@ -30299,7 +30283,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -30379,7 +30363,7 @@
         <v>1230</v>
       </c>
       <c r="AC210" s="2" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="AD210" t="s">
         <v>161</v>
@@ -30418,7 +30402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -30501,7 +30485,7 @@
         <v>796</v>
       </c>
       <c r="AC211" s="2" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AD211" t="s">
         <v>375</v>
@@ -30540,7 +30524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -30623,7 +30607,7 @@
         <v>1240</v>
       </c>
       <c r="AC212" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AD212" t="s">
         <v>126</v>
@@ -30662,7 +30646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -30724,7 +30708,7 @@
         <v>1246</v>
       </c>
       <c r="AC213" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD213">
         <v>0</v>
@@ -30763,7 +30747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -30825,7 +30809,7 @@
         <v>1021</v>
       </c>
       <c r="AC214" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD214">
         <v>0</v>
@@ -30864,7 +30848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -30926,7 +30910,7 @@
         <v>1255</v>
       </c>
       <c r="AC215" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD215">
         <v>0</v>
@@ -30965,7 +30949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -31027,7 +31011,7 @@
         <v>92</v>
       </c>
       <c r="AC216" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD216">
         <v>0</v>
@@ -31066,7 +31050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -31128,7 +31112,7 @@
         <v>1264</v>
       </c>
       <c r="AC217" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD217">
         <v>0</v>
@@ -31167,7 +31151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -31229,7 +31213,7 @@
         <v>1268</v>
       </c>
       <c r="AC218" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AD218">
         <v>0</v>
@@ -31268,7 +31252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -31324,7 +31308,7 @@
         <v>1057</v>
       </c>
       <c r="AC219" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD219">
         <v>0</v>
@@ -31363,7 +31347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -31419,7 +31403,7 @@
         <v>1275</v>
       </c>
       <c r="AC220" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD220">
         <v>0</v>
@@ -31458,7 +31442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -31514,7 +31498,7 @@
         <v>1279</v>
       </c>
       <c r="AC221" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD221">
         <v>0</v>
@@ -31553,7 +31537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -31609,7 +31593,7 @@
         <v>1283</v>
       </c>
       <c r="AC222" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD222">
         <v>0</v>
@@ -31648,7 +31632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -31704,7 +31688,7 @@
         <v>249</v>
       </c>
       <c r="AC223" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD223">
         <v>0</v>
@@ -31743,7 +31727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -31799,7 +31783,7 @@
         <v>1290</v>
       </c>
       <c r="AC224" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD224">
         <v>0</v>
@@ -31838,7 +31822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -31894,7 +31878,7 @@
         <v>1294</v>
       </c>
       <c r="AC225" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD225">
         <v>0</v>
@@ -31933,7 +31917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -31989,7 +31973,7 @@
         <v>72</v>
       </c>
       <c r="AC226" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD226">
         <v>0</v>
@@ -32028,7 +32012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -32084,7 +32068,7 @@
         <v>1166</v>
       </c>
       <c r="AC227" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD227">
         <v>0</v>
@@ -32123,7 +32107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -32179,7 +32163,7 @@
         <v>1302</v>
       </c>
       <c r="AC228" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD228">
         <v>0</v>
@@ -32218,7 +32202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -32274,7 +32258,7 @@
         <v>1304</v>
       </c>
       <c r="AC229" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD229">
         <v>0</v>
@@ -32313,7 +32297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -32369,7 +32353,7 @@
         <v>1307</v>
       </c>
       <c r="AC230" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD230">
         <v>0</v>
@@ -32408,7 +32392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -32464,7 +32448,7 @@
         <v>1311</v>
       </c>
       <c r="AC231" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD231">
         <v>0</v>
@@ -32503,7 +32487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -32559,7 +32543,7 @@
         <v>1279</v>
       </c>
       <c r="AC232" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD232">
         <v>0</v>
@@ -32598,7 +32582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -32654,7 +32638,7 @@
         <v>1318</v>
       </c>
       <c r="AC233" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="AD233">
         <v>0</v>
@@ -32693,7 +32677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -32749,7 +32733,7 @@
         <v>375</v>
       </c>
       <c r="AC234" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD234">
         <v>0</v>
@@ -32788,7 +32772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -32844,7 +32828,7 @@
         <v>1323</v>
       </c>
       <c r="AC235" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD235">
         <v>0</v>
@@ -32883,7 +32867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -32939,7 +32923,7 @@
         <v>1166</v>
       </c>
       <c r="AC236" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD236">
         <v>0</v>
@@ -32978,7 +32962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -33034,7 +33018,7 @@
         <v>849</v>
       </c>
       <c r="AC237" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD237">
         <v>0</v>
@@ -33073,7 +33057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -33129,7 +33113,7 @@
         <v>1332</v>
       </c>
       <c r="AC238" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD238">
         <v>0</v>
@@ -33168,7 +33152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -33224,7 +33208,7 @@
         <v>1335</v>
       </c>
       <c r="AC239" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD239">
         <v>0</v>
@@ -33263,7 +33247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -33319,7 +33303,7 @@
         <v>1339</v>
       </c>
       <c r="AC240" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="AD240">
         <v>0</v>
@@ -33358,7 +33342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -33414,7 +33398,7 @@
         <v>1342</v>
       </c>
       <c r="AC241" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD241">
         <v>0</v>
@@ -33453,7 +33437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -33512,7 +33496,7 @@
         <v>1346</v>
       </c>
       <c r="AC242" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="AD242">
         <v>0</v>
@@ -33551,7 +33535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -33607,7 +33591,7 @@
         <v>1349</v>
       </c>
       <c r="AC243" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD243">
         <v>0</v>
@@ -33646,7 +33630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -33702,7 +33686,7 @@
         <v>281</v>
       </c>
       <c r="AC244" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD244">
         <v>0</v>
@@ -33741,7 +33725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -33797,7 +33781,7 @@
         <v>1353</v>
       </c>
       <c r="AC245" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD245">
         <v>0</v>
@@ -33836,7 +33820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -33892,7 +33876,7 @@
         <v>1356</v>
       </c>
       <c r="AC246" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD246">
         <v>0</v>
@@ -33931,7 +33915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -33993,7 +33977,7 @@
         <v>1360</v>
       </c>
       <c r="AC247" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD247">
         <v>0</v>
@@ -34032,7 +34016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -34094,7 +34078,7 @@
         <v>1365</v>
       </c>
       <c r="AC248" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD248">
         <v>0</v>
@@ -34133,7 +34117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -34195,7 +34179,7 @@
         <v>1369</v>
       </c>
       <c r="AC249" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD249">
         <v>0</v>
@@ -34234,7 +34218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -34293,7 +34277,7 @@
         <v>1374</v>
       </c>
       <c r="AC250" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD250">
         <v>0</v>
@@ -34332,7 +34316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -34394,7 +34378,7 @@
         <v>1379</v>
       </c>
       <c r="AC251" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="AD251">
         <v>0</v>
@@ -34436,7 +34420,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -34498,7 +34482,7 @@
         <v>1383</v>
       </c>
       <c r="AC252" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD252">
         <v>0</v>
@@ -34537,7 +34521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -34599,7 +34583,7 @@
         <v>578</v>
       </c>
       <c r="AC253" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD253">
         <v>0</v>
@@ -34638,7 +34622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -34700,7 +34684,7 @@
         <v>1392</v>
       </c>
       <c r="AC254" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD254">
         <v>0</v>
@@ -34739,7 +34723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -34801,7 +34785,7 @@
         <v>1396</v>
       </c>
       <c r="AC255" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD255">
         <v>0</v>
@@ -34840,7 +34824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -34902,7 +34886,7 @@
         <v>1401</v>
       </c>
       <c r="AC256" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD256">
         <v>0</v>
@@ -34941,7 +34925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -35003,7 +34987,7 @@
         <v>143</v>
       </c>
       <c r="AC257" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD257">
         <v>0</v>
@@ -35042,7 +35026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -35104,7 +35088,7 @@
         <v>1408</v>
       </c>
       <c r="AC258" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD258">
         <v>0</v>
@@ -35146,7 +35130,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -35208,7 +35192,7 @@
         <v>1412</v>
       </c>
       <c r="AC259" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD259">
         <v>0</v>
@@ -35247,7 +35231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -35309,7 +35293,7 @@
         <v>1417</v>
       </c>
       <c r="AC260" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD260">
         <v>0</v>
@@ -35348,7 +35332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -35410,7 +35394,7 @@
         <v>1422</v>
       </c>
       <c r="AC261" s="2" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="AD261">
         <v>0</v>
@@ -35449,7 +35433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -35511,7 +35495,7 @@
         <v>1425</v>
       </c>
       <c r="AC262" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD262">
         <v>0</v>
@@ -35550,7 +35534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -35612,7 +35596,7 @@
         <v>1429</v>
       </c>
       <c r="AC263" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD263">
         <v>0</v>
@@ -35651,7 +35635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -35707,7 +35691,7 @@
         <v>1433</v>
       </c>
       <c r="AC264" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD264">
         <v>0</v>
@@ -35746,7 +35730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -35802,7 +35786,7 @@
         <v>1436</v>
       </c>
       <c r="AC265" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="AD265">
         <v>0</v>
@@ -35841,7 +35825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -35897,7 +35881,7 @@
         <v>1439</v>
       </c>
       <c r="AC266" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD266">
         <v>0</v>
@@ -35936,7 +35920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -35992,7 +35976,7 @@
         <v>1442</v>
       </c>
       <c r="AC267" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD267">
         <v>0</v>
@@ -36031,7 +36015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -36087,7 +36071,7 @@
         <v>1445</v>
       </c>
       <c r="AC268" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD268">
         <v>0</v>
@@ -36126,7 +36110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -36188,7 +36172,7 @@
         <v>1449</v>
       </c>
       <c r="AC269" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD269">
         <v>0</v>
@@ -36227,7 +36211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -36283,7 +36267,7 @@
         <v>1452</v>
       </c>
       <c r="AC270" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD270">
         <v>0</v>
@@ -36322,7 +36306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -36378,7 +36362,7 @@
         <v>1455</v>
       </c>
       <c r="AC271" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD271">
         <v>0</v>
@@ -36417,7 +36401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -36473,7 +36457,7 @@
         <v>1458</v>
       </c>
       <c r="AC272" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD272">
         <v>0</v>
@@ -36512,7 +36496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -36568,7 +36552,7 @@
         <v>1461</v>
       </c>
       <c r="AC273" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD273">
         <v>0</v>
@@ -36607,7 +36591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -36663,7 +36647,7 @@
         <v>1464</v>
       </c>
       <c r="AC274" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD274">
         <v>0</v>
@@ -36702,7 +36686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -36758,7 +36742,7 @@
         <v>1468</v>
       </c>
       <c r="AC275" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD275">
         <v>0</v>
@@ -36797,7 +36781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -36853,7 +36837,7 @@
         <v>1472</v>
       </c>
       <c r="AC276" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD276">
         <v>0</v>
@@ -36892,7 +36876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -36948,7 +36932,7 @@
         <v>1442</v>
       </c>
       <c r="AC277" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD277">
         <v>0</v>
@@ -36987,7 +36971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -37043,7 +37027,7 @@
         <v>1479</v>
       </c>
       <c r="AC278" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD278">
         <v>0</v>
@@ -37082,7 +37066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -37138,7 +37122,7 @@
         <v>900</v>
       </c>
       <c r="AC279" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD279">
         <v>0</v>
@@ -37177,7 +37161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -37233,7 +37217,7 @@
         <v>216</v>
       </c>
       <c r="AC280" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AD280">
         <v>0</v>
@@ -37272,7 +37256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -37331,7 +37315,7 @@
         <v>1488</v>
       </c>
       <c r="AC281" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD281">
         <v>0</v>
@@ -37370,7 +37354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -37444,7 +37428,7 @@
         <v>1355</v>
       </c>
       <c r="AC282" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AD282" t="s">
         <v>322</v>
@@ -37483,7 +37467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -37539,7 +37523,7 @@
         <v>1493</v>
       </c>
       <c r="AC283" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD283">
         <v>0</v>
@@ -37578,7 +37562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -37634,7 +37618,7 @@
         <v>1496</v>
       </c>
       <c r="AC284" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD284">
         <v>0</v>
@@ -37673,7 +37657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -37729,7 +37713,7 @@
         <v>1500</v>
       </c>
       <c r="AC285" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD285">
         <v>0</v>
@@ -37768,7 +37752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -37824,7 +37808,7 @@
         <v>1503</v>
       </c>
       <c r="AC286" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD286">
         <v>0</v>
@@ -37863,7 +37847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -37919,7 +37903,7 @@
         <v>1507</v>
       </c>
       <c r="AC287" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD287">
         <v>0</v>
@@ -37958,7 +37942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -38014,7 +37998,7 @@
         <v>1511</v>
       </c>
       <c r="AC288" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD288">
         <v>0</v>
@@ -38053,7 +38037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -38109,7 +38093,7 @@
         <v>1515</v>
       </c>
       <c r="AC289" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AD289">
         <v>0</v>
@@ -38148,7 +38132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -38204,7 +38188,7 @@
         <v>1519</v>
       </c>
       <c r="AC290" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD290">
         <v>0</v>
@@ -38243,7 +38227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -38299,7 +38283,7 @@
         <v>1522</v>
       </c>
       <c r="AC291" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD291">
         <v>0</v>
@@ -38338,7 +38322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -38394,7 +38378,7 @@
         <v>1525</v>
       </c>
       <c r="AC292" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD292">
         <v>0</v>
@@ -38433,7 +38417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -38489,7 +38473,7 @@
         <v>1529</v>
       </c>
       <c r="AC293" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD293">
         <v>0</v>
@@ -38528,7 +38512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -38584,7 +38568,7 @@
         <v>1533</v>
       </c>
       <c r="AC294" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD294">
         <v>0</v>
@@ -38623,7 +38607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -38679,7 +38663,7 @@
         <v>1537</v>
       </c>
       <c r="AC295" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD295">
         <v>0</v>
@@ -38718,7 +38702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -38774,7 +38758,7 @@
         <v>1540</v>
       </c>
       <c r="AC296" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD296">
         <v>0</v>
@@ -38813,7 +38797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -38869,7 +38853,7 @@
         <v>1544</v>
       </c>
       <c r="AC297" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD297">
         <v>0</v>
@@ -38908,7 +38892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -38964,7 +38948,7 @@
         <v>599</v>
       </c>
       <c r="AC298" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD298">
         <v>0</v>
@@ -39003,7 +38987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -39059,7 +39043,7 @@
         <v>1550</v>
       </c>
       <c r="AC299" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD299">
         <v>0</v>
@@ -39098,7 +39082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -39154,7 +39138,7 @@
         <v>110</v>
       </c>
       <c r="AC300" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD300">
         <v>0</v>
@@ -39193,7 +39177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -39249,7 +39233,7 @@
         <v>900</v>
       </c>
       <c r="AC301" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD301">
         <v>0</v>
@@ -39288,7 +39272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -39344,7 +39328,7 @@
         <v>1559</v>
       </c>
       <c r="AC302" s="2" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="AD302">
         <v>0</v>
@@ -39383,7 +39367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -39439,7 +39423,7 @@
         <v>1561</v>
       </c>
       <c r="AC303" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD303">
         <v>0</v>
@@ -39478,7 +39462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -39534,7 +39518,7 @@
         <v>1563</v>
       </c>
       <c r="AC304" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD304">
         <v>0</v>
@@ -39573,7 +39557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -39629,7 +39613,7 @@
         <v>1567</v>
       </c>
       <c r="AC305" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="AD305">
         <v>0</v>
@@ -39668,7 +39652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -39724,7 +39708,7 @@
         <v>1571</v>
       </c>
       <c r="AC306" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD306">
         <v>0</v>
@@ -39763,7 +39747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -39822,7 +39806,7 @@
         <v>1575</v>
       </c>
       <c r="AC307" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="AD307">
         <v>0</v>
@@ -39861,7 +39845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -39917,7 +39901,7 @@
         <v>1578</v>
       </c>
       <c r="AC308" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD308">
         <v>0</v>
@@ -39956,7 +39940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -40012,7 +39996,7 @@
         <v>1582</v>
       </c>
       <c r="AC309" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD309">
         <v>0</v>
@@ -40054,7 +40038,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -40110,7 +40094,7 @@
         <v>1442</v>
       </c>
       <c r="AC310" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD310">
         <v>0</v>
@@ -40149,7 +40133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -40205,7 +40189,7 @@
         <v>1587</v>
       </c>
       <c r="AC311" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD311">
         <v>0</v>
@@ -40244,7 +40228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -40300,7 +40284,7 @@
         <v>240</v>
       </c>
       <c r="AC312" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="AD312">
         <v>0</v>
@@ -40339,7 +40323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -40434,7 +40418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -40517,7 +40501,7 @@
         <v>1595</v>
       </c>
       <c r="AC314" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD314" t="s">
         <v>355</v>
@@ -40556,7 +40540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -40612,7 +40596,7 @@
         <v>1597</v>
       </c>
       <c r="AC315" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AD315">
         <v>0</v>
@@ -40651,7 +40635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -40707,7 +40691,7 @@
         <v>1600</v>
       </c>
       <c r="AC316" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD316">
         <v>0</v>
@@ -40746,7 +40730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -40802,7 +40786,7 @@
         <v>476</v>
       </c>
       <c r="AC317" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AD317">
         <v>0</v>
@@ -40841,7 +40825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -40897,7 +40881,7 @@
         <v>1515</v>
       </c>
       <c r="AC318" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD318">
         <v>0</v>
@@ -40936,7 +40920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -40992,7 +40976,7 @@
         <v>1608</v>
       </c>
       <c r="AC319" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="AD319">
         <v>0</v>
@@ -41031,7 +41015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -41087,7 +41071,7 @@
         <v>1612</v>
       </c>
       <c r="AC320" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="AD320">
         <v>0</v>
@@ -41126,7 +41110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -41182,7 +41166,7 @@
         <v>1616</v>
       </c>
       <c r="AC321" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD321">
         <v>0</v>
@@ -41221,7 +41205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -41277,7 +41261,7 @@
         <v>281</v>
       </c>
       <c r="AC322" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD322">
         <v>0</v>
@@ -41316,7 +41300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -41372,7 +41356,7 @@
         <v>1622</v>
       </c>
       <c r="AC323" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD323">
         <v>0</v>
@@ -41411,7 +41395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -41467,7 +41451,7 @@
         <v>1626</v>
       </c>
       <c r="AC324" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AD324">
         <v>0</v>
@@ -41506,7 +41490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -41562,7 +41546,7 @@
         <v>1629</v>
       </c>
       <c r="AC325" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD325">
         <v>0</v>
@@ -41601,7 +41585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -41681,7 +41665,7 @@
         <v>1633</v>
       </c>
       <c r="AC326" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AD326" t="s">
         <v>21</v>
@@ -41723,7 +41707,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -41800,7 +41784,7 @@
         <v>1639</v>
       </c>
       <c r="AC327" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AD327" t="s">
         <v>55</v>
@@ -41842,7 +41826,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -41919,7 +41903,7 @@
         <v>1643</v>
       </c>
       <c r="AC328" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="AD328" t="s">
         <v>54</v>
@@ -41961,7 +41945,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -42044,7 +42028,7 @@
         <v>1174</v>
       </c>
       <c r="AC329" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="AD329" t="s">
         <v>126</v>
@@ -42083,7 +42067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -42151,7 +42135,7 @@
         <v>1652</v>
       </c>
       <c r="AC330" s="2" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="AD330">
         <v>0</v>
@@ -42193,7 +42177,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -42261,7 +42245,7 @@
         <v>1658</v>
       </c>
       <c r="AC331" s="2" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="AD331">
         <v>0</v>
@@ -42303,7 +42287,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -42377,7 +42361,7 @@
         <v>604</v>
       </c>
       <c r="AC332" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="AD332">
         <v>0</v>
@@ -42419,7 +42403,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -42487,7 +42471,7 @@
         <v>1667</v>
       </c>
       <c r="AC333" s="2" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="AD333">
         <v>0</v>
@@ -42529,7 +42513,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>0</v>
       </c>
@@ -42585,7 +42569,7 @@
         <v>1521</v>
       </c>
       <c r="AC334" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="AD334">
         <v>0</v>
@@ -42624,7 +42608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>0</v>
       </c>
@@ -42701,7 +42685,7 @@
         <v>852</v>
       </c>
       <c r="AC335" s="2" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="AD335" t="s">
         <v>280</v>
@@ -42740,7 +42724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -42802,7 +42786,7 @@
         <v>1678</v>
       </c>
       <c r="AC336" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="AD336">
         <v>0</v>
@@ -42841,7 +42825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -42909,7 +42893,7 @@
         <v>931</v>
       </c>
       <c r="AC337" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="AD337" t="s">
         <v>289</v>
@@ -42951,7 +42935,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>0</v>
       </c>
@@ -43010,7 +42994,7 @@
         <v>1685</v>
       </c>
       <c r="AC338" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="AD338">
         <v>7</v>
@@ -43052,7 +43036,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -43111,7 +43095,7 @@
         <v>489</v>
       </c>
       <c r="AC339" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AD339">
         <v>0</v>
@@ -43150,7 +43134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>0</v>
       </c>
@@ -43224,7 +43208,7 @@
         <v>1693</v>
       </c>
       <c r="AC340" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="AD340">
         <v>0</v>
@@ -43263,7 +43247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>0</v>
       </c>
@@ -43322,7 +43306,7 @@
         <v>1696</v>
       </c>
       <c r="AC341" s="2" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AD341" t="s">
         <v>154</v>
@@ -43364,7 +43348,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="342" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>0</v>
       </c>
@@ -43429,7 +43413,7 @@
         <v>1701</v>
       </c>
       <c r="AC342" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="AD342" t="s">
         <v>55</v>
@@ -43468,7 +43452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>0</v>
       </c>
@@ -43527,7 +43511,7 @@
         <v>422</v>
       </c>
       <c r="AC343" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="AD343" t="s">
         <v>389</v>
@@ -43566,7 +43550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>0</v>
       </c>
@@ -43640,7 +43624,7 @@
         <v>1711</v>
       </c>
       <c r="AC344" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AD344" t="s">
         <v>126</v>
@@ -43682,7 +43666,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>0</v>
       </c>
@@ -43762,7 +43746,7 @@
         <v>1716</v>
       </c>
       <c r="AC345" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="AD345">
         <v>10</v>
@@ -43801,7 +43785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>0</v>
       </c>
@@ -43878,7 +43862,7 @@
         <v>1723</v>
       </c>
       <c r="AC346" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="AD346" t="s">
         <v>904</v>
@@ -43917,7 +43901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>0</v>
       </c>
@@ -43973,7 +43957,7 @@
         <v>1728</v>
       </c>
       <c r="AC347" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AD347">
         <v>0</v>
@@ -44012,7 +43996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>0</v>
       </c>
@@ -44092,7 +44076,7 @@
         <v>388</v>
       </c>
       <c r="AC348" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="AD348">
         <v>7</v>
@@ -44143,7 +44127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44155,7 +44139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/Balve/raw_data/Balver_Höhle.xlsx
+++ b/analysis/Balve/raw_data/Balver_Höhle.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11576" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11572" uniqueCount="1858">
   <si>
     <t>Balver_Höhle</t>
   </si>
@@ -5508,9 +5508,6 @@
     <t>0.066</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>0.056</t>
   </si>
   <si>
@@ -5580,12 +5577,6 @@
     <t>0.084</t>
   </si>
   <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
     <t>0.045</t>
   </si>
   <si>
@@ -5599,9 +5590,6 @@
   </si>
   <si>
     <t>0.041</t>
-  </si>
-  <si>
-    <t>0.3</t>
   </si>
   <si>
     <t>0.029</t>
@@ -6011,8 +5999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="S311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC349" sqref="AC349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6122,10 +6110,10 @@
         <v>1753</v>
       </c>
       <c r="V1" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="W1" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="X1" t="s">
         <v>1754</v>
@@ -6146,7 +6134,7 @@
         <v>1759</v>
       </c>
       <c r="AD1" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="AE1" t="s">
         <v>1760</v>
@@ -6390,7 +6378,7 @@
         <v>30</v>
       </c>
       <c r="AC3" s="2">
-        <v>1.294</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="AD3" t="s">
         <v>31</v>
@@ -7041,7 +7029,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
@@ -11190,7 +11178,7 @@
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L46" t="s">
         <v>10</v>
@@ -12471,8 +12459,8 @@
       <c r="AB57" t="s">
         <v>421</v>
       </c>
-      <c r="AC57" s="2" t="s">
-        <v>1811</v>
+      <c r="AC57" s="2">
+        <v>0.02</v>
       </c>
       <c r="AD57" t="s">
         <v>153</v>
@@ -12582,7 +12570,7 @@
         <v>428</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AD58" t="s">
         <v>91</v>
@@ -12671,7 +12659,7 @@
         <v>435</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD59" t="s">
         <v>151</v>
@@ -12775,7 +12763,7 @@
         <v>441</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AD60" t="s">
         <v>288</v>
@@ -12894,7 +12882,7 @@
         <v>451</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -13007,7 +12995,7 @@
         <v>307</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD62" t="s">
         <v>72</v>
@@ -13248,7 +13236,7 @@
         <v>143</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD64" t="s">
         <v>473</v>
@@ -13429,7 +13417,7 @@
         <v>8</v>
       </c>
       <c r="K66" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L66" t="s">
         <v>10</v>
@@ -13718,7 +13706,7 @@
         <v>499</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD68" t="s">
         <v>200</v>
@@ -13834,7 +13822,7 @@
         <v>504</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="AD69" t="s">
         <v>505</v>
@@ -14066,7 +14054,7 @@
         <v>516</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD71" t="s">
         <v>126</v>
@@ -14191,7 +14179,7 @@
         <v>523</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD72" t="s">
         <v>91</v>
@@ -14417,7 +14405,7 @@
         <v>535</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AD74">
         <v>6</v>
@@ -14539,7 +14527,7 @@
         <v>541</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AD75" t="s">
         <v>161</v>
@@ -14839,7 +14827,7 @@
         <v>8</v>
       </c>
       <c r="K78" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L78" t="s">
         <v>3</v>
@@ -14884,7 +14872,7 @@
         <v>557</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD78" t="s">
         <v>80</v>
@@ -14997,7 +14985,7 @@
         <v>562</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD79" t="s">
         <v>321</v>
@@ -15110,7 +15098,7 @@
         <v>569</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD80" t="s">
         <v>54</v>
@@ -15351,7 +15339,7 @@
         <v>582</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AD82" t="s">
         <v>388</v>
@@ -15470,7 +15458,7 @@
         <v>587</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD83" t="s">
         <v>133</v>
@@ -15824,7 +15812,7 @@
         <v>601</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AD86" t="s">
         <v>161</v>
@@ -15940,7 +15928,7 @@
         <v>605</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AD87" t="s">
         <v>53</v>
@@ -16056,7 +16044,7 @@
         <v>612</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="AD88" t="s">
         <v>613</v>
@@ -16288,7 +16276,7 @@
         <v>625</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD90" t="s">
         <v>44</v>
@@ -16404,7 +16392,7 @@
         <v>630</v>
       </c>
       <c r="AC91" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD91" t="s">
         <v>374</v>
@@ -16472,7 +16460,7 @@
         <v>8</v>
       </c>
       <c r="K92" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L92" t="s">
         <v>10</v>
@@ -16520,7 +16508,7 @@
         <v>635</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD92" t="s">
         <v>91</v>
@@ -16630,7 +16618,7 @@
         <v>642</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AD93" t="s">
         <v>288</v>
@@ -16856,7 +16844,7 @@
         <v>654</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD95" t="s">
         <v>126</v>
@@ -16972,7 +16960,7 @@
         <v>661</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD96" t="s">
         <v>473</v>
@@ -17046,7 +17034,7 @@
         <v>8</v>
       </c>
       <c r="K97" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L97" t="s">
         <v>3</v>
@@ -17094,7 +17082,7 @@
         <v>551</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AD97" t="s">
         <v>613</v>
@@ -17320,7 +17308,7 @@
         <v>679</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD99" t="s">
         <v>115</v>
@@ -17552,7 +17540,7 @@
         <v>488</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AD101" t="s">
         <v>154</v>
@@ -17790,7 +17778,7 @@
         <v>56</v>
       </c>
       <c r="AC103" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD103" t="s">
         <v>200</v>
@@ -17906,7 +17894,7 @@
         <v>238</v>
       </c>
       <c r="AC104" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="AD104" t="s">
         <v>154</v>
@@ -18150,7 +18138,7 @@
         <v>715</v>
       </c>
       <c r="AC106" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD106" t="s">
         <v>142</v>
@@ -18507,7 +18495,7 @@
         <v>732</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="AD109" t="s">
         <v>161</v>
@@ -18739,7 +18727,7 @@
         <v>743</v>
       </c>
       <c r="AC111" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AD111" t="s">
         <v>744</v>
@@ -18810,7 +18798,7 @@
         <v>8</v>
       </c>
       <c r="K112" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L112" t="s">
         <v>3</v>
@@ -19087,7 +19075,7 @@
         <v>761</v>
       </c>
       <c r="AC114" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD114" t="s">
         <v>125</v>
@@ -19200,7 +19188,7 @@
         <v>767</v>
       </c>
       <c r="AC115" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AD115" t="s">
         <v>381</v>
@@ -19316,7 +19304,7 @@
         <v>772</v>
       </c>
       <c r="AC116" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="AD116" t="s">
         <v>602</v>
@@ -19429,7 +19417,7 @@
         <v>779</v>
       </c>
       <c r="AC117" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD117" t="s">
         <v>374</v>
@@ -19503,7 +19491,7 @@
         <v>8</v>
       </c>
       <c r="K118" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L118" t="s">
         <v>10</v>
@@ -19545,7 +19533,7 @@
         <v>772</v>
       </c>
       <c r="AC118" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="AD118" t="s">
         <v>602</v>
@@ -19773,8 +19761,8 @@
       <c r="AB120" t="s">
         <v>791</v>
       </c>
-      <c r="AC120" s="2" t="s">
-        <v>1835</v>
+      <c r="AC120" s="2">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD120">
         <v>6</v>
@@ -19889,8 +19877,8 @@
       <c r="AB121" t="s">
         <v>529</v>
       </c>
-      <c r="AC121" s="2" t="s">
-        <v>1836</v>
+      <c r="AC121" s="2">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD121" t="s">
         <v>161</v>
@@ -20122,7 +20110,7 @@
         <v>804</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD123" t="s">
         <v>399</v>
@@ -20351,7 +20339,7 @@
         <v>814</v>
       </c>
       <c r="AC125" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AD125" t="s">
         <v>43</v>
@@ -20473,7 +20461,7 @@
         <v>820</v>
       </c>
       <c r="AC126" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD126" t="s">
         <v>505</v>
@@ -20586,7 +20574,7 @@
         <v>568</v>
       </c>
       <c r="AC127" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AD127" t="s">
         <v>288</v>
@@ -20654,7 +20642,7 @@
         <v>8</v>
       </c>
       <c r="K128" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L128" t="s">
         <v>3</v>
@@ -20886,7 +20874,7 @@
         <v>8</v>
       </c>
       <c r="K130" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L130" t="s">
         <v>3</v>
@@ -20928,7 +20916,7 @@
         <v>842</v>
       </c>
       <c r="AC130" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD130" t="s">
         <v>480</v>
@@ -21172,7 +21160,7 @@
         <v>851</v>
       </c>
       <c r="AC132" s="2" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="AD132" t="s">
         <v>852</v>
@@ -21520,7 +21508,7 @@
         <v>869</v>
       </c>
       <c r="AC135" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="AD135" t="s">
         <v>54</v>
@@ -21630,7 +21618,7 @@
         <v>874</v>
       </c>
       <c r="AC136" s="2" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="AD136" t="s">
         <v>80</v>
@@ -21933,7 +21921,7 @@
         <v>8</v>
       </c>
       <c r="K139" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L139" t="s">
         <v>3</v>
@@ -22094,7 +22082,7 @@
         <v>894</v>
       </c>
       <c r="AC140" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AD140" t="s">
         <v>243</v>
@@ -22385,7 +22373,7 @@
         <v>8</v>
       </c>
       <c r="K143" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L143" t="s">
         <v>3</v>
@@ -22614,7 +22602,7 @@
         <v>8</v>
       </c>
       <c r="K145" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L145" t="s">
         <v>3</v>
@@ -22772,7 +22760,7 @@
         <v>922</v>
       </c>
       <c r="AC146" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="AD146" t="s">
         <v>268</v>
@@ -23227,7 +23215,7 @@
         <v>940</v>
       </c>
       <c r="AC150" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AD150" t="s">
         <v>399</v>
@@ -23465,7 +23453,7 @@
         <v>643</v>
       </c>
       <c r="AC152" s="2" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="AD152" t="s">
         <v>154</v>
@@ -23584,7 +23572,7 @@
         <v>954</v>
       </c>
       <c r="AC153" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AD153" t="s">
         <v>136</v>
@@ -23816,7 +23804,7 @@
         <v>966</v>
       </c>
       <c r="AC155" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD155" t="s">
         <v>853</v>
@@ -24042,7 +24030,7 @@
         <v>859</v>
       </c>
       <c r="AC157" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AD157">
         <v>4</v>
@@ -24280,7 +24268,7 @@
         <v>636</v>
       </c>
       <c r="AC159" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AD159" t="s">
         <v>54</v>
@@ -24455,7 +24443,7 @@
         <v>8</v>
       </c>
       <c r="K161" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L161" t="s">
         <v>3</v>
@@ -24738,7 +24726,7 @@
         <v>1000</v>
       </c>
       <c r="AC163" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD163" t="s">
         <v>243</v>
@@ -25217,7 +25205,7 @@
         <v>1019</v>
       </c>
       <c r="AC167" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD167" t="s">
         <v>116</v>
@@ -25342,7 +25330,7 @@
         <v>587</v>
       </c>
       <c r="AC168" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD168">
         <v>7</v>
@@ -25467,7 +25455,7 @@
         <v>416</v>
       </c>
       <c r="AC169" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD169" t="s">
         <v>44</v>
@@ -25577,7 +25565,7 @@
         <v>1033</v>
       </c>
       <c r="AC170" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="AD170" t="s">
         <v>853</v>
@@ -25687,7 +25675,7 @@
         <v>1038</v>
       </c>
       <c r="AC171" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="AD171" t="s">
         <v>54</v>
@@ -25806,7 +25794,7 @@
         <v>542</v>
       </c>
       <c r="AC172" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD172" t="s">
         <v>437</v>
@@ -25922,7 +25910,7 @@
         <v>83</v>
       </c>
       <c r="AC173" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD173" t="s">
         <v>153</v>
@@ -26043,8 +26031,8 @@
       <c r="AB174" t="s">
         <v>1049</v>
       </c>
-      <c r="AC174" s="2" t="s">
-        <v>1842</v>
+      <c r="AC174" s="2">
+        <v>0.03</v>
       </c>
       <c r="AD174">
         <v>3</v>
@@ -26407,7 +26395,7 @@
         <v>779</v>
       </c>
       <c r="AC177" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="AD177" t="s">
         <v>655</v>
@@ -27130,7 +27118,7 @@
         <v>1095</v>
       </c>
       <c r="AC183" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD183" t="s">
         <v>1066</v>
@@ -27481,10 +27469,10 @@
         <v>39</v>
       </c>
       <c r="Z186" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="AA186" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="AB186" t="s">
         <v>1106</v>
@@ -27561,7 +27549,7 @@
         <v>8</v>
       </c>
       <c r="K187" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L187" t="s">
         <v>3</v>
@@ -27606,7 +27594,7 @@
         <v>1111</v>
       </c>
       <c r="AC187" s="2" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="AD187" t="s">
         <v>437</v>
@@ -27731,7 +27719,7 @@
         <v>1116</v>
       </c>
       <c r="AC188" s="2" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="AD188" t="s">
         <v>44</v>
@@ -27802,7 +27790,7 @@
         <v>8</v>
       </c>
       <c r="K189" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L189" t="s">
         <v>3</v>
@@ -27847,7 +27835,7 @@
         <v>1121</v>
       </c>
       <c r="AC189" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD189" t="s">
         <v>853</v>
@@ -27918,7 +27906,7 @@
         <v>8</v>
       </c>
       <c r="K190" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L190" t="s">
         <v>3</v>
@@ -28216,7 +28204,7 @@
         <v>1136</v>
       </c>
       <c r="AC192" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AD192" t="s">
         <v>268</v>
@@ -28335,7 +28323,7 @@
         <v>1142</v>
       </c>
       <c r="AC193" s="2" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="AD193" t="s">
         <v>587</v>
@@ -28576,7 +28564,7 @@
         <v>1154</v>
       </c>
       <c r="AC195" s="2" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="AD195" t="s">
         <v>183</v>
@@ -28814,7 +28802,7 @@
         <v>863</v>
       </c>
       <c r="AC197" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD197" t="s">
         <v>154</v>
@@ -29174,7 +29162,7 @@
         <v>1177</v>
       </c>
       <c r="AC200" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="AD200" t="s">
         <v>381</v>
@@ -29242,7 +29230,7 @@
         <v>8</v>
       </c>
       <c r="K201" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L201" t="s">
         <v>3</v>
@@ -29358,7 +29346,7 @@
         <v>8</v>
       </c>
       <c r="K202" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L202" t="s">
         <v>10</v>
@@ -29477,7 +29465,7 @@
         <v>8</v>
       </c>
       <c r="K203" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L203" t="s">
         <v>3</v>
@@ -29519,7 +29507,7 @@
         <v>1050</v>
       </c>
       <c r="AC203" s="2" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="AD203" t="s">
         <v>367</v>
@@ -29751,7 +29739,7 @@
         <v>1203</v>
       </c>
       <c r="AC205" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AD205" t="s">
         <v>279</v>
@@ -29995,7 +29983,7 @@
         <v>1214</v>
       </c>
       <c r="AC207" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD207" t="s">
         <v>301</v>
@@ -30120,7 +30108,7 @@
         <v>1219</v>
       </c>
       <c r="AC208" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="AD208" t="s">
         <v>374</v>
@@ -30236,7 +30224,7 @@
         <v>1224</v>
       </c>
       <c r="AC209" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD209" t="s">
         <v>388</v>
@@ -30358,7 +30346,7 @@
         <v>1229</v>
       </c>
       <c r="AC210" s="2" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="AD210" t="s">
         <v>160</v>
@@ -30551,7 +30539,7 @@
         <v>8</v>
       </c>
       <c r="K212" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L212" t="s">
         <v>3</v>
@@ -30804,7 +30792,7 @@
         <v>1020</v>
       </c>
       <c r="AC214" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD214">
         <v>0</v>
@@ -31303,7 +31291,7 @@
         <v>1056</v>
       </c>
       <c r="AC219" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD219">
         <v>0</v>
@@ -31493,7 +31481,7 @@
         <v>1278</v>
       </c>
       <c r="AC221" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD221">
         <v>0</v>
@@ -31588,7 +31576,7 @@
         <v>1282</v>
       </c>
       <c r="AC222" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD222">
         <v>0</v>
@@ -31968,7 +31956,7 @@
         <v>72</v>
       </c>
       <c r="AC226" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD226">
         <v>0</v>
@@ -32158,7 +32146,7 @@
         <v>1301</v>
       </c>
       <c r="AC228" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD228">
         <v>0</v>
@@ -32633,7 +32621,7 @@
         <v>1317</v>
       </c>
       <c r="AC233" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AD233">
         <v>0</v>
@@ -32728,7 +32716,7 @@
         <v>374</v>
       </c>
       <c r="AC234" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD234">
         <v>0</v>
@@ -33013,7 +33001,7 @@
         <v>848</v>
       </c>
       <c r="AC237" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD237">
         <v>0</v>
@@ -33298,7 +33286,7 @@
         <v>1338</v>
       </c>
       <c r="AC240" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AD240">
         <v>0</v>
@@ -33491,7 +33479,7 @@
         <v>1345</v>
       </c>
       <c r="AC242" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD242">
         <v>0</v>
@@ -33586,7 +33574,7 @@
         <v>1348</v>
       </c>
       <c r="AC243" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD243">
         <v>0</v>
@@ -33972,7 +33960,7 @@
         <v>1359</v>
       </c>
       <c r="AC247" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD247">
         <v>0</v>
@@ -34073,7 +34061,7 @@
         <v>1364</v>
       </c>
       <c r="AC248" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD248">
         <v>0</v>
@@ -34272,7 +34260,7 @@
         <v>1373</v>
       </c>
       <c r="AC250" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD250">
         <v>0</v>
@@ -34373,7 +34361,7 @@
         <v>1378</v>
       </c>
       <c r="AC251" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD251">
         <v>0</v>
@@ -34578,7 +34566,7 @@
         <v>577</v>
       </c>
       <c r="AC253" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD253">
         <v>0</v>
@@ -34881,7 +34869,7 @@
         <v>1400</v>
       </c>
       <c r="AC256" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD256">
         <v>0</v>
@@ -35083,7 +35071,7 @@
         <v>1407</v>
       </c>
       <c r="AC258" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD258">
         <v>0</v>
@@ -35389,7 +35377,7 @@
         <v>1421</v>
       </c>
       <c r="AC261" s="2" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="AD261">
         <v>0</v>
@@ -35490,7 +35478,7 @@
         <v>1424</v>
       </c>
       <c r="AC262" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD262">
         <v>0</v>
@@ -35591,7 +35579,7 @@
         <v>1428</v>
       </c>
       <c r="AC263" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD263">
         <v>0</v>
@@ -35686,7 +35674,7 @@
         <v>1432</v>
       </c>
       <c r="AC264" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD264">
         <v>0</v>
@@ -35781,7 +35769,7 @@
         <v>1435</v>
       </c>
       <c r="AC265" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="AD265">
         <v>0</v>
@@ -36167,7 +36155,7 @@
         <v>1448</v>
       </c>
       <c r="AC269" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD269">
         <v>0</v>
@@ -36642,7 +36630,7 @@
         <v>1463</v>
       </c>
       <c r="AC274" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD274">
         <v>0</v>
@@ -36927,7 +36915,7 @@
         <v>1441</v>
       </c>
       <c r="AC277" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD277">
         <v>0</v>
@@ -37022,7 +37010,7 @@
         <v>1478</v>
       </c>
       <c r="AC278" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD278">
         <v>0</v>
@@ -37117,7 +37105,7 @@
         <v>899</v>
       </c>
       <c r="AC279" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD279">
         <v>0</v>
@@ -37708,7 +37696,7 @@
         <v>1499</v>
       </c>
       <c r="AC285" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD285">
         <v>0</v>
@@ -38183,7 +38171,7 @@
         <v>1518</v>
       </c>
       <c r="AC290" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD290">
         <v>0</v>
@@ -39133,7 +39121,7 @@
         <v>109</v>
       </c>
       <c r="AC300" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD300">
         <v>0</v>
@@ -39228,7 +39216,7 @@
         <v>899</v>
       </c>
       <c r="AC301" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD301">
         <v>0</v>
@@ -39801,7 +39789,7 @@
         <v>1574</v>
       </c>
       <c r="AC307" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD307">
         <v>0</v>
@@ -39991,7 +39979,7 @@
         <v>1581</v>
       </c>
       <c r="AC309" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD309">
         <v>0</v>
@@ -40279,7 +40267,7 @@
         <v>239</v>
       </c>
       <c r="AC312" s="2" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="AD312">
         <v>0</v>
@@ -41161,7 +41149,7 @@
         <v>1615</v>
       </c>
       <c r="AC321" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD321">
         <v>0</v>
@@ -41351,7 +41339,7 @@
         <v>1621</v>
       </c>
       <c r="AC323" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD323">
         <v>0</v>
@@ -41446,7 +41434,7 @@
         <v>1625</v>
       </c>
       <c r="AC324" s="2" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="AD324">
         <v>0</v>
@@ -41898,7 +41886,7 @@
         <v>1642</v>
       </c>
       <c r="AC328" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AD328" t="s">
         <v>54</v>
@@ -42023,7 +42011,7 @@
         <v>1173</v>
       </c>
       <c r="AC329" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD329" t="s">
         <v>125</v>
@@ -42130,7 +42118,7 @@
         <v>1651</v>
       </c>
       <c r="AC330" s="2" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="AD330">
         <v>0</v>
@@ -42240,7 +42228,7 @@
         <v>1657</v>
       </c>
       <c r="AC331" s="2" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="AD331">
         <v>0</v>
@@ -42356,7 +42344,7 @@
         <v>603</v>
       </c>
       <c r="AC332" s="2" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="AD332">
         <v>0</v>
@@ -42564,7 +42552,7 @@
         <v>1520</v>
       </c>
       <c r="AC334" s="2" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="AD334">
         <v>0</v>
@@ -42781,7 +42769,7 @@
         <v>1677</v>
       </c>
       <c r="AC336" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="AD336">
         <v>0</v>
@@ -42989,7 +42977,7 @@
         <v>1684</v>
       </c>
       <c r="AC338" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="AD338">
         <v>7</v>
@@ -43203,7 +43191,7 @@
         <v>1692</v>
       </c>
       <c r="AC340" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD340">
         <v>0</v>
@@ -43408,7 +43396,7 @@
         <v>1700</v>
       </c>
       <c r="AC342" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD342" t="s">
         <v>55</v>
@@ -43506,7 +43494,7 @@
         <v>421</v>
       </c>
       <c r="AC343" s="2" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="AD343" t="s">
         <v>388</v>
@@ -43741,7 +43729,7 @@
         <v>1715</v>
       </c>
       <c r="AC345" s="2" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="AD345">
         <v>10</v>
@@ -43857,7 +43845,7 @@
         <v>1722</v>
       </c>
       <c r="AC346" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="AD346" t="s">
         <v>903</v>
@@ -44071,7 +44059,7 @@
         <v>387</v>
       </c>
       <c r="AC348" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AD348">
         <v>7</v>

--- a/analysis/Balve/raw_data/Balver_Höhle.xlsx
+++ b/analysis/Balve/raw_data/Balver_Höhle.xlsx
@@ -5632,16 +5632,16 @@
     <t>perimeter distal posterior part</t>
   </si>
   <si>
-    <t>application Pradnikmethod</t>
-  </si>
-  <si>
-    <t>frequency application Pradnikmethod</t>
-  </si>
-  <si>
     <t>Pradnik</t>
   </si>
   <si>
     <t>Pradnik_scraper</t>
+  </si>
+  <si>
+    <t>application Pradnik method</t>
+  </si>
+  <si>
+    <t>frequency application Pradnik method</t>
   </si>
 </sst>
 </file>
@@ -5680,10 +5680,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5994,8 +5997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,10 +6030,10 @@
     <col min="27" max="27" width="8.7109375" customWidth="1"/>
     <col min="28" max="28" width="9.42578125" customWidth="1"/>
     <col min="29" max="29" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
-    <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" style="3" customWidth="1"/>
     <col min="34" max="34" width="22" customWidth="1"/>
     <col min="35" max="35" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
@@ -6105,10 +6108,10 @@
         <v>1749</v>
       </c>
       <c r="V1" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="W1" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="X1" t="s">
         <v>1750</v>
@@ -6128,16 +6131,16 @@
       <c r="AC1" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1847</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1756</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1757</v>
       </c>
       <c r="AH1" t="s">
@@ -6256,16 +6259,16 @@
       <c r="AC2" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="3">
         <v>1</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AH2" t="s">
@@ -6375,16 +6378,16 @@
       <c r="AC3" s="2">
         <v>0.12939999999999999</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="3">
         <v>4</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AH3" t="s">
@@ -6494,16 +6497,16 @@
       <c r="AC4" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="3">
         <v>4</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AH4" t="s">
@@ -6569,7 +6572,7 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
@@ -6607,16 +6610,16 @@
       <c r="AC5" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AH5" t="s">
@@ -6729,16 +6732,16 @@
       <c r="AC6" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AH6" t="s">
@@ -6804,7 +6807,7 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -6842,16 +6845,16 @@
       <c r="AC7" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="3">
         <v>4</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="3">
         <v>18</v>
       </c>
       <c r="AH7" t="s">
@@ -6955,16 +6958,16 @@
       <c r="AC8" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AH8" t="s">
@@ -7030,7 +7033,7 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N9" t="s">
         <v>5</v>
@@ -7074,16 +7077,16 @@
       <c r="AC9" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="AH9" t="s">
@@ -7190,16 +7193,16 @@
       <c r="AC10" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AH10" t="s">
@@ -7306,16 +7309,16 @@
       <c r="AC11" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="3" t="s">
         <v>107</v>
       </c>
       <c r="AH11" t="s">
@@ -7381,7 +7384,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N12" t="s">
         <v>5</v>
@@ -7425,16 +7428,16 @@
       <c r="AC12" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="3" t="s">
         <v>117</v>
       </c>
       <c r="AH12" t="s">
@@ -7541,16 +7544,16 @@
       <c r="AC13" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="AD13">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AD13" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="3" t="s">
         <v>126</v>
       </c>
       <c r="AH13" t="s">
@@ -7660,16 +7663,16 @@
       <c r="AC14" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AH14" t="s">
@@ -7779,16 +7782,16 @@
       <c r="AC15" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="3" t="s">
         <v>142</v>
       </c>
       <c r="AH15" t="s">
@@ -7895,16 +7898,16 @@
       <c r="AC16" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AF16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AH16" t="s">
@@ -8008,16 +8011,16 @@
       <c r="AC17" s="2" t="s">
         <v>1779</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="s">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="3">
         <v>19</v>
       </c>
       <c r="AH17" t="s">
@@ -8127,16 +8130,16 @@
       <c r="AC18" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>5</v>
-      </c>
-      <c r="AG18" t="s">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AH18" t="s">
@@ -8243,16 +8246,16 @@
       <c r="AC19" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="3" t="s">
         <v>175</v>
       </c>
       <c r="AH19" t="s">
@@ -8359,16 +8362,16 @@
       <c r="AC20" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="s">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AH20" t="s">
@@ -8478,16 +8481,16 @@
       <c r="AC21" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE21" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AF21" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="3" t="s">
         <v>192</v>
       </c>
       <c r="AH21" t="s">
@@ -8597,16 +8600,16 @@
       <c r="AC22" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AE22">
-        <v>3</v>
-      </c>
-      <c r="AF22" t="s">
+      <c r="AE22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AH22" t="s">
@@ -8663,7 +8666,7 @@
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K23" t="s">
         <v>9</v>
@@ -8672,7 +8675,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N23" t="s">
         <v>5</v>
@@ -8719,16 +8722,16 @@
       <c r="AC23" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AD23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AF23">
-        <v>5</v>
-      </c>
-      <c r="AG23" t="s">
+      <c r="AF23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="3" t="s">
         <v>205</v>
       </c>
       <c r="AH23" t="s">
@@ -8785,7 +8788,7 @@
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K24" t="s">
         <v>9</v>
@@ -8794,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N24" t="s">
         <v>12</v>
@@ -8835,16 +8838,16 @@
       <c r="AC24" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="AH24" t="s">
@@ -8936,16 +8939,16 @@
       <c r="AC25" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
@@ -9034,16 +9037,16 @@
       <c r="AC26" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
         <v>0</v>
       </c>
       <c r="AI26" t="s">
@@ -9132,16 +9135,16 @@
       <c r="AC27" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3">
         <v>0</v>
       </c>
       <c r="AI27" t="s">
@@ -9230,16 +9233,16 @@
       <c r="AC28" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
         <v>0</v>
       </c>
       <c r="AI28" t="s">
@@ -9328,16 +9331,16 @@
       <c r="AC29" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
@@ -9400,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N30" t="s">
         <v>12</v>
@@ -9441,16 +9444,16 @@
       <c r="AC30" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AE30" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AF30" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AG30" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AH30" t="s">
@@ -9563,16 +9566,16 @@
       <c r="AC31" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF31">
-        <v>5</v>
-      </c>
-      <c r="AG31" t="s">
+      <c r="AF31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="AH31" t="s">
@@ -9638,7 +9641,7 @@
         <v>10</v>
       </c>
       <c r="M32" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N32" t="s">
         <v>12</v>
@@ -9679,16 +9682,16 @@
       <c r="AC32" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AD32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AE32" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AF32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AG32" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AH32" t="s">
@@ -9793,16 +9796,16 @@
         <v>265</v>
       </c>
       <c r="AC33"/>
-      <c r="AD33" t="s">
+      <c r="AD33" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AE33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AF33" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="3" t="s">
         <v>268</v>
       </c>
       <c r="AH33" t="s">
@@ -9862,7 +9865,7 @@
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N34" t="s">
         <v>5</v>
@@ -9907,16 +9910,16 @@
         <v>276</v>
       </c>
       <c r="AC34"/>
-      <c r="AD34" t="s">
+      <c r="AD34" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE34" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AF34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG34" s="3" t="s">
         <v>279</v>
       </c>
       <c r="AH34" t="s">
@@ -9976,7 +9979,7 @@
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N35" t="s">
         <v>5</v>
@@ -10021,16 +10024,16 @@
         <v>285</v>
       </c>
       <c r="AC35"/>
-      <c r="AD35" t="s">
+      <c r="AD35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AE35" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AF35" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35" s="3" t="s">
         <v>288</v>
       </c>
       <c r="AH35" t="s">
@@ -10081,7 +10084,7 @@
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K36" t="s">
         <v>9</v>
@@ -10123,16 +10126,16 @@
         <v>293</v>
       </c>
       <c r="AC36"/>
-      <c r="AD36" t="s">
+      <c r="AD36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AE36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AF36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AH36">
@@ -10233,16 +10236,16 @@
       <c r="AC37" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AD37" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AE37" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AF37" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG37" s="3" t="s">
         <v>300</v>
       </c>
       <c r="AH37" t="s">
@@ -10346,16 +10349,16 @@
       <c r="AC38" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AD38" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AE38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AF38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AG38" s="3" t="s">
         <v>307</v>
       </c>
       <c r="AH38" t="s">
@@ -10459,16 +10462,16 @@
       <c r="AC39" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AD39" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AE39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AF39" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG39" s="3" t="s">
         <v>314</v>
       </c>
       <c r="AH39" t="s">
@@ -10566,16 +10569,16 @@
       <c r="AC40" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AD40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE40">
-        <v>3</v>
-      </c>
-      <c r="AF40" t="s">
+      <c r="AE40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="3" t="s">
         <v>320</v>
       </c>
       <c r="AH40" t="s">
@@ -10676,16 +10679,16 @@
       <c r="AC41" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD41">
-        <v>6</v>
-      </c>
-      <c r="AE41">
-        <v>3</v>
-      </c>
-      <c r="AF41" t="s">
+      <c r="AD41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG41" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AH41" t="s">
@@ -10789,16 +10792,16 @@
       <c r="AC42" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AD42" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AE42" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AF42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AH42" t="s">
@@ -10858,7 +10861,7 @@
         <v>10</v>
       </c>
       <c r="M43" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N43" t="s">
         <v>12</v>
@@ -10899,16 +10902,16 @@
       <c r="AC43" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AD43" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AE43" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AF43" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AG43" s="3" t="s">
         <v>106</v>
       </c>
       <c r="AH43" t="s">
@@ -11006,16 +11009,16 @@
       <c r="AC44" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="3">
         <v>8</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AE44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AF44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG44" s="3" t="s">
         <v>340</v>
       </c>
       <c r="AH44" t="s">
@@ -11066,7 +11069,7 @@
         <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K45" t="s">
         <v>9</v>
@@ -11075,7 +11078,7 @@
         <v>3</v>
       </c>
       <c r="M45" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N45" t="s">
         <v>12</v>
@@ -11110,16 +11113,16 @@
       <c r="AC45" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AE45" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AF45" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="3">
         <v>10</v>
       </c>
       <c r="AH45" t="s">
@@ -11179,7 +11182,7 @@
         <v>10</v>
       </c>
       <c r="M46" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N46" t="s">
         <v>5</v>
@@ -11223,16 +11226,16 @@
       <c r="AC46" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AD46" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AE46" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AF46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG46">
+      <c r="AG46" s="3">
         <v>12</v>
       </c>
       <c r="AH46" t="s">
@@ -11292,7 +11295,7 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N47" t="s">
         <v>12</v>
@@ -11333,16 +11336,16 @@
       <c r="AC47" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AD47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AE47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AF47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG47" s="3" t="s">
         <v>358</v>
       </c>
       <c r="AH47" t="s">
@@ -11446,16 +11449,16 @@
       <c r="AC48" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AD48" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AE48" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AF48" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG48" s="3" t="s">
         <v>366</v>
       </c>
       <c r="AH48" t="s">
@@ -11562,16 +11565,16 @@
       <c r="AC49" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AD49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AE49" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AF49" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AH49" t="s">
@@ -11678,16 +11681,16 @@
       <c r="AC50" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AD50" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AE50" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AF50" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AG50" s="3" t="s">
         <v>381</v>
       </c>
       <c r="AH50" t="s">
@@ -11794,16 +11797,16 @@
       <c r="AC51" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AD51" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AE51" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AF51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AG51" s="3" t="s">
         <v>387</v>
       </c>
       <c r="AH51" t="s">
@@ -11904,16 +11907,16 @@
       <c r="AC52" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AD52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AE52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AF52">
-        <v>6</v>
-      </c>
-      <c r="AG52" t="s">
+      <c r="AF52" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG52" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AH52" t="s">
@@ -12014,16 +12017,16 @@
       <c r="AC53" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AD53" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AE53">
+      <c r="AE53" s="3">
         <v>4</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AF53" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AG53" s="3" t="s">
         <v>398</v>
       </c>
       <c r="AH53" t="s">
@@ -12130,16 +12133,16 @@
       <c r="AC54" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AD54" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AE54" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AF54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG54" s="3" t="s">
         <v>380</v>
       </c>
       <c r="AH54" t="s">
@@ -12199,7 +12202,7 @@
         <v>10</v>
       </c>
       <c r="M55" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N55" t="s">
         <v>12</v>
@@ -12237,16 +12240,16 @@
       <c r="AC55" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AD55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AE55" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AF55" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AG55">
+      <c r="AG55" s="3">
         <v>14</v>
       </c>
       <c r="AH55" t="s">
@@ -12350,16 +12353,16 @@
       <c r="AC56" s="2" t="s">
         <v>1805</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AD56" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AE56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AF56" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AG56" s="3" t="s">
         <v>340</v>
       </c>
       <c r="AH56" t="s">
@@ -12457,16 +12460,16 @@
       <c r="AC57" s="2">
         <v>0.02</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AE57" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AF57" t="s">
+      <c r="AF57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG57" t="s">
+      <c r="AG57" s="3" t="s">
         <v>421</v>
       </c>
       <c r="AH57" t="s">
@@ -12567,16 +12570,16 @@
       <c r="AC58" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AE58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AF58" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG58" s="3" t="s">
         <v>427</v>
       </c>
       <c r="AH58" t="s">
@@ -12656,16 +12659,16 @@
       <c r="AC59" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AD59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AE59" t="s">
+      <c r="AE59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AF59" t="s">
+      <c r="AF59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AG59" s="3" t="s">
         <v>434</v>
       </c>
       <c r="AH59" t="s">
@@ -12716,7 +12719,7 @@
         <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K60" t="s">
         <v>9</v>
@@ -12760,16 +12763,16 @@
       <c r="AC60" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AD60" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
         <v>7</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AG60" s="3" t="s">
         <v>205</v>
       </c>
       <c r="AH60" t="s">
@@ -12823,7 +12826,7 @@
         <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K61" t="s">
         <v>9</v>
@@ -12832,7 +12835,7 @@
         <v>37</v>
       </c>
       <c r="M61" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N61" t="s">
         <v>5</v>
@@ -12879,16 +12882,16 @@
       <c r="AC61" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
         <v>0</v>
       </c>
       <c r="AI61" t="s">
@@ -12936,7 +12939,7 @@
         <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K62" t="s">
         <v>9</v>
@@ -12992,16 +12995,16 @@
       <c r="AC62" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AD62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AE62" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AF62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AG62" s="3" t="s">
         <v>453</v>
       </c>
       <c r="AH62" t="s">
@@ -13061,7 +13064,7 @@
         <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K63" t="s">
         <v>9</v>
@@ -13117,16 +13120,16 @@
       <c r="AC63" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AE63" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF63" t="s">
+      <c r="AF63" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AG63" s="3" t="s">
         <v>465</v>
       </c>
       <c r="AH63" t="s">
@@ -13183,7 +13186,7 @@
         <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K64" t="s">
         <v>9</v>
@@ -13233,16 +13236,16 @@
       <c r="AC64" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD64" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="s">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AG64" s="3" t="s">
         <v>472</v>
       </c>
       <c r="AH64" t="s">
@@ -13299,7 +13302,7 @@
         <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K65" t="s">
         <v>9</v>
@@ -13349,16 +13352,16 @@
       <c r="AC65" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AE65" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AF65" t="s">
+      <c r="AF65" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AG65" s="3" t="s">
         <v>479</v>
       </c>
       <c r="AH65" t="s">
@@ -13465,16 +13468,16 @@
       <c r="AC66" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AD66" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AE66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AF66" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AG66" s="3" t="s">
         <v>486</v>
       </c>
       <c r="AH66" t="s">
@@ -13543,7 +13546,7 @@
         <v>37</v>
       </c>
       <c r="M67" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N67" t="s">
         <v>6</v>
@@ -13584,16 +13587,16 @@
       <c r="AC67" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AD67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AE67" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AF67" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AG67" s="3" t="s">
         <v>212</v>
       </c>
       <c r="AH67" t="s">
@@ -13703,16 +13706,16 @@
       <c r="AC68" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD68" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AE68">
+      <c r="AE68" s="3">
         <v>2</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AF68" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AG68" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AH68" t="s">
@@ -13769,7 +13772,7 @@
         <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K69" t="s">
         <v>9</v>
@@ -13819,16 +13822,16 @@
       <c r="AC69" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AD69" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AE69" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AF69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AG69" s="3" t="s">
         <v>504</v>
       </c>
       <c r="AH69" t="s">
@@ -13882,7 +13885,7 @@
         <v>26</v>
       </c>
       <c r="J70" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K70" t="s">
         <v>9</v>
@@ -13891,7 +13894,7 @@
         <v>37</v>
       </c>
       <c r="M70" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N70" t="s">
         <v>6</v>
@@ -13932,16 +13935,16 @@
       <c r="AC70" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AD70" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AE70" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AF70">
-        <v>6</v>
-      </c>
-      <c r="AG70" t="s">
+      <c r="AF70" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG70" s="3" t="s">
         <v>504</v>
       </c>
       <c r="AH70" t="s">
@@ -14051,16 +14054,16 @@
       <c r="AC71" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AD71" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AE71" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AF71" t="s">
+      <c r="AF71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AG71" t="s">
+      <c r="AG71" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AH71" t="s">
@@ -14176,16 +14179,16 @@
       <c r="AC72" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AD72" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AE72" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AF72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AG72" s="3" t="s">
         <v>398</v>
       </c>
       <c r="AH72" t="s">
@@ -14242,7 +14245,7 @@
         <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K73" t="s">
         <v>9</v>
@@ -14251,7 +14254,7 @@
         <v>37</v>
       </c>
       <c r="M73" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N73" t="s">
         <v>6</v>
@@ -14292,16 +14295,16 @@
       <c r="AC73" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AD73" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AE73" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AF73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AG73" s="3" t="s">
         <v>527</v>
       </c>
       <c r="AH73" t="s">
@@ -14352,7 +14355,7 @@
         <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K74" t="s">
         <v>9</v>
@@ -14361,7 +14364,7 @@
         <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N74" t="s">
         <v>6</v>
@@ -14402,16 +14405,16 @@
       <c r="AC74" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="AD74">
-        <v>6</v>
-      </c>
-      <c r="AE74" t="s">
+      <c r="AD74" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE74" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AF74" t="s">
+      <c r="AF74" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AG74" s="3" t="s">
         <v>313</v>
       </c>
       <c r="AH74" t="s">
@@ -14468,7 +14471,7 @@
         <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K75" t="s">
         <v>9</v>
@@ -14524,16 +14527,16 @@
       <c r="AC75" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AD75" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="s">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AG75" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AH75" t="s">
@@ -14584,7 +14587,7 @@
         <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K76" t="s">
         <v>9</v>
@@ -14640,16 +14643,16 @@
       <c r="AC76" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AD76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="s">
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG76">
+      <c r="AG76" s="3">
         <v>12</v>
       </c>
       <c r="AH76" t="s">
@@ -14703,7 +14706,7 @@
         <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K77" t="s">
         <v>9</v>
@@ -14753,16 +14756,16 @@
       <c r="AC77" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AD77" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AE77" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AF77" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AG77" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AH77" t="s">
@@ -14869,16 +14872,16 @@
       <c r="AC78" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AD78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AE78" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AF78" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AG78" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AH78" t="s">
@@ -14932,7 +14935,7 @@
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K79" t="s">
         <v>9</v>
@@ -14982,16 +14985,16 @@
       <c r="AC79" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AD79" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AE79">
-        <v>3</v>
-      </c>
-      <c r="AF79" t="s">
+      <c r="AE79" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AG79" s="3" t="s">
         <v>560</v>
       </c>
       <c r="AH79" t="s">
@@ -15045,7 +15048,7 @@
         <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K80" t="s">
         <v>9</v>
@@ -15054,7 +15057,7 @@
         <v>3</v>
       </c>
       <c r="M80" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N80" t="s">
         <v>6</v>
@@ -15095,16 +15098,16 @@
       <c r="AC80" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AD80" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AE80" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="AF80" t="s">
+      <c r="AF80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AG80" t="s">
+      <c r="AG80" s="3" t="s">
         <v>567</v>
       </c>
       <c r="AH80" t="s">
@@ -15164,7 +15167,7 @@
         <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K81" t="s">
         <v>9</v>
@@ -15173,7 +15176,7 @@
         <v>37</v>
       </c>
       <c r="M81" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N81" t="s">
         <v>6</v>
@@ -15214,16 +15217,16 @@
       <c r="AC81" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="AD81">
+      <c r="AD81" s="3">
         <v>4</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AE81" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF81" t="s">
+      <c r="AF81" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG81" t="s">
+      <c r="AG81" s="3" t="s">
         <v>465</v>
       </c>
       <c r="AH81" t="s">
@@ -15280,7 +15283,7 @@
         <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K82" t="s">
         <v>9</v>
@@ -15336,16 +15339,16 @@
       <c r="AC82" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AD82" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AE82" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF82" t="s">
+      <c r="AF82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG82" t="s">
+      <c r="AG82" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AH82" t="s">
@@ -15402,7 +15405,7 @@
         <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K83" t="s">
         <v>9</v>
@@ -15455,16 +15458,16 @@
       <c r="AC83" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="AD83" t="s">
+      <c r="AD83" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83" t="s">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AG83" t="s">
+      <c r="AG83" s="3" t="s">
         <v>358</v>
       </c>
       <c r="AH83" t="s">
@@ -15521,7 +15524,7 @@
         <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K84" t="s">
         <v>9</v>
@@ -15530,7 +15533,7 @@
         <v>37</v>
       </c>
       <c r="M84" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N84" t="s">
         <v>6</v>
@@ -15571,16 +15574,16 @@
       <c r="AC84" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AD84" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AE84" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF84" t="s">
+      <c r="AF84" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AG84" s="3" t="s">
         <v>175</v>
       </c>
       <c r="AH84" t="s">
@@ -15637,7 +15640,7 @@
         <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K85" t="s">
         <v>9</v>
@@ -15687,16 +15690,16 @@
       <c r="AC85" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AD85" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AE85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF85">
-        <v>6</v>
-      </c>
-      <c r="AG85" t="s">
+      <c r="AF85" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG85" s="3" t="s">
         <v>320</v>
       </c>
       <c r="AH85" t="s">
@@ -15809,16 +15812,16 @@
       <c r="AC86" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AD86" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AE86" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF86" t="s">
+      <c r="AF86" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG86" t="s">
+      <c r="AG86" s="3" t="s">
         <v>599</v>
       </c>
       <c r="AH86" t="s">
@@ -15925,16 +15928,16 @@
       <c r="AC87" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AD87" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AE87" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="AF87" t="s">
+      <c r="AF87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AG87" t="s">
+      <c r="AG87" s="3" t="s">
         <v>379</v>
       </c>
       <c r="AH87" t="s">
@@ -16041,16 +16044,16 @@
       <c r="AC88" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AD88" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-      <c r="AF88" t="s">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AG88" t="s">
+      <c r="AG88" s="3" t="s">
         <v>294</v>
       </c>
       <c r="AH88" t="s">
@@ -16154,16 +16157,16 @@
       <c r="AC89" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AD89" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-      <c r="AF89" t="s">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG89" t="s">
+      <c r="AG89" s="3" t="s">
         <v>313</v>
       </c>
       <c r="AH89" t="s">
@@ -16273,16 +16276,16 @@
       <c r="AC90" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AD90" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="AE90" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF90" t="s">
+      <c r="AF90" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG90" t="s">
+      <c r="AG90" s="3" t="s">
         <v>465</v>
       </c>
       <c r="AH90" t="s">
@@ -16389,16 +16392,16 @@
       <c r="AC91" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD91" t="s">
+      <c r="AD91" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AE91">
-        <v>0</v>
-      </c>
-      <c r="AF91" t="s">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AG91">
+      <c r="AG91" s="3">
         <v>11</v>
       </c>
       <c r="AH91" t="s">
@@ -16505,16 +16508,16 @@
       <c r="AC92" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AD92" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AE92" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="AF92" t="s">
+      <c r="AF92" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AG92" t="s">
+      <c r="AG92" s="3" t="s">
         <v>633</v>
       </c>
       <c r="AH92" t="s">
@@ -16615,16 +16618,16 @@
       <c r="AC93" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="AD93" t="s">
+      <c r="AD93" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AE93" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AF93">
-        <v>6</v>
-      </c>
-      <c r="AG93" t="s">
+      <c r="AF93" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG93" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AH93" t="s">
@@ -16731,16 +16734,16 @@
       <c r="AC94" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AD94" t="s">
+      <c r="AD94" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AE94" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF94" t="s">
+      <c r="AF94" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="AG94" t="s">
+      <c r="AG94" s="3" t="s">
         <v>486</v>
       </c>
       <c r="AH94" t="s">
@@ -16841,16 +16844,16 @@
       <c r="AC95" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD95" t="s">
+      <c r="AD95" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE95" t="s">
+      <c r="AE95" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AF95" t="s">
+      <c r="AF95" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AG95" t="s">
+      <c r="AG95" s="3" t="s">
         <v>652</v>
       </c>
       <c r="AH95" t="s">
@@ -16913,7 +16916,7 @@
         <v>10</v>
       </c>
       <c r="M96" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N96" t="s">
         <v>5</v>
@@ -16957,16 +16960,16 @@
       <c r="AC96" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="AD96" t="s">
+      <c r="AD96" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AE96" t="s">
+      <c r="AE96" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AF96" t="s">
+      <c r="AF96" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AG96" t="s">
+      <c r="AG96" s="3" t="s">
         <v>659</v>
       </c>
       <c r="AH96" t="s">
@@ -17079,16 +17082,16 @@
       <c r="AC97" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="AD97" t="s">
+      <c r="AD97" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AE97">
-        <v>0</v>
-      </c>
-      <c r="AF97" t="s">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG97" t="s">
+      <c r="AG97" s="3" t="s">
         <v>665</v>
       </c>
       <c r="AH97" t="s">
@@ -17154,7 +17157,7 @@
         <v>10</v>
       </c>
       <c r="M98" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N98" t="s">
         <v>6</v>
@@ -17192,16 +17195,16 @@
       <c r="AC98" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AD98">
-        <v>6</v>
-      </c>
-      <c r="AE98" t="s">
+      <c r="AD98" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE98" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AF98" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AG98" t="s">
+      <c r="AG98" s="3" t="s">
         <v>486</v>
       </c>
       <c r="AH98" t="s">
@@ -17267,7 +17270,7 @@
         <v>3</v>
       </c>
       <c r="M99" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N99" t="s">
         <v>6</v>
@@ -17305,16 +17308,16 @@
       <c r="AC99" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD99" t="s">
+      <c r="AD99" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AE99" t="s">
+      <c r="AE99" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF99" t="s">
+      <c r="AF99" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AG99" t="s">
+      <c r="AG99" s="3" t="s">
         <v>141</v>
       </c>
       <c r="AH99" t="s">
@@ -17415,16 +17418,16 @@
       <c r="AC100" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="AD100" t="s">
+      <c r="AD100" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE100" t="s">
+      <c r="AE100" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AF100" t="s">
+      <c r="AF100" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AG100" t="s">
+      <c r="AG100" s="3" t="s">
         <v>440</v>
       </c>
       <c r="AH100" t="s">
@@ -17490,7 +17493,7 @@
         <v>10</v>
       </c>
       <c r="M101" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N101" t="s">
         <v>5</v>
@@ -17537,16 +17540,16 @@
       <c r="AC101" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="AD101" t="s">
+      <c r="AD101" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AE101" t="s">
+      <c r="AE101" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AF101">
+      <c r="AF101" s="3">
         <v>8</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AG101" s="3" t="s">
         <v>687</v>
       </c>
       <c r="AH101" t="s">
@@ -17612,7 +17615,7 @@
         <v>10</v>
       </c>
       <c r="M102" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N102" t="s">
         <v>12</v>
@@ -17653,16 +17656,16 @@
       <c r="AC102" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="AD102" t="s">
+      <c r="AD102" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AE102" t="s">
+      <c r="AE102" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF102" t="s">
+      <c r="AF102" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AG102" t="s">
+      <c r="AG102" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AH102" t="s">
@@ -17728,7 +17731,7 @@
         <v>10</v>
       </c>
       <c r="M103" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N103" t="s">
         <v>5</v>
@@ -17775,16 +17778,16 @@
       <c r="AC103" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="AD103" t="s">
+      <c r="AD103" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AE103" t="s">
+      <c r="AE103" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF103" t="s">
+      <c r="AF103" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG103">
+      <c r="AG103" s="3">
         <v>12</v>
       </c>
       <c r="AH103" t="s">
@@ -17850,7 +17853,7 @@
         <v>10</v>
       </c>
       <c r="M104" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N104" t="s">
         <v>12</v>
@@ -17891,16 +17894,16 @@
       <c r="AC104" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="AD104" t="s">
+      <c r="AD104" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AE104" t="s">
+      <c r="AE104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AF104" t="s">
+      <c r="AF104" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AG104" t="s">
+      <c r="AG104" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AH104" t="s">
@@ -18013,16 +18016,16 @@
       <c r="AC105" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="AD105">
-        <v>6</v>
-      </c>
-      <c r="AE105" t="s">
+      <c r="AD105" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE105" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AF105" t="s">
+      <c r="AF105" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AG105" t="s">
+      <c r="AG105" s="3" t="s">
         <v>705</v>
       </c>
       <c r="AH105" t="s">
@@ -18088,7 +18091,7 @@
         <v>10</v>
       </c>
       <c r="M106" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N106" t="s">
         <v>5</v>
@@ -18135,16 +18138,16 @@
       <c r="AC106" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="AD106" t="s">
+      <c r="AD106" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AE106" t="s">
+      <c r="AE106" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AF106" t="s">
+      <c r="AF106" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG106">
+      <c r="AG106" s="3">
         <v>15</v>
       </c>
       <c r="AH106" t="s">
@@ -18210,7 +18213,7 @@
         <v>10</v>
       </c>
       <c r="M107" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N107" t="s">
         <v>12</v>
@@ -18251,16 +18254,16 @@
       <c r="AC107" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD107" t="s">
+      <c r="AD107" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AE107" t="s">
+      <c r="AE107" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF107" t="s">
+      <c r="AF107" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AG107" t="s">
+      <c r="AG107" s="3" t="s">
         <v>182</v>
       </c>
       <c r="AH107" t="s">
@@ -18326,7 +18329,7 @@
         <v>10</v>
       </c>
       <c r="M108" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N108" t="s">
         <v>5</v>
@@ -18373,16 +18376,16 @@
       <c r="AC108" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="AD108" t="s">
+      <c r="AD108" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE108" t="s">
+      <c r="AE108" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF108">
-        <v>6</v>
-      </c>
-      <c r="AG108" t="s">
+      <c r="AF108" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG108" s="3" t="s">
         <v>722</v>
       </c>
       <c r="AH108" t="s">
@@ -18492,16 +18495,16 @@
       <c r="AC109" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="AD109" t="s">
+      <c r="AD109" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AE109" t="s">
+      <c r="AE109" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF109">
-        <v>5</v>
-      </c>
-      <c r="AG109" t="s">
+      <c r="AF109" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG109" s="3" t="s">
         <v>729</v>
       </c>
       <c r="AH109" t="s">
@@ -18605,16 +18608,16 @@
       <c r="AC110" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD110" t="s">
+      <c r="AD110" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE110" t="s">
+      <c r="AE110" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF110" t="s">
+      <c r="AF110" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AG110" t="s">
+      <c r="AG110" s="3" t="s">
         <v>611</v>
       </c>
       <c r="AH110" t="s">
@@ -18724,16 +18727,16 @@
       <c r="AC111" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="AD111" t="s">
+      <c r="AD111" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="AE111">
-        <v>0</v>
-      </c>
-      <c r="AF111" t="s">
+      <c r="AE111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AG111" t="s">
+      <c r="AG111" s="3" t="s">
         <v>741</v>
       </c>
       <c r="AH111" t="s">
@@ -18837,16 +18840,16 @@
       <c r="AC112" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD112" t="s">
+      <c r="AD112" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="AE112">
-        <v>0</v>
-      </c>
-      <c r="AF112" t="s">
+      <c r="AE112" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG112">
+      <c r="AG112" s="3">
         <v>14</v>
       </c>
       <c r="AH112" t="s">
@@ -18950,16 +18953,16 @@
       <c r="AC113" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD113" t="s">
+      <c r="AD113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AE113" t="s">
+      <c r="AE113" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AF113" t="s">
+      <c r="AF113" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AG113" t="s">
+      <c r="AG113" s="3" t="s">
         <v>753</v>
       </c>
       <c r="AH113" t="s">
@@ -19072,16 +19075,16 @@
       <c r="AC114" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="AD114" t="s">
+      <c r="AD114" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE114" t="s">
+      <c r="AE114" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF114" t="s">
+      <c r="AF114" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AG114" t="s">
+      <c r="AG114" s="3" t="s">
         <v>652</v>
       </c>
       <c r="AH114" t="s">
@@ -19141,7 +19144,7 @@
         <v>10</v>
       </c>
       <c r="M115" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N115" t="s">
         <v>5</v>
@@ -19185,16 +19188,16 @@
       <c r="AC115" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="AD115" t="s">
+      <c r="AD115" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AE115" t="s">
+      <c r="AE115" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AF115" t="s">
+      <c r="AF115" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG115">
+      <c r="AG115" s="3">
         <v>18</v>
       </c>
       <c r="AH115" t="s">
@@ -19301,16 +19304,16 @@
       <c r="AC116" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="AD116" t="s">
+      <c r="AD116" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AE116" t="s">
+      <c r="AE116" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF116" t="s">
+      <c r="AF116" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AG116" t="s">
+      <c r="AG116" s="3" t="s">
         <v>770</v>
       </c>
       <c r="AH116" t="s">
@@ -19414,16 +19417,16 @@
       <c r="AC117" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="AD117" t="s">
+      <c r="AD117" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="AE117" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF117">
-        <v>5</v>
-      </c>
-      <c r="AG117" t="s">
+      <c r="AF117" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG117" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AH117" t="s">
@@ -19530,16 +19533,16 @@
       <c r="AC118" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="AD118" t="s">
+      <c r="AD118" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AE118" t="s">
+      <c r="AE118" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF118" t="s">
+      <c r="AF118" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AG118" t="s">
+      <c r="AG118" s="3" t="s">
         <v>770</v>
       </c>
       <c r="AH118" t="s">
@@ -19646,16 +19649,16 @@
       <c r="AC119" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="AD119" t="s">
+      <c r="AD119" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE119" t="s">
+      <c r="AE119" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF119" t="s">
+      <c r="AF119" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AG119">
+      <c r="AG119" s="3">
         <v>17</v>
       </c>
       <c r="AH119" t="s">
@@ -19759,16 +19762,16 @@
       <c r="AC120" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AD120">
-        <v>6</v>
-      </c>
-      <c r="AE120" t="s">
+      <c r="AD120" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE120" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF120" t="s">
+      <c r="AF120" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG120" t="s">
+      <c r="AG120" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AH120" t="s">
@@ -19875,16 +19878,16 @@
       <c r="AC121" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AD121" t="s">
+      <c r="AD121" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AE121">
-        <v>3</v>
-      </c>
-      <c r="AF121" t="s">
+      <c r="AE121" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF121" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG121" t="s">
+      <c r="AG121" s="3" t="s">
         <v>599</v>
       </c>
       <c r="AH121" t="s">
@@ -19994,16 +19997,16 @@
       <c r="AC122" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="AD122">
-        <v>5</v>
-      </c>
-      <c r="AE122" t="s">
+      <c r="AD122" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE122" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AF122" t="s">
+      <c r="AF122" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AG122" t="s">
+      <c r="AG122" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AH122" t="s">
@@ -20069,7 +20072,7 @@
         <v>10</v>
       </c>
       <c r="M123" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N123" t="s">
         <v>6</v>
@@ -20107,16 +20110,16 @@
       <c r="AC123" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="AD123" t="s">
+      <c r="AD123" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AE123" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF123" t="s">
+      <c r="AF123" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AG123" t="s">
+      <c r="AG123" s="3" t="s">
         <v>801</v>
       </c>
       <c r="AH123" t="s">
@@ -20220,16 +20223,16 @@
       <c r="AC124" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD124" t="s">
+      <c r="AD124" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE124" t="s">
+      <c r="AE124" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AF124" t="s">
+      <c r="AF124" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG124" t="s">
+      <c r="AG124" s="3" t="s">
         <v>805</v>
       </c>
       <c r="AH124" t="s">
@@ -20292,7 +20295,7 @@
         <v>10</v>
       </c>
       <c r="M125" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N125" t="s">
         <v>5</v>
@@ -20336,16 +20339,16 @@
       <c r="AC125" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="AD125" t="s">
+      <c r="AD125" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE125" t="s">
+      <c r="AE125" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF125" t="s">
+      <c r="AF125" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AG125" t="s">
+      <c r="AG125" s="3" t="s">
         <v>665</v>
       </c>
       <c r="AH125" t="s">
@@ -20458,16 +20461,16 @@
       <c r="AC126" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="AD126" t="s">
+      <c r="AD126" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AE126">
-        <v>0</v>
-      </c>
-      <c r="AF126" t="s">
+      <c r="AE126" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG126" t="s">
+      <c r="AG126" s="3" t="s">
         <v>817</v>
       </c>
       <c r="AH126" t="s">
@@ -20571,16 +20574,16 @@
       <c r="AC127" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="AD127" t="s">
+      <c r="AD127" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE127" t="s">
+      <c r="AE127" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AF127" t="s">
+      <c r="AF127" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AG127">
+      <c r="AG127" s="3">
         <v>18</v>
       </c>
       <c r="AH127" t="s">
@@ -20681,16 +20684,16 @@
       <c r="AC128" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="AD128" t="s">
+      <c r="AD128" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AE128">
-        <v>0</v>
-      </c>
-      <c r="AF128" t="s">
+      <c r="AE128" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG128" t="s">
+      <c r="AG128" s="3" t="s">
         <v>828</v>
       </c>
       <c r="AH128" t="s">
@@ -20797,16 +20800,16 @@
       <c r="AC129" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="AD129" t="s">
+      <c r="AD129" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE129" t="s">
+      <c r="AE129" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF129" t="s">
+      <c r="AF129" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG129" t="s">
+      <c r="AG129" s="3" t="s">
         <v>152</v>
       </c>
       <c r="AH129" t="s">
@@ -20913,16 +20916,16 @@
       <c r="AC130" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="AD130" t="s">
+      <c r="AD130" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AE130" t="s">
+      <c r="AE130" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AF130" t="s">
+      <c r="AF130" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AG130" t="s">
+      <c r="AG130" s="3" t="s">
         <v>379</v>
       </c>
       <c r="AH130" t="s">
@@ -21035,16 +21038,16 @@
       <c r="AC131" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD131" t="s">
+      <c r="AD131" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AE131" t="s">
+      <c r="AE131" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF131" t="s">
+      <c r="AF131" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AG131" t="s">
+      <c r="AG131" s="3" t="s">
         <v>465</v>
       </c>
       <c r="AH131" t="s">
@@ -21157,16 +21160,16 @@
       <c r="AC132" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="AD132" t="s">
+      <c r="AD132" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AE132" t="s">
+      <c r="AE132" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF132" t="s">
+      <c r="AF132" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AG132" t="s">
+      <c r="AG132" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AH132" t="s">
@@ -21276,16 +21279,16 @@
       <c r="AC133" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="AD133" t="s">
+      <c r="AD133" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE133">
-        <v>0</v>
-      </c>
-      <c r="AF133" t="s">
+      <c r="AE133" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG133" t="s">
+      <c r="AG133" s="3" t="s">
         <v>117</v>
       </c>
       <c r="AH133" t="s">
@@ -21395,16 +21398,16 @@
       <c r="AC134" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AD134" t="s">
+      <c r="AD134" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AE134">
-        <v>0</v>
-      </c>
-      <c r="AF134" t="s">
+      <c r="AE134" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG134" t="s">
+      <c r="AG134" s="3" t="s">
         <v>313</v>
       </c>
       <c r="AH134" t="s">
@@ -21505,16 +21508,16 @@
       <c r="AC135" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="AD135" t="s">
+      <c r="AD135" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE135" t="s">
+      <c r="AE135" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF135" t="s">
+      <c r="AF135" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AG135" t="s">
+      <c r="AG135" s="3" t="s">
         <v>652</v>
       </c>
       <c r="AH135" t="s">
@@ -21577,7 +21580,7 @@
         <v>10</v>
       </c>
       <c r="M136" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N136" t="s">
         <v>6</v>
@@ -21615,16 +21618,16 @@
       <c r="AC136" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="AD136" t="s">
+      <c r="AD136" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE136" t="s">
+      <c r="AE136" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AF136" t="s">
+      <c r="AF136" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG136" t="s">
+      <c r="AG136" s="3" t="s">
         <v>659</v>
       </c>
       <c r="AH136" t="s">
@@ -21687,7 +21690,7 @@
         <v>3</v>
       </c>
       <c r="M137" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N137" t="s">
         <v>5</v>
@@ -21734,16 +21737,16 @@
       <c r="AC137" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD137" t="s">
+      <c r="AD137" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AE137" t="s">
+      <c r="AE137" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF137" t="s">
+      <c r="AF137" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AG137" t="s">
+      <c r="AG137" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AH137" t="s">
@@ -21850,16 +21853,16 @@
       <c r="AC138" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD138" t="s">
+      <c r="AD138" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE138" t="s">
+      <c r="AE138" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF138" t="s">
+      <c r="AF138" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG138" t="s">
+      <c r="AG138" s="3" t="s">
         <v>817</v>
       </c>
       <c r="AH138" t="s">
@@ -21960,16 +21963,16 @@
       <c r="AC139" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD139" t="s">
+      <c r="AD139" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE139" t="s">
+      <c r="AE139" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF139" t="s">
+      <c r="AF139" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AG139" t="s">
+      <c r="AG139" s="3" t="s">
         <v>366</v>
       </c>
       <c r="AH139" t="s">
@@ -22079,16 +22082,16 @@
       <c r="AC140" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="AD140" t="s">
+      <c r="AD140" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AE140" t="s">
+      <c r="AE140" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AF140" t="s">
+      <c r="AF140" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG140" t="s">
+      <c r="AG140" s="3" t="s">
         <v>479</v>
       </c>
       <c r="AH140" t="s">
@@ -22186,16 +22189,16 @@
       <c r="AC141" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD141" t="s">
+      <c r="AD141" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AE141" t="s">
+      <c r="AE141" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF141" t="s">
+      <c r="AF141" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AG141" t="s">
+      <c r="AG141" s="3" t="s">
         <v>610</v>
       </c>
       <c r="AH141" t="s">
@@ -22302,16 +22305,16 @@
       <c r="AC142" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="AD142" t="s">
+      <c r="AD142" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="AE142">
-        <v>0</v>
-      </c>
-      <c r="AF142" t="s">
+      <c r="AE142" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AG142" t="s">
+      <c r="AG142" s="3" t="s">
         <v>398</v>
       </c>
       <c r="AH142" t="s">
@@ -22412,16 +22415,16 @@
       <c r="AC143" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD143" t="s">
+      <c r="AD143" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AE143" t="s">
+      <c r="AE143" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF143" t="s">
+      <c r="AF143" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="AG143" t="s">
+      <c r="AG143" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AH143" t="s">
@@ -22531,16 +22534,16 @@
       <c r="AC144" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD144" t="s">
+      <c r="AD144" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE144" t="s">
+      <c r="AE144" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AF144" t="s">
+      <c r="AF144" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG144" t="s">
+      <c r="AG144" s="3" t="s">
         <v>817</v>
       </c>
       <c r="AH144" t="s">
@@ -22641,16 +22644,16 @@
       <c r="AC145" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="AD145" t="s">
+      <c r="AD145" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="AE145" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF145">
-        <v>6</v>
-      </c>
-      <c r="AG145" t="s">
+      <c r="AF145" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG145" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AH145" t="s">
@@ -22757,16 +22760,16 @@
       <c r="AC146" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="AD146" t="s">
+      <c r="AD146" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AE146">
-        <v>0</v>
-      </c>
-      <c r="AF146" t="s">
+      <c r="AE146" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AG146" t="s">
+      <c r="AG146" s="3" t="s">
         <v>306</v>
       </c>
       <c r="AH146" t="s">
@@ -22876,16 +22879,16 @@
       <c r="AC147" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="AD147" t="s">
+      <c r="AD147" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AE147" t="s">
+      <c r="AE147" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF147" t="s">
+      <c r="AF147" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG147">
+      <c r="AG147" s="3">
         <v>113</v>
       </c>
       <c r="AH147" t="s">
@@ -22983,16 +22986,16 @@
       <c r="AC148" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="AD148" t="s">
+      <c r="AD148" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AE148" t="s">
+      <c r="AE148" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AF148" t="s">
+      <c r="AF148" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AG148" t="s">
+      <c r="AG148" s="3" t="s">
         <v>927</v>
       </c>
       <c r="AH148" t="s">
@@ -23096,16 +23099,16 @@
       <c r="AC149" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD149" t="s">
+      <c r="AD149" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AE149" t="s">
+      <c r="AE149" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="AF149" t="s">
+      <c r="AF149" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AG149" t="s">
+      <c r="AG149" s="3" t="s">
         <v>287</v>
       </c>
       <c r="AH149" t="s">
@@ -23168,7 +23171,7 @@
         <v>10</v>
       </c>
       <c r="M150" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N150" t="s">
         <v>5</v>
@@ -23212,16 +23215,16 @@
       <c r="AC150" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="AD150" t="s">
+      <c r="AD150" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AE150" t="s">
+      <c r="AE150" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF150" t="s">
+      <c r="AF150" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG150" t="s">
+      <c r="AG150" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AH150" t="s">
@@ -23287,7 +23290,7 @@
         <v>3</v>
       </c>
       <c r="M151" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N151" t="s">
         <v>5</v>
@@ -23331,16 +23334,16 @@
       <c r="AC151" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="AD151">
+      <c r="AD151" s="3">
         <v>7</v>
       </c>
-      <c r="AE151" t="s">
+      <c r="AE151" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="AF151" t="s">
+      <c r="AF151" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AG151" t="s">
+      <c r="AG151" s="3" t="s">
         <v>125</v>
       </c>
       <c r="AH151" t="s">
@@ -23450,16 +23453,16 @@
       <c r="AC152" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="AD152" t="s">
+      <c r="AD152" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AE152" t="s">
+      <c r="AE152" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="AF152" t="s">
+      <c r="AF152" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AG152" t="s">
+      <c r="AG152" s="3" t="s">
         <v>945</v>
       </c>
       <c r="AH152" t="s">
@@ -23569,16 +23572,16 @@
       <c r="AC153" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="AD153" t="s">
+      <c r="AD153" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AE153">
-        <v>0</v>
-      </c>
-      <c r="AF153" t="s">
+      <c r="AE153" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF153" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AG153" t="s">
+      <c r="AG153" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AH153" t="s">
@@ -23682,16 +23685,16 @@
       <c r="AC154" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="AD154" t="s">
+      <c r="AD154" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE154" t="s">
+      <c r="AE154" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AF154" t="s">
+      <c r="AF154" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AG154" t="s">
+      <c r="AG154" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AH154" t="s">
@@ -23801,16 +23804,16 @@
       <c r="AC155" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD155" t="s">
+      <c r="AD155" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AE155" t="s">
+      <c r="AE155" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF155" t="s">
+      <c r="AF155" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AG155" t="s">
+      <c r="AG155" s="3" t="s">
         <v>633</v>
       </c>
       <c r="AH155" t="s">
@@ -23870,7 +23873,7 @@
         <v>10</v>
       </c>
       <c r="M156" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N156" t="s">
         <v>6</v>
@@ -23908,16 +23911,16 @@
       <c r="AC156" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD156" t="s">
+      <c r="AD156" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AE156" t="s">
+      <c r="AE156" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF156" t="s">
+      <c r="AF156" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG156" t="s">
+      <c r="AG156" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AH156" t="s">
@@ -24027,16 +24030,16 @@
       <c r="AC157" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="AD157">
+      <c r="AD157" s="3">
         <v>4</v>
       </c>
-      <c r="AE157">
+      <c r="AE157" s="3">
         <v>2</v>
       </c>
-      <c r="AF157" t="s">
+      <c r="AF157" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG157" t="s">
+      <c r="AG157" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AH157" t="s">
@@ -24146,16 +24149,16 @@
       <c r="AC158" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD158" t="s">
+      <c r="AD158" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE158">
-        <v>0</v>
-      </c>
-      <c r="AF158" t="s">
+      <c r="AE158" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF158" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG158" t="s">
+      <c r="AG158" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AH158" t="s">
@@ -24265,16 +24268,16 @@
       <c r="AC159" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="AD159" t="s">
+      <c r="AD159" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE159" t="s">
+      <c r="AE159" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF159" t="s">
+      <c r="AF159" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AG159" t="s">
+      <c r="AG159" s="3" t="s">
         <v>633</v>
       </c>
       <c r="AH159" t="s">
@@ -24337,7 +24340,7 @@
         <v>10</v>
       </c>
       <c r="M160" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N160" t="s">
         <v>6</v>
@@ -24375,16 +24378,16 @@
       <c r="AC160" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="AD160" t="s">
+      <c r="AD160" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AE160" t="s">
+      <c r="AE160" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF160" t="s">
+      <c r="AF160" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG160" t="s">
+      <c r="AG160" s="3" t="s">
         <v>306</v>
       </c>
       <c r="AH160" t="s">
@@ -24444,7 +24447,7 @@
         <v>3</v>
       </c>
       <c r="M161" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N161" t="s">
         <v>5</v>
@@ -24488,16 +24491,16 @@
       <c r="AC161" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="AD161" t="s">
+      <c r="AD161" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE161" t="s">
+      <c r="AE161" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AF161" t="s">
+      <c r="AF161" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AG161">
+      <c r="AG161" s="3">
         <v>12</v>
       </c>
       <c r="AH161" t="s">
@@ -24607,16 +24610,16 @@
       <c r="AC162" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="AD162" t="s">
+      <c r="AD162" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AE162">
-        <v>0</v>
-      </c>
-      <c r="AF162" t="s">
+      <c r="AE162" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG162" t="s">
+      <c r="AG162" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AH162" t="s">
@@ -24676,7 +24679,7 @@
         <v>10</v>
       </c>
       <c r="M163" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N163" t="s">
         <v>5</v>
@@ -24723,16 +24726,16 @@
       <c r="AC163" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="AD163" t="s">
+      <c r="AD163" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AE163" t="s">
+      <c r="AE163" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AF163" t="s">
+      <c r="AF163" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AG163" t="s">
+      <c r="AG163" s="3" t="s">
         <v>997</v>
       </c>
       <c r="AH163" t="s">
@@ -24845,16 +24848,16 @@
       <c r="AC164" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="AD164" t="s">
+      <c r="AD164" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE164" t="s">
+      <c r="AE164" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF164" t="s">
+      <c r="AF164" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AG164" t="s">
+      <c r="AG164" s="3" t="s">
         <v>380</v>
       </c>
       <c r="AH164" t="s">
@@ -24911,7 +24914,7 @@
         <v>26</v>
       </c>
       <c r="J165" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K165" t="s">
         <v>9</v>
@@ -24967,16 +24970,16 @@
       <c r="AC165" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD165" t="s">
+      <c r="AD165" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AE165" t="s">
+      <c r="AE165" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF165" t="s">
+      <c r="AF165" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG165" t="s">
+      <c r="AG165" s="3" t="s">
         <v>705</v>
       </c>
       <c r="AH165" t="s">
@@ -25089,16 +25092,16 @@
       <c r="AC166" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD166" t="s">
+      <c r="AD166" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AE166">
-        <v>0</v>
-      </c>
-      <c r="AF166" t="s">
+      <c r="AE166" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF166" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AG166" t="s">
+      <c r="AG166" s="3" t="s">
         <v>828</v>
       </c>
       <c r="AH166" t="s">
@@ -25161,7 +25164,7 @@
         <v>3</v>
       </c>
       <c r="M167" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N167" t="s">
         <v>12</v>
@@ -25202,16 +25205,16 @@
       <c r="AC167" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="AD167" t="s">
+      <c r="AD167" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AE167" t="s">
+      <c r="AE167" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AF167" t="s">
+      <c r="AF167" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AG167" t="s">
+      <c r="AG167" s="3" t="s">
         <v>801</v>
       </c>
       <c r="AH167" t="s">
@@ -25327,16 +25330,16 @@
       <c r="AC168" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="AD168">
+      <c r="AD168" s="3">
         <v>7</v>
       </c>
-      <c r="AE168">
-        <v>0</v>
-      </c>
-      <c r="AF168" t="s">
+      <c r="AE168" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF168" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AG168" t="s">
+      <c r="AG168" s="3" t="s">
         <v>320</v>
       </c>
       <c r="AH168" t="s">
@@ -25452,16 +25455,16 @@
       <c r="AC169" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="AD169" t="s">
+      <c r="AD169" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE169">
-        <v>0</v>
-      </c>
-      <c r="AF169" t="s">
+      <c r="AE169" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF169" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG169" t="s">
+      <c r="AG169" s="3" t="s">
         <v>848</v>
       </c>
       <c r="AH169" t="s">
@@ -25521,7 +25524,7 @@
         <v>37</v>
       </c>
       <c r="M170" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N170" t="s">
         <v>6</v>
@@ -25562,16 +25565,16 @@
       <c r="AC170" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="AD170" t="s">
+      <c r="AD170" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AE170" t="s">
+      <c r="AE170" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF170" t="s">
+      <c r="AF170" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG170" t="s">
+      <c r="AG170" s="3" t="s">
         <v>212</v>
       </c>
       <c r="AH170" t="s">
@@ -25631,7 +25634,7 @@
         <v>3</v>
       </c>
       <c r="M171" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N171" t="s">
         <v>12</v>
@@ -25672,16 +25675,16 @@
       <c r="AC171" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="AD171" t="s">
+      <c r="AD171" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE171" t="s">
+      <c r="AE171" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AF171" t="s">
+      <c r="AF171" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG171" t="s">
+      <c r="AG171" s="3" t="s">
         <v>380</v>
       </c>
       <c r="AH171" t="s">
@@ -25744,7 +25747,7 @@
         <v>3</v>
       </c>
       <c r="M172" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N172" t="s">
         <v>5</v>
@@ -25791,16 +25794,16 @@
       <c r="AC172" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="AD172" t="s">
+      <c r="AD172" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="AE172" t="s">
+      <c r="AE172" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AF172" t="s">
+      <c r="AF172" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG172" t="s">
+      <c r="AG172" s="3" t="s">
         <v>504</v>
       </c>
       <c r="AH172" t="s">
@@ -25866,7 +25869,7 @@
         <v>10</v>
       </c>
       <c r="M173" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N173" t="s">
         <v>6</v>
@@ -25907,16 +25910,16 @@
       <c r="AC173" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="AD173" t="s">
+      <c r="AD173" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE173" t="s">
+      <c r="AE173" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AF173" t="s">
+      <c r="AF173" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG173" t="s">
+      <c r="AG173" s="3" t="s">
         <v>665</v>
       </c>
       <c r="AH173" t="s">
@@ -26029,16 +26032,16 @@
       <c r="AC174" s="2">
         <v>0.03</v>
       </c>
-      <c r="AD174">
-        <v>3</v>
-      </c>
-      <c r="AE174" t="s">
+      <c r="AD174" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE174" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AF174">
-        <v>5</v>
-      </c>
-      <c r="AG174" t="s">
+      <c r="AF174" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG174" s="3" t="s">
         <v>1046</v>
       </c>
       <c r="AH174" t="s">
@@ -26107,7 +26110,7 @@
         <v>3</v>
       </c>
       <c r="M175" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N175" t="s">
         <v>5</v>
@@ -26154,16 +26157,16 @@
       <c r="AC175" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD175" t="s">
+      <c r="AD175" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE175" t="s">
+      <c r="AE175" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AF175" t="s">
+      <c r="AF175" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AG175" t="s">
+      <c r="AG175" s="3" t="s">
         <v>828</v>
       </c>
       <c r="AH175" t="s">
@@ -26229,7 +26232,7 @@
         <v>10</v>
       </c>
       <c r="M176" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N176" t="s">
         <v>12</v>
@@ -26270,16 +26273,16 @@
       <c r="AC176" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="AD176" t="s">
+      <c r="AD176" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AE176" t="s">
+      <c r="AE176" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF176" t="s">
+      <c r="AF176" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AG176" t="s">
+      <c r="AG176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="AH176" t="s">
@@ -26392,16 +26395,16 @@
       <c r="AC177" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="AD177" t="s">
+      <c r="AD177" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AE177" t="s">
+      <c r="AE177" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="AF177" t="s">
+      <c r="AF177" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AG177" t="s">
+      <c r="AG177" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="AH177" t="s">
@@ -26514,16 +26517,16 @@
       <c r="AC178" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="AD178" t="s">
+      <c r="AD178" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AE178" t="s">
+      <c r="AE178" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="AF178" t="s">
+      <c r="AF178" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG178" t="s">
+      <c r="AG178" s="3" t="s">
         <v>729</v>
       </c>
       <c r="AH178" t="s">
@@ -26633,16 +26636,16 @@
       <c r="AC179" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD179" t="s">
+      <c r="AD179" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE179" t="s">
+      <c r="AE179" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF179" t="s">
+      <c r="AF179" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG179" t="s">
+      <c r="AG179" s="3" t="s">
         <v>801</v>
       </c>
       <c r="AH179" t="s">
@@ -26705,7 +26708,7 @@
         <v>3</v>
       </c>
       <c r="M180" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N180" t="s">
         <v>5</v>
@@ -26752,16 +26755,16 @@
       <c r="AC180" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="AD180" t="s">
+      <c r="AD180" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AE180" t="s">
+      <c r="AE180" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF180" t="s">
+      <c r="AF180" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG180" t="s">
+      <c r="AG180" s="3" t="s">
         <v>192</v>
       </c>
       <c r="AH180" t="s">
@@ -26871,16 +26874,16 @@
       <c r="AC181" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="AD181" t="s">
+      <c r="AD181" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE181" t="s">
+      <c r="AE181" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF181">
-        <v>6</v>
-      </c>
-      <c r="AG181">
+      <c r="AF181" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG181" s="3">
         <v>13</v>
       </c>
       <c r="AH181" t="s">
@@ -26993,16 +26996,16 @@
       <c r="AC182" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="AD182" t="s">
+      <c r="AD182" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AE182" t="s">
+      <c r="AE182" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="AF182">
-        <v>5</v>
-      </c>
-      <c r="AG182">
+      <c r="AF182" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG182" s="3">
         <v>15</v>
       </c>
       <c r="AH182" t="s">
@@ -27068,7 +27071,7 @@
         <v>10</v>
       </c>
       <c r="M183" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N183" t="s">
         <v>5</v>
@@ -27115,16 +27118,16 @@
       <c r="AC183" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="AD183" t="s">
+      <c r="AD183" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="AE183" t="s">
+      <c r="AE183" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF183" t="s">
+      <c r="AF183" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG183" t="s">
+      <c r="AG183" s="3" t="s">
         <v>358</v>
       </c>
       <c r="AH183" t="s">
@@ -27237,16 +27240,16 @@
       <c r="AC184" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AD184" t="s">
+      <c r="AD184" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE184" t="s">
+      <c r="AE184" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="AF184" t="s">
+      <c r="AF184" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AG184" t="s">
+      <c r="AG184" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AH184" t="s">
@@ -27356,16 +27359,16 @@
       <c r="AC185" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD185" t="s">
+      <c r="AD185" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AE185" t="s">
+      <c r="AE185" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF185" t="s">
+      <c r="AF185" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AG185" t="s">
+      <c r="AG185" s="3" t="s">
         <v>471</v>
       </c>
       <c r="AH185" t="s">
@@ -27475,16 +27478,16 @@
       <c r="AC186" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD186" t="s">
+      <c r="AD186" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AE186">
-        <v>0</v>
-      </c>
-      <c r="AF186" t="s">
+      <c r="AE186" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF186" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AG186" t="s">
+      <c r="AG186" s="3" t="s">
         <v>320</v>
       </c>
       <c r="AH186" t="s">
@@ -27550,7 +27553,7 @@
         <v>3</v>
       </c>
       <c r="M187" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N187" t="s">
         <v>6</v>
@@ -27591,16 +27594,16 @@
       <c r="AC187" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="AD187" t="s">
+      <c r="AD187" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="AE187" t="s">
+      <c r="AE187" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AF187" t="s">
+      <c r="AF187" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG187" t="s">
+      <c r="AG187" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AH187" t="s">
@@ -27669,7 +27672,7 @@
         <v>10</v>
       </c>
       <c r="M188" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N188" t="s">
         <v>5</v>
@@ -27716,16 +27719,16 @@
       <c r="AC188" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="AD188" t="s">
+      <c r="AD188" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE188">
-        <v>3</v>
-      </c>
-      <c r="AF188" t="s">
+      <c r="AE188" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF188" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG188" t="s">
+      <c r="AG188" s="3" t="s">
         <v>801</v>
       </c>
       <c r="AH188" t="s">
@@ -27791,7 +27794,7 @@
         <v>3</v>
       </c>
       <c r="M189" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N189" t="s">
         <v>6</v>
@@ -27832,16 +27835,16 @@
       <c r="AC189" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="AD189" t="s">
+      <c r="AD189" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AE189" t="s">
+      <c r="AE189" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF189" t="s">
+      <c r="AF189" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AG189">
+      <c r="AG189" s="3">
         <v>11</v>
       </c>
       <c r="AH189" t="s">
@@ -27907,7 +27910,7 @@
         <v>3</v>
       </c>
       <c r="M190" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N190" t="s">
         <v>5</v>
@@ -27954,16 +27957,16 @@
       <c r="AC190" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="AD190" t="s">
+      <c r="AD190" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE190" t="s">
+      <c r="AE190" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF190" t="s">
+      <c r="AF190" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AG190" t="s">
+      <c r="AG190" s="3" t="s">
         <v>398</v>
       </c>
       <c r="AH190" t="s">
@@ -28076,16 +28079,16 @@
       <c r="AC191" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="AD191" t="s">
+      <c r="AD191" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE191" t="s">
+      <c r="AE191" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AF191" t="s">
+      <c r="AF191" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG191" t="s">
+      <c r="AG191" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AH191" t="s">
@@ -28201,16 +28204,16 @@
       <c r="AC192" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="AD192" t="s">
+      <c r="AD192" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AE192" t="s">
+      <c r="AE192" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AF192" t="s">
+      <c r="AF192" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AG192" t="s">
+      <c r="AG192" s="3" t="s">
         <v>1133</v>
       </c>
       <c r="AH192" t="s">
@@ -28320,16 +28323,16 @@
       <c r="AC193" s="2" t="s">
         <v>1835</v>
       </c>
-      <c r="AD193" t="s">
+      <c r="AD193" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="AE193">
-        <v>0</v>
-      </c>
-      <c r="AF193" t="s">
+      <c r="AE193" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF193" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AG193" t="s">
+      <c r="AG193" s="3" t="s">
         <v>1139</v>
       </c>
       <c r="AH193" t="s">
@@ -28395,7 +28398,7 @@
         <v>10</v>
       </c>
       <c r="M194" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N194" t="s">
         <v>5</v>
@@ -28442,16 +28445,16 @@
       <c r="AC194" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="AD194" t="s">
+      <c r="AD194" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AE194" t="s">
+      <c r="AE194" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF194" t="s">
+      <c r="AF194" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AG194" t="s">
+      <c r="AG194" s="3" t="s">
         <v>434</v>
       </c>
       <c r="AH194" t="s">
@@ -28561,16 +28564,16 @@
       <c r="AC195" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="AD195" t="s">
+      <c r="AD195" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AE195">
+      <c r="AE195" s="3">
         <v>7</v>
       </c>
-      <c r="AF195" t="s">
+      <c r="AF195" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AG195" t="s">
+      <c r="AG195" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="AH195" t="s">
@@ -28680,16 +28683,16 @@
       <c r="AC196" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="AD196" t="s">
+      <c r="AD196" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE196" t="s">
+      <c r="AE196" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AF196" t="s">
+      <c r="AF196" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AG196" t="s">
+      <c r="AG196" s="3" t="s">
         <v>472</v>
       </c>
       <c r="AH196" t="s">
@@ -28799,16 +28802,16 @@
       <c r="AC197" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="AD197" t="s">
+      <c r="AD197" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AE197" t="s">
+      <c r="AE197" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF197" t="s">
+      <c r="AF197" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AG197" t="s">
+      <c r="AG197" s="3" t="s">
         <v>91</v>
       </c>
       <c r="AH197" t="s">
@@ -28921,16 +28924,16 @@
       <c r="AC198" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="AD198" t="s">
+      <c r="AD198" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AE198" t="s">
+      <c r="AE198" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF198" t="s">
+      <c r="AF198" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AG198" t="s">
+      <c r="AG198" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AH198" t="s">
@@ -28990,7 +28993,7 @@
         <v>3</v>
       </c>
       <c r="M199" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N199" t="s">
         <v>5</v>
@@ -29037,16 +29040,16 @@
       <c r="AC199" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="AD199" t="s">
+      <c r="AD199" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE199" t="s">
+      <c r="AE199" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AF199">
+      <c r="AF199" s="3">
         <v>4</v>
       </c>
-      <c r="AG199" t="s">
+      <c r="AG199" s="3" t="s">
         <v>817</v>
       </c>
       <c r="AH199" t="s">
@@ -29159,16 +29162,16 @@
       <c r="AC200" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="AD200" t="s">
+      <c r="AD200" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AE200">
-        <v>0</v>
-      </c>
-      <c r="AF200" t="s">
+      <c r="AE200" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF200" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AG200" t="s">
+      <c r="AG200" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AH200" t="s">
@@ -29272,16 +29275,16 @@
       <c r="AC201" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="AD201" t="s">
+      <c r="AD201" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE201" t="s">
+      <c r="AE201" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF201" t="s">
+      <c r="AF201" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG201" t="s">
+      <c r="AG201" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AH201" t="s">
@@ -29347,7 +29350,7 @@
         <v>10</v>
       </c>
       <c r="M202" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N202" t="s">
         <v>5</v>
@@ -29394,16 +29397,16 @@
       <c r="AC202" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="AD202" t="s">
+      <c r="AD202" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE202" t="s">
+      <c r="AE202" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AF202" t="s">
+      <c r="AF202" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AG202" t="s">
+      <c r="AG202" s="3" t="s">
         <v>106</v>
       </c>
       <c r="AH202" t="s">
@@ -29504,16 +29507,16 @@
       <c r="AC203" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="AD203" t="s">
+      <c r="AD203" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AE203" t="s">
+      <c r="AE203" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AF203" t="s">
+      <c r="AF203" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG203" t="s">
+      <c r="AG203" s="3" t="s">
         <v>287</v>
       </c>
       <c r="AH203" t="s">
@@ -29579,7 +29582,7 @@
         <v>3</v>
       </c>
       <c r="M204" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N204" t="s">
         <v>6</v>
@@ -29620,16 +29623,16 @@
       <c r="AC204" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD204" t="s">
+      <c r="AD204" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE204" t="s">
+      <c r="AE204" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AF204" t="s">
+      <c r="AF204" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG204" t="s">
+      <c r="AG204" s="3" t="s">
         <v>205</v>
       </c>
       <c r="AH204" t="s">
@@ -29736,16 +29739,16 @@
       <c r="AC205" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="AD205" t="s">
+      <c r="AD205" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AE205">
-        <v>0</v>
-      </c>
-      <c r="AF205" t="s">
+      <c r="AE205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AG205" t="s">
+      <c r="AG205" s="3" t="s">
         <v>612</v>
       </c>
       <c r="AH205" t="s">
@@ -29858,16 +29861,16 @@
       <c r="AC206" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="AD206" t="s">
+      <c r="AD206" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE206">
-        <v>0</v>
-      </c>
-      <c r="AF206" t="s">
+      <c r="AE206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AG206" t="s">
+      <c r="AG206" s="3" t="s">
         <v>848</v>
       </c>
       <c r="AH206" t="s">
@@ -29980,16 +29983,16 @@
       <c r="AC207" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="AD207" t="s">
+      <c r="AD207" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AE207" t="s">
+      <c r="AE207" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AF207" t="s">
+      <c r="AF207" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AG207" t="s">
+      <c r="AG207" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AH207" t="s">
@@ -30105,16 +30108,16 @@
       <c r="AC208" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="AD208" t="s">
+      <c r="AD208" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AE208" t="s">
+      <c r="AE208" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AF208" t="s">
+      <c r="AF208" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AG208" t="s">
+      <c r="AG208" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AH208" t="s">
@@ -30174,7 +30177,7 @@
         <v>10</v>
       </c>
       <c r="M209" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N209" t="s">
         <v>5</v>
@@ -30221,16 +30224,16 @@
       <c r="AC209" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="AD209" t="s">
+      <c r="AD209" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AE209" t="s">
+      <c r="AE209" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF209" t="s">
+      <c r="AF209" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AG209" t="s">
+      <c r="AG209" s="3" t="s">
         <v>434</v>
       </c>
       <c r="AH209" t="s">
@@ -30343,16 +30346,16 @@
       <c r="AC210" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="AD210" t="s">
+      <c r="AD210" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AE210" t="s">
+      <c r="AE210" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AF210" t="s">
+      <c r="AF210" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AG210" t="s">
+      <c r="AG210" s="3" t="s">
         <v>1226</v>
       </c>
       <c r="AH210" t="s">
@@ -30418,7 +30421,7 @@
         <v>10</v>
       </c>
       <c r="M211" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N211" t="s">
         <v>5</v>
@@ -30465,16 +30468,16 @@
       <c r="AC211" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="AD211" t="s">
+      <c r="AD211" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AE211" t="s">
+      <c r="AE211" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF211" t="s">
+      <c r="AF211" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AG211" t="s">
+      <c r="AG211" s="3" t="s">
         <v>378</v>
       </c>
       <c r="AH211" t="s">
@@ -30587,16 +30590,16 @@
       <c r="AC212" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="AD212" t="s">
+      <c r="AD212" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE212" t="s">
+      <c r="AE212" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF212" t="s">
+      <c r="AF212" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AG212" t="s">
+      <c r="AG212" s="3" t="s">
         <v>611</v>
       </c>
       <c r="AH212" t="s">
@@ -30688,16 +30691,16 @@
       <c r="AC213" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD213">
-        <v>0</v>
-      </c>
-      <c r="AE213">
-        <v>0</v>
-      </c>
-      <c r="AF213">
-        <v>0</v>
-      </c>
-      <c r="AG213">
+      <c r="AD213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG213" s="3">
         <v>0</v>
       </c>
       <c r="AH213">
@@ -30789,16 +30792,16 @@
       <c r="AC214" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD214">
-        <v>0</v>
-      </c>
-      <c r="AE214">
-        <v>0</v>
-      </c>
-      <c r="AF214">
-        <v>0</v>
-      </c>
-      <c r="AG214">
+      <c r="AD214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG214" s="3">
         <v>0</v>
       </c>
       <c r="AH214">
@@ -30890,16 +30893,16 @@
       <c r="AC215" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD215">
-        <v>0</v>
-      </c>
-      <c r="AE215">
-        <v>0</v>
-      </c>
-      <c r="AF215">
-        <v>0</v>
-      </c>
-      <c r="AG215">
+      <c r="AD215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="3">
         <v>0</v>
       </c>
       <c r="AH215">
@@ -30991,16 +30994,16 @@
       <c r="AC216" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD216">
-        <v>0</v>
-      </c>
-      <c r="AE216">
-        <v>0</v>
-      </c>
-      <c r="AF216">
-        <v>0</v>
-      </c>
-      <c r="AG216">
+      <c r="AD216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF216" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG216" s="3">
         <v>0</v>
       </c>
       <c r="AH216">
@@ -31092,16 +31095,16 @@
       <c r="AC217" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD217">
-        <v>0</v>
-      </c>
-      <c r="AE217">
-        <v>0</v>
-      </c>
-      <c r="AF217">
-        <v>0</v>
-      </c>
-      <c r="AG217">
+      <c r="AD217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG217" s="3">
         <v>0</v>
       </c>
       <c r="AH217">
@@ -31193,16 +31196,16 @@
       <c r="AC218" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="AD218">
-        <v>0</v>
-      </c>
-      <c r="AE218">
-        <v>0</v>
-      </c>
-      <c r="AF218">
-        <v>0</v>
-      </c>
-      <c r="AG218">
+      <c r="AD218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG218" s="3">
         <v>0</v>
       </c>
       <c r="AH218">
@@ -31288,16 +31291,16 @@
       <c r="AC219" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD219">
-        <v>0</v>
-      </c>
-      <c r="AE219">
-        <v>0</v>
-      </c>
-      <c r="AF219">
-        <v>0</v>
-      </c>
-      <c r="AG219">
+      <c r="AD219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG219" s="3">
         <v>0</v>
       </c>
       <c r="AH219">
@@ -31383,16 +31386,16 @@
       <c r="AC220" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD220">
-        <v>0</v>
-      </c>
-      <c r="AE220">
-        <v>0</v>
-      </c>
-      <c r="AF220">
-        <v>0</v>
-      </c>
-      <c r="AG220">
+      <c r="AD220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF220" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG220" s="3">
         <v>0</v>
       </c>
       <c r="AH220">
@@ -31478,16 +31481,16 @@
       <c r="AC221" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD221">
-        <v>0</v>
-      </c>
-      <c r="AE221">
-        <v>0</v>
-      </c>
-      <c r="AF221">
-        <v>0</v>
-      </c>
-      <c r="AG221">
+      <c r="AD221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG221" s="3">
         <v>0</v>
       </c>
       <c r="AH221">
@@ -31573,16 +31576,16 @@
       <c r="AC222" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD222">
-        <v>0</v>
-      </c>
-      <c r="AE222">
-        <v>0</v>
-      </c>
-      <c r="AF222">
-        <v>0</v>
-      </c>
-      <c r="AG222">
+      <c r="AD222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF222" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG222" s="3">
         <v>0</v>
       </c>
       <c r="AH222">
@@ -31668,16 +31671,16 @@
       <c r="AC223" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD223">
-        <v>0</v>
-      </c>
-      <c r="AE223">
-        <v>0</v>
-      </c>
-      <c r="AF223">
-        <v>0</v>
-      </c>
-      <c r="AG223">
+      <c r="AD223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG223" s="3">
         <v>0</v>
       </c>
       <c r="AH223">
@@ -31763,16 +31766,16 @@
       <c r="AC224" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD224">
-        <v>0</v>
-      </c>
-      <c r="AE224">
-        <v>0</v>
-      </c>
-      <c r="AF224">
-        <v>0</v>
-      </c>
-      <c r="AG224">
+      <c r="AD224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG224" s="3">
         <v>0</v>
       </c>
       <c r="AH224">
@@ -31858,16 +31861,16 @@
       <c r="AC225" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD225">
-        <v>0</v>
-      </c>
-      <c r="AE225">
-        <v>0</v>
-      </c>
-      <c r="AF225">
-        <v>0</v>
-      </c>
-      <c r="AG225">
+      <c r="AD225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="3">
         <v>0</v>
       </c>
       <c r="AH225">
@@ -31953,16 +31956,16 @@
       <c r="AC226" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD226">
-        <v>0</v>
-      </c>
-      <c r="AE226">
-        <v>0</v>
-      </c>
-      <c r="AF226">
-        <v>0</v>
-      </c>
-      <c r="AG226">
+      <c r="AD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG226" s="3">
         <v>0</v>
       </c>
       <c r="AH226">
@@ -32048,16 +32051,16 @@
       <c r="AC227" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD227">
-        <v>0</v>
-      </c>
-      <c r="AE227">
-        <v>0</v>
-      </c>
-      <c r="AF227">
-        <v>0</v>
-      </c>
-      <c r="AG227">
+      <c r="AD227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG227" s="3">
         <v>0</v>
       </c>
       <c r="AH227">
@@ -32143,16 +32146,16 @@
       <c r="AC228" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD228">
-        <v>0</v>
-      </c>
-      <c r="AE228">
-        <v>0</v>
-      </c>
-      <c r="AF228">
-        <v>0</v>
-      </c>
-      <c r="AG228">
+      <c r="AD228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG228" s="3">
         <v>0</v>
       </c>
       <c r="AH228">
@@ -32238,16 +32241,16 @@
       <c r="AC229" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD229">
-        <v>0</v>
-      </c>
-      <c r="AE229">
-        <v>0</v>
-      </c>
-      <c r="AF229">
-        <v>0</v>
-      </c>
-      <c r="AG229">
+      <c r="AD229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG229" s="3">
         <v>0</v>
       </c>
       <c r="AH229">
@@ -32333,16 +32336,16 @@
       <c r="AC230" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD230">
-        <v>0</v>
-      </c>
-      <c r="AE230">
-        <v>0</v>
-      </c>
-      <c r="AF230">
-        <v>0</v>
-      </c>
-      <c r="AG230">
+      <c r="AD230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG230" s="3">
         <v>0</v>
       </c>
       <c r="AH230">
@@ -32428,16 +32431,16 @@
       <c r="AC231" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD231">
-        <v>0</v>
-      </c>
-      <c r="AE231">
-        <v>0</v>
-      </c>
-      <c r="AF231">
-        <v>0</v>
-      </c>
-      <c r="AG231">
+      <c r="AD231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG231" s="3">
         <v>0</v>
       </c>
       <c r="AH231">
@@ -32523,16 +32526,16 @@
       <c r="AC232" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD232">
-        <v>0</v>
-      </c>
-      <c r="AE232">
-        <v>0</v>
-      </c>
-      <c r="AF232">
-        <v>0</v>
-      </c>
-      <c r="AG232">
+      <c r="AD232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF232" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG232" s="3">
         <v>0</v>
       </c>
       <c r="AH232">
@@ -32618,16 +32621,16 @@
       <c r="AC233" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="AD233">
-        <v>0</v>
-      </c>
-      <c r="AE233">
-        <v>0</v>
-      </c>
-      <c r="AF233">
-        <v>0</v>
-      </c>
-      <c r="AG233">
+      <c r="AD233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF233" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG233" s="3">
         <v>0</v>
       </c>
       <c r="AH233">
@@ -32713,16 +32716,16 @@
       <c r="AC234" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD234">
-        <v>0</v>
-      </c>
-      <c r="AE234">
-        <v>0</v>
-      </c>
-      <c r="AF234">
-        <v>0</v>
-      </c>
-      <c r="AG234">
+      <c r="AD234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF234" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG234" s="3">
         <v>0</v>
       </c>
       <c r="AH234">
@@ -32808,16 +32811,16 @@
       <c r="AC235" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD235">
-        <v>0</v>
-      </c>
-      <c r="AE235">
-        <v>0</v>
-      </c>
-      <c r="AF235">
-        <v>0</v>
-      </c>
-      <c r="AG235">
+      <c r="AD235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF235" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG235" s="3">
         <v>0</v>
       </c>
       <c r="AH235">
@@ -32903,16 +32906,16 @@
       <c r="AC236" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD236">
-        <v>0</v>
-      </c>
-      <c r="AE236">
-        <v>0</v>
-      </c>
-      <c r="AF236">
-        <v>0</v>
-      </c>
-      <c r="AG236">
+      <c r="AD236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG236" s="3">
         <v>0</v>
       </c>
       <c r="AH236">
@@ -32998,16 +33001,16 @@
       <c r="AC237" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD237">
-        <v>0</v>
-      </c>
-      <c r="AE237">
-        <v>0</v>
-      </c>
-      <c r="AF237">
-        <v>0</v>
-      </c>
-      <c r="AG237">
+      <c r="AD237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF237" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG237" s="3">
         <v>0</v>
       </c>
       <c r="AH237">
@@ -33093,16 +33096,16 @@
       <c r="AC238" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD238">
-        <v>0</v>
-      </c>
-      <c r="AE238">
-        <v>0</v>
-      </c>
-      <c r="AF238">
-        <v>0</v>
-      </c>
-      <c r="AG238">
+      <c r="AD238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG238" s="3">
         <v>0</v>
       </c>
       <c r="AH238">
@@ -33188,16 +33191,16 @@
       <c r="AC239" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD239">
-        <v>0</v>
-      </c>
-      <c r="AE239">
-        <v>0</v>
-      </c>
-      <c r="AF239">
-        <v>0</v>
-      </c>
-      <c r="AG239">
+      <c r="AD239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG239" s="3">
         <v>0</v>
       </c>
       <c r="AH239">
@@ -33283,16 +33286,16 @@
       <c r="AC240" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="AD240">
-        <v>0</v>
-      </c>
-      <c r="AE240">
-        <v>0</v>
-      </c>
-      <c r="AF240">
-        <v>0</v>
-      </c>
-      <c r="AG240">
+      <c r="AD240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF240" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG240" s="3">
         <v>0</v>
       </c>
       <c r="AH240">
@@ -33378,16 +33381,16 @@
       <c r="AC241" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD241">
-        <v>0</v>
-      </c>
-      <c r="AE241">
-        <v>0</v>
-      </c>
-      <c r="AF241">
-        <v>0</v>
-      </c>
-      <c r="AG241">
+      <c r="AD241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG241" s="3">
         <v>0</v>
       </c>
       <c r="AH241">
@@ -33476,16 +33479,16 @@
       <c r="AC242" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="AD242">
-        <v>0</v>
-      </c>
-      <c r="AE242">
-        <v>0</v>
-      </c>
-      <c r="AF242">
-        <v>0</v>
-      </c>
-      <c r="AG242">
+      <c r="AD242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG242" s="3">
         <v>0</v>
       </c>
       <c r="AH242">
@@ -33571,16 +33574,16 @@
       <c r="AC243" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD243">
-        <v>0</v>
-      </c>
-      <c r="AE243">
-        <v>0</v>
-      </c>
-      <c r="AF243">
-        <v>0</v>
-      </c>
-      <c r="AG243">
+      <c r="AD243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG243" s="3">
         <v>0</v>
       </c>
       <c r="AH243">
@@ -33666,16 +33669,16 @@
       <c r="AC244" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD244">
-        <v>0</v>
-      </c>
-      <c r="AE244">
-        <v>0</v>
-      </c>
-      <c r="AF244">
-        <v>0</v>
-      </c>
-      <c r="AG244">
+      <c r="AD244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF244" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG244" s="3">
         <v>0</v>
       </c>
       <c r="AH244">
@@ -33761,16 +33764,16 @@
       <c r="AC245" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD245">
-        <v>0</v>
-      </c>
-      <c r="AE245">
-        <v>0</v>
-      </c>
-      <c r="AF245">
-        <v>0</v>
-      </c>
-      <c r="AG245">
+      <c r="AD245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG245" s="3">
         <v>0</v>
       </c>
       <c r="AH245">
@@ -33856,16 +33859,16 @@
       <c r="AC246" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD246">
-        <v>0</v>
-      </c>
-      <c r="AE246">
-        <v>0</v>
-      </c>
-      <c r="AF246">
-        <v>0</v>
-      </c>
-      <c r="AG246">
+      <c r="AD246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF246" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG246" s="3">
         <v>0</v>
       </c>
       <c r="AH246">
@@ -33957,16 +33960,16 @@
       <c r="AC247" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD247">
-        <v>0</v>
-      </c>
-      <c r="AE247">
-        <v>0</v>
-      </c>
-      <c r="AF247">
-        <v>0</v>
-      </c>
-      <c r="AG247">
+      <c r="AD247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG247" s="3">
         <v>0</v>
       </c>
       <c r="AH247">
@@ -34058,16 +34061,16 @@
       <c r="AC248" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD248">
-        <v>0</v>
-      </c>
-      <c r="AE248">
-        <v>0</v>
-      </c>
-      <c r="AF248">
-        <v>0</v>
-      </c>
-      <c r="AG248">
+      <c r="AD248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG248" s="3">
         <v>0</v>
       </c>
       <c r="AH248">
@@ -34159,16 +34162,16 @@
       <c r="AC249" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD249">
-        <v>0</v>
-      </c>
-      <c r="AE249">
-        <v>0</v>
-      </c>
-      <c r="AF249">
-        <v>0</v>
-      </c>
-      <c r="AG249">
+      <c r="AD249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF249" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG249" s="3">
         <v>0</v>
       </c>
       <c r="AH249">
@@ -34257,16 +34260,16 @@
       <c r="AC250" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD250">
-        <v>0</v>
-      </c>
-      <c r="AE250">
-        <v>0</v>
-      </c>
-      <c r="AF250">
-        <v>0</v>
-      </c>
-      <c r="AG250">
+      <c r="AD250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF250" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG250" s="3">
         <v>0</v>
       </c>
       <c r="AH250">
@@ -34358,16 +34361,16 @@
       <c r="AC251" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="AD251">
-        <v>0</v>
-      </c>
-      <c r="AE251">
-        <v>0</v>
-      </c>
-      <c r="AF251">
-        <v>0</v>
-      </c>
-      <c r="AG251">
+      <c r="AD251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG251" s="3">
         <v>0</v>
       </c>
       <c r="AH251">
@@ -34462,16 +34465,16 @@
       <c r="AC252" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD252">
-        <v>0</v>
-      </c>
-      <c r="AE252">
-        <v>0</v>
-      </c>
-      <c r="AF252">
-        <v>0</v>
-      </c>
-      <c r="AG252">
+      <c r="AD252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG252" s="3">
         <v>0</v>
       </c>
       <c r="AH252">
@@ -34563,16 +34566,16 @@
       <c r="AC253" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD253">
-        <v>0</v>
-      </c>
-      <c r="AE253">
-        <v>0</v>
-      </c>
-      <c r="AF253">
-        <v>0</v>
-      </c>
-      <c r="AG253">
+      <c r="AD253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF253" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG253" s="3">
         <v>0</v>
       </c>
       <c r="AH253">
@@ -34664,16 +34667,16 @@
       <c r="AC254" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD254">
-        <v>0</v>
-      </c>
-      <c r="AE254">
-        <v>0</v>
-      </c>
-      <c r="AF254">
-        <v>0</v>
-      </c>
-      <c r="AG254">
+      <c r="AD254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG254" s="3">
         <v>0</v>
       </c>
       <c r="AH254">
@@ -34765,16 +34768,16 @@
       <c r="AC255" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD255">
-        <v>0</v>
-      </c>
-      <c r="AE255">
-        <v>0</v>
-      </c>
-      <c r="AF255">
-        <v>0</v>
-      </c>
-      <c r="AG255">
+      <c r="AD255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG255" s="3">
         <v>0</v>
       </c>
       <c r="AH255">
@@ -34866,16 +34869,16 @@
       <c r="AC256" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD256">
-        <v>0</v>
-      </c>
-      <c r="AE256">
-        <v>0</v>
-      </c>
-      <c r="AF256">
-        <v>0</v>
-      </c>
-      <c r="AG256">
+      <c r="AD256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG256" s="3">
         <v>0</v>
       </c>
       <c r="AH256">
@@ -34967,16 +34970,16 @@
       <c r="AC257" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD257">
-        <v>0</v>
-      </c>
-      <c r="AE257">
-        <v>0</v>
-      </c>
-      <c r="AF257">
-        <v>0</v>
-      </c>
-      <c r="AG257">
+      <c r="AD257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG257" s="3">
         <v>0</v>
       </c>
       <c r="AH257">
@@ -35068,16 +35071,16 @@
       <c r="AC258" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD258">
-        <v>0</v>
-      </c>
-      <c r="AE258">
-        <v>0</v>
-      </c>
-      <c r="AF258">
-        <v>0</v>
-      </c>
-      <c r="AG258">
+      <c r="AD258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG258" s="3">
         <v>0</v>
       </c>
       <c r="AH258">
@@ -35172,16 +35175,16 @@
       <c r="AC259" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD259">
-        <v>0</v>
-      </c>
-      <c r="AE259">
-        <v>0</v>
-      </c>
-      <c r="AF259">
-        <v>0</v>
-      </c>
-      <c r="AG259">
+      <c r="AD259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG259" s="3">
         <v>0</v>
       </c>
       <c r="AH259">
@@ -35273,16 +35276,16 @@
       <c r="AC260" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD260">
-        <v>0</v>
-      </c>
-      <c r="AE260">
-        <v>0</v>
-      </c>
-      <c r="AF260">
-        <v>0</v>
-      </c>
-      <c r="AG260">
+      <c r="AD260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF260" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG260" s="3">
         <v>0</v>
       </c>
       <c r="AH260">
@@ -35374,16 +35377,16 @@
       <c r="AC261" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="AD261">
-        <v>0</v>
-      </c>
-      <c r="AE261">
-        <v>0</v>
-      </c>
-      <c r="AF261">
-        <v>0</v>
-      </c>
-      <c r="AG261">
+      <c r="AD261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF261" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG261" s="3">
         <v>0</v>
       </c>
       <c r="AH261">
@@ -35475,16 +35478,16 @@
       <c r="AC262" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD262">
-        <v>0</v>
-      </c>
-      <c r="AE262">
-        <v>0</v>
-      </c>
-      <c r="AF262">
-        <v>0</v>
-      </c>
-      <c r="AG262">
+      <c r="AD262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="3">
         <v>0</v>
       </c>
       <c r="AH262">
@@ -35576,16 +35579,16 @@
       <c r="AC263" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD263">
-        <v>0</v>
-      </c>
-      <c r="AE263">
-        <v>0</v>
-      </c>
-      <c r="AF263">
-        <v>0</v>
-      </c>
-      <c r="AG263">
+      <c r="AD263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF263" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG263" s="3">
         <v>0</v>
       </c>
       <c r="AH263">
@@ -35671,16 +35674,16 @@
       <c r="AC264" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD264">
-        <v>0</v>
-      </c>
-      <c r="AE264">
-        <v>0</v>
-      </c>
-      <c r="AF264">
-        <v>0</v>
-      </c>
-      <c r="AG264">
+      <c r="AD264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG264" s="3">
         <v>0</v>
       </c>
       <c r="AH264">
@@ -35766,16 +35769,16 @@
       <c r="AC265" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="AD265">
-        <v>0</v>
-      </c>
-      <c r="AE265">
-        <v>0</v>
-      </c>
-      <c r="AF265">
-        <v>0</v>
-      </c>
-      <c r="AG265">
+      <c r="AD265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG265" s="3">
         <v>0</v>
       </c>
       <c r="AH265">
@@ -35861,16 +35864,16 @@
       <c r="AC266" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD266">
-        <v>0</v>
-      </c>
-      <c r="AE266">
-        <v>0</v>
-      </c>
-      <c r="AF266">
-        <v>0</v>
-      </c>
-      <c r="AG266">
+      <c r="AD266" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE266" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG266" s="3">
         <v>0</v>
       </c>
       <c r="AH266">
@@ -35956,16 +35959,16 @@
       <c r="AC267" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD267">
-        <v>0</v>
-      </c>
-      <c r="AE267">
-        <v>0</v>
-      </c>
-      <c r="AF267">
-        <v>0</v>
-      </c>
-      <c r="AG267">
+      <c r="AD267" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG267" s="3">
         <v>0</v>
       </c>
       <c r="AH267">
@@ -36051,16 +36054,16 @@
       <c r="AC268" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD268">
-        <v>0</v>
-      </c>
-      <c r="AE268">
-        <v>0</v>
-      </c>
-      <c r="AF268">
-        <v>0</v>
-      </c>
-      <c r="AG268">
+      <c r="AD268" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE268" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF268" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="3">
         <v>0</v>
       </c>
       <c r="AH268">
@@ -36152,16 +36155,16 @@
       <c r="AC269" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD269">
-        <v>0</v>
-      </c>
-      <c r="AE269">
-        <v>0</v>
-      </c>
-      <c r="AF269">
-        <v>0</v>
-      </c>
-      <c r="AG269">
+      <c r="AD269" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE269" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF269" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG269" s="3">
         <v>0</v>
       </c>
       <c r="AH269">
@@ -36247,16 +36250,16 @@
       <c r="AC270" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD270">
-        <v>0</v>
-      </c>
-      <c r="AE270">
-        <v>0</v>
-      </c>
-      <c r="AF270">
-        <v>0</v>
-      </c>
-      <c r="AG270">
+      <c r="AD270" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE270" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF270" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG270" s="3">
         <v>0</v>
       </c>
       <c r="AH270">
@@ -36342,16 +36345,16 @@
       <c r="AC271" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD271">
-        <v>0</v>
-      </c>
-      <c r="AE271">
-        <v>0</v>
-      </c>
-      <c r="AF271">
-        <v>0</v>
-      </c>
-      <c r="AG271">
+      <c r="AD271" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE271" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF271" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG271" s="3">
         <v>0</v>
       </c>
       <c r="AH271">
@@ -36437,16 +36440,16 @@
       <c r="AC272" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD272">
-        <v>0</v>
-      </c>
-      <c r="AE272">
-        <v>0</v>
-      </c>
-      <c r="AF272">
-        <v>0</v>
-      </c>
-      <c r="AG272">
+      <c r="AD272" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE272" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF272" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG272" s="3">
         <v>0</v>
       </c>
       <c r="AH272">
@@ -36532,16 +36535,16 @@
       <c r="AC273" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD273">
-        <v>0</v>
-      </c>
-      <c r="AE273">
-        <v>0</v>
-      </c>
-      <c r="AF273">
-        <v>0</v>
-      </c>
-      <c r="AG273">
+      <c r="AD273" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF273" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG273" s="3">
         <v>0</v>
       </c>
       <c r="AH273">
@@ -36627,16 +36630,16 @@
       <c r="AC274" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD274">
-        <v>0</v>
-      </c>
-      <c r="AE274">
-        <v>0</v>
-      </c>
-      <c r="AF274">
-        <v>0</v>
-      </c>
-      <c r="AG274">
+      <c r="AD274" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE274" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF274" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG274" s="3">
         <v>0</v>
       </c>
       <c r="AH274">
@@ -36722,16 +36725,16 @@
       <c r="AC275" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD275">
-        <v>0</v>
-      </c>
-      <c r="AE275">
-        <v>0</v>
-      </c>
-      <c r="AF275">
-        <v>0</v>
-      </c>
-      <c r="AG275">
+      <c r="AD275" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE275" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF275" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG275" s="3">
         <v>0</v>
       </c>
       <c r="AH275">
@@ -36817,16 +36820,16 @@
       <c r="AC276" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD276">
-        <v>0</v>
-      </c>
-      <c r="AE276">
-        <v>0</v>
-      </c>
-      <c r="AF276">
-        <v>0</v>
-      </c>
-      <c r="AG276">
+      <c r="AD276" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE276" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF276" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG276" s="3">
         <v>0</v>
       </c>
       <c r="AH276">
@@ -36912,16 +36915,16 @@
       <c r="AC277" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD277">
-        <v>0</v>
-      </c>
-      <c r="AE277">
-        <v>0</v>
-      </c>
-      <c r="AF277">
-        <v>0</v>
-      </c>
-      <c r="AG277">
+      <c r="AD277" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE277" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF277" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG277" s="3">
         <v>0</v>
       </c>
       <c r="AH277">
@@ -37007,16 +37010,16 @@
       <c r="AC278" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD278">
-        <v>0</v>
-      </c>
-      <c r="AE278">
-        <v>0</v>
-      </c>
-      <c r="AF278">
-        <v>0</v>
-      </c>
-      <c r="AG278">
+      <c r="AD278" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF278" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG278" s="3">
         <v>0</v>
       </c>
       <c r="AH278">
@@ -37102,16 +37105,16 @@
       <c r="AC279" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD279">
-        <v>0</v>
-      </c>
-      <c r="AE279">
-        <v>0</v>
-      </c>
-      <c r="AF279">
-        <v>0</v>
-      </c>
-      <c r="AG279">
+      <c r="AD279" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE279" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF279" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG279" s="3">
         <v>0</v>
       </c>
       <c r="AH279">
@@ -37197,16 +37200,16 @@
       <c r="AC280" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="AD280">
-        <v>0</v>
-      </c>
-      <c r="AE280">
-        <v>0</v>
-      </c>
-      <c r="AF280">
-        <v>0</v>
-      </c>
-      <c r="AG280">
+      <c r="AD280" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE280" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF280" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG280" s="3">
         <v>0</v>
       </c>
       <c r="AH280">
@@ -37295,16 +37298,16 @@
       <c r="AC281" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD281">
-        <v>0</v>
-      </c>
-      <c r="AE281">
-        <v>0</v>
-      </c>
-      <c r="AF281">
-        <v>0</v>
-      </c>
-      <c r="AG281">
+      <c r="AD281" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE281" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF281" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG281" s="3">
         <v>0</v>
       </c>
       <c r="AH281">
@@ -37358,7 +37361,7 @@
         <v>26</v>
       </c>
       <c r="J282" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K282" t="s">
         <v>9</v>
@@ -37408,16 +37411,16 @@
       <c r="AC282" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="AD282" t="s">
+      <c r="AD282" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AE282">
+      <c r="AE282" s="3">
         <v>2</v>
       </c>
-      <c r="AF282" t="s">
+      <c r="AF282" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AG282" t="s">
+      <c r="AG282" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AH282" t="s">
@@ -37503,16 +37506,16 @@
       <c r="AC283" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD283">
-        <v>0</v>
-      </c>
-      <c r="AE283">
-        <v>0</v>
-      </c>
-      <c r="AF283">
-        <v>0</v>
-      </c>
-      <c r="AG283">
+      <c r="AD283" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF283" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG283" s="3">
         <v>0</v>
       </c>
       <c r="AH283">
@@ -37598,16 +37601,16 @@
       <c r="AC284" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD284">
-        <v>0</v>
-      </c>
-      <c r="AE284">
-        <v>0</v>
-      </c>
-      <c r="AF284">
-        <v>0</v>
-      </c>
-      <c r="AG284">
+      <c r="AD284" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE284" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF284" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG284" s="3">
         <v>0</v>
       </c>
       <c r="AH284">
@@ -37693,16 +37696,16 @@
       <c r="AC285" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD285">
-        <v>0</v>
-      </c>
-      <c r="AE285">
-        <v>0</v>
-      </c>
-      <c r="AF285">
-        <v>0</v>
-      </c>
-      <c r="AG285">
+      <c r="AD285" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE285" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF285" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG285" s="3">
         <v>0</v>
       </c>
       <c r="AH285">
@@ -37788,16 +37791,16 @@
       <c r="AC286" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD286">
-        <v>0</v>
-      </c>
-      <c r="AE286">
-        <v>0</v>
-      </c>
-      <c r="AF286">
-        <v>0</v>
-      </c>
-      <c r="AG286">
+      <c r="AD286" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE286" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF286" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG286" s="3">
         <v>0</v>
       </c>
       <c r="AH286">
@@ -37883,16 +37886,16 @@
       <c r="AC287" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD287">
-        <v>0</v>
-      </c>
-      <c r="AE287">
-        <v>0</v>
-      </c>
-      <c r="AF287">
-        <v>0</v>
-      </c>
-      <c r="AG287">
+      <c r="AD287" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE287" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF287" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG287" s="3">
         <v>0</v>
       </c>
       <c r="AH287">
@@ -37978,16 +37981,16 @@
       <c r="AC288" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD288">
-        <v>0</v>
-      </c>
-      <c r="AE288">
-        <v>0</v>
-      </c>
-      <c r="AF288">
-        <v>0</v>
-      </c>
-      <c r="AG288">
+      <c r="AD288" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF288" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG288" s="3">
         <v>0</v>
       </c>
       <c r="AH288">
@@ -38073,16 +38076,16 @@
       <c r="AC289" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="AD289">
-        <v>0</v>
-      </c>
-      <c r="AE289">
-        <v>0</v>
-      </c>
-      <c r="AF289">
-        <v>0</v>
-      </c>
-      <c r="AG289">
+      <c r="AD289" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE289" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF289" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG289" s="3">
         <v>0</v>
       </c>
       <c r="AH289">
@@ -38168,16 +38171,16 @@
       <c r="AC290" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD290">
-        <v>0</v>
-      </c>
-      <c r="AE290">
-        <v>0</v>
-      </c>
-      <c r="AF290">
-        <v>0</v>
-      </c>
-      <c r="AG290">
+      <c r="AD290" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE290" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF290" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG290" s="3">
         <v>0</v>
       </c>
       <c r="AH290">
@@ -38263,16 +38266,16 @@
       <c r="AC291" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD291">
-        <v>0</v>
-      </c>
-      <c r="AE291">
-        <v>0</v>
-      </c>
-      <c r="AF291">
-        <v>0</v>
-      </c>
-      <c r="AG291">
+      <c r="AD291" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE291" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF291" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG291" s="3">
         <v>0</v>
       </c>
       <c r="AH291">
@@ -38358,16 +38361,16 @@
       <c r="AC292" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD292">
-        <v>0</v>
-      </c>
-      <c r="AE292">
-        <v>0</v>
-      </c>
-      <c r="AF292">
-        <v>0</v>
-      </c>
-      <c r="AG292">
+      <c r="AD292" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE292" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF292" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG292" s="3">
         <v>0</v>
       </c>
       <c r="AH292">
@@ -38453,16 +38456,16 @@
       <c r="AC293" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD293">
-        <v>0</v>
-      </c>
-      <c r="AE293">
-        <v>0</v>
-      </c>
-      <c r="AF293">
-        <v>0</v>
-      </c>
-      <c r="AG293">
+      <c r="AD293" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF293" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="3">
         <v>0</v>
       </c>
       <c r="AH293">
@@ -38548,16 +38551,16 @@
       <c r="AC294" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD294">
-        <v>0</v>
-      </c>
-      <c r="AE294">
-        <v>0</v>
-      </c>
-      <c r="AF294">
-        <v>0</v>
-      </c>
-      <c r="AG294">
+      <c r="AD294" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE294" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF294" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG294" s="3">
         <v>0</v>
       </c>
       <c r="AH294">
@@ -38643,16 +38646,16 @@
       <c r="AC295" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD295">
-        <v>0</v>
-      </c>
-      <c r="AE295">
-        <v>0</v>
-      </c>
-      <c r="AF295">
-        <v>0</v>
-      </c>
-      <c r="AG295">
+      <c r="AD295" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE295" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF295" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG295" s="3">
         <v>0</v>
       </c>
       <c r="AH295">
@@ -38738,16 +38741,16 @@
       <c r="AC296" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD296">
-        <v>0</v>
-      </c>
-      <c r="AE296">
-        <v>0</v>
-      </c>
-      <c r="AF296">
-        <v>0</v>
-      </c>
-      <c r="AG296">
+      <c r="AD296" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE296" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF296" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG296" s="3">
         <v>0</v>
       </c>
       <c r="AH296">
@@ -38833,16 +38836,16 @@
       <c r="AC297" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD297">
-        <v>0</v>
-      </c>
-      <c r="AE297">
-        <v>0</v>
-      </c>
-      <c r="AF297">
-        <v>0</v>
-      </c>
-      <c r="AG297">
+      <c r="AD297" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE297" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF297" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG297" s="3">
         <v>0</v>
       </c>
       <c r="AH297">
@@ -38928,16 +38931,16 @@
       <c r="AC298" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD298">
-        <v>0</v>
-      </c>
-      <c r="AE298">
-        <v>0</v>
-      </c>
-      <c r="AF298">
-        <v>0</v>
-      </c>
-      <c r="AG298">
+      <c r="AD298" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF298" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG298" s="3">
         <v>0</v>
       </c>
       <c r="AH298">
@@ -39023,16 +39026,16 @@
       <c r="AC299" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD299">
-        <v>0</v>
-      </c>
-      <c r="AE299">
-        <v>0</v>
-      </c>
-      <c r="AF299">
-        <v>0</v>
-      </c>
-      <c r="AG299">
+      <c r="AD299" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE299" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF299" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG299" s="3">
         <v>0</v>
       </c>
       <c r="AH299">
@@ -39118,16 +39121,16 @@
       <c r="AC300" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD300">
-        <v>0</v>
-      </c>
-      <c r="AE300">
-        <v>0</v>
-      </c>
-      <c r="AF300">
-        <v>0</v>
-      </c>
-      <c r="AG300">
+      <c r="AD300" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE300" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF300" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG300" s="3">
         <v>0</v>
       </c>
       <c r="AH300">
@@ -39213,16 +39216,16 @@
       <c r="AC301" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD301">
-        <v>0</v>
-      </c>
-      <c r="AE301">
-        <v>0</v>
-      </c>
-      <c r="AF301">
-        <v>0</v>
-      </c>
-      <c r="AG301">
+      <c r="AD301" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE301" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF301" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG301" s="3">
         <v>0</v>
       </c>
       <c r="AH301">
@@ -39308,16 +39311,16 @@
       <c r="AC302" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="AD302">
-        <v>0</v>
-      </c>
-      <c r="AE302">
-        <v>0</v>
-      </c>
-      <c r="AF302">
-        <v>0</v>
-      </c>
-      <c r="AG302">
+      <c r="AD302" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE302" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF302" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG302" s="3">
         <v>0</v>
       </c>
       <c r="AH302">
@@ -39403,16 +39406,16 @@
       <c r="AC303" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD303">
-        <v>0</v>
-      </c>
-      <c r="AE303">
-        <v>0</v>
-      </c>
-      <c r="AF303">
-        <v>0</v>
-      </c>
-      <c r="AG303">
+      <c r="AD303" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF303" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG303" s="3">
         <v>0</v>
       </c>
       <c r="AH303">
@@ -39498,16 +39501,16 @@
       <c r="AC304" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD304">
-        <v>0</v>
-      </c>
-      <c r="AE304">
-        <v>0</v>
-      </c>
-      <c r="AF304">
-        <v>0</v>
-      </c>
-      <c r="AG304">
+      <c r="AD304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG304" s="3">
         <v>0</v>
       </c>
       <c r="AH304">
@@ -39593,16 +39596,16 @@
       <c r="AC305" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="AD305">
-        <v>0</v>
-      </c>
-      <c r="AE305">
-        <v>0</v>
-      </c>
-      <c r="AF305">
-        <v>0</v>
-      </c>
-      <c r="AG305">
+      <c r="AD305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG305" s="3">
         <v>0</v>
       </c>
       <c r="AH305">
@@ -39688,16 +39691,16 @@
       <c r="AC306" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD306">
-        <v>0</v>
-      </c>
-      <c r="AE306">
-        <v>0</v>
-      </c>
-      <c r="AF306">
-        <v>0</v>
-      </c>
-      <c r="AG306">
+      <c r="AD306" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE306" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF306" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG306" s="3">
         <v>0</v>
       </c>
       <c r="AH306">
@@ -39786,16 +39789,16 @@
       <c r="AC307" s="2" t="s">
         <v>1811</v>
       </c>
-      <c r="AD307">
-        <v>0</v>
-      </c>
-      <c r="AE307">
-        <v>0</v>
-      </c>
-      <c r="AF307">
-        <v>0</v>
-      </c>
-      <c r="AG307">
+      <c r="AD307" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE307" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF307" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG307" s="3">
         <v>0</v>
       </c>
       <c r="AH307">
@@ -39881,16 +39884,16 @@
       <c r="AC308" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD308">
-        <v>0</v>
-      </c>
-      <c r="AE308">
-        <v>0</v>
-      </c>
-      <c r="AF308">
-        <v>0</v>
-      </c>
-      <c r="AG308">
+      <c r="AD308" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE308" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF308" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG308" s="3">
         <v>0</v>
       </c>
       <c r="AH308">
@@ -39976,16 +39979,16 @@
       <c r="AC309" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD309">
-        <v>0</v>
-      </c>
-      <c r="AE309">
-        <v>0</v>
-      </c>
-      <c r="AF309">
-        <v>0</v>
-      </c>
-      <c r="AG309">
+      <c r="AD309" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE309" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF309" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG309" s="3">
         <v>0</v>
       </c>
       <c r="AH309">
@@ -40074,16 +40077,16 @@
       <c r="AC310" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD310">
-        <v>0</v>
-      </c>
-      <c r="AE310">
-        <v>0</v>
-      </c>
-      <c r="AF310">
-        <v>0</v>
-      </c>
-      <c r="AG310">
+      <c r="AD310" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE310" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF310" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG310" s="3">
         <v>0</v>
       </c>
       <c r="AH310">
@@ -40169,16 +40172,16 @@
       <c r="AC311" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD311">
-        <v>0</v>
-      </c>
-      <c r="AE311">
-        <v>0</v>
-      </c>
-      <c r="AF311">
-        <v>0</v>
-      </c>
-      <c r="AG311">
+      <c r="AD311" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE311" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF311" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG311" s="3">
         <v>0</v>
       </c>
       <c r="AH311">
@@ -40264,16 +40267,16 @@
       <c r="AC312" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="AD312">
-        <v>0</v>
-      </c>
-      <c r="AE312">
-        <v>0</v>
-      </c>
-      <c r="AF312">
-        <v>0</v>
-      </c>
-      <c r="AG312">
+      <c r="AD312" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE312" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF312" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG312" s="3">
         <v>0</v>
       </c>
       <c r="AH312">
@@ -40359,16 +40362,16 @@
       <c r="AC313" t="s">
         <v>12</v>
       </c>
-      <c r="AD313">
-        <v>0</v>
-      </c>
-      <c r="AE313">
-        <v>0</v>
-      </c>
-      <c r="AF313">
-        <v>0</v>
-      </c>
-      <c r="AG313">
+      <c r="AD313" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE313" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF313" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG313" s="3">
         <v>0</v>
       </c>
       <c r="AH313">
@@ -40425,7 +40428,7 @@
         <v>26</v>
       </c>
       <c r="J314" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="K314" t="s">
         <v>9</v>
@@ -40481,16 +40484,16 @@
       <c r="AC314" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD314" t="s">
+      <c r="AD314" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AE314">
-        <v>0</v>
-      </c>
-      <c r="AF314" t="s">
+      <c r="AE314" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF314" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AG314">
+      <c r="AG314" s="3">
         <v>9</v>
       </c>
       <c r="AH314" t="s">
@@ -40576,16 +40579,16 @@
       <c r="AC315" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="AD315">
-        <v>0</v>
-      </c>
-      <c r="AE315">
-        <v>0</v>
-      </c>
-      <c r="AF315">
-        <v>0</v>
-      </c>
-      <c r="AG315">
+      <c r="AD315" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE315" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF315" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG315" s="3">
         <v>0</v>
       </c>
       <c r="AH315">
@@ -40671,16 +40674,16 @@
       <c r="AC316" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD316">
-        <v>0</v>
-      </c>
-      <c r="AE316">
-        <v>0</v>
-      </c>
-      <c r="AF316">
-        <v>0</v>
-      </c>
-      <c r="AG316">
+      <c r="AD316" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE316" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF316" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG316" s="3">
         <v>0</v>
       </c>
       <c r="AH316">
@@ -40766,16 +40769,16 @@
       <c r="AC317" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="AD317">
-        <v>0</v>
-      </c>
-      <c r="AE317">
-        <v>0</v>
-      </c>
-      <c r="AF317">
-        <v>0</v>
-      </c>
-      <c r="AG317">
+      <c r="AD317" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE317" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF317" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG317" s="3">
         <v>0</v>
       </c>
       <c r="AH317">
@@ -40861,16 +40864,16 @@
       <c r="AC318" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD318">
-        <v>0</v>
-      </c>
-      <c r="AE318">
-        <v>0</v>
-      </c>
-      <c r="AF318">
-        <v>0</v>
-      </c>
-      <c r="AG318">
+      <c r="AD318" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE318" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF318" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG318" s="3">
         <v>0</v>
       </c>
       <c r="AH318">
@@ -40956,16 +40959,16 @@
       <c r="AC319" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="AD319">
-        <v>0</v>
-      </c>
-      <c r="AE319">
-        <v>0</v>
-      </c>
-      <c r="AF319">
-        <v>0</v>
-      </c>
-      <c r="AG319">
+      <c r="AD319" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF319" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG319" s="3">
         <v>0</v>
       </c>
       <c r="AH319">
@@ -41051,16 +41054,16 @@
       <c r="AC320" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="AD320">
-        <v>0</v>
-      </c>
-      <c r="AE320">
-        <v>0</v>
-      </c>
-      <c r="AF320">
-        <v>0</v>
-      </c>
-      <c r="AG320">
+      <c r="AD320" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE320" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF320" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG320" s="3">
         <v>0</v>
       </c>
       <c r="AH320">
@@ -41146,16 +41149,16 @@
       <c r="AC321" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD321">
-        <v>0</v>
-      </c>
-      <c r="AE321">
-        <v>0</v>
-      </c>
-      <c r="AF321">
-        <v>0</v>
-      </c>
-      <c r="AG321">
+      <c r="AD321" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE321" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF321" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG321" s="3">
         <v>0</v>
       </c>
       <c r="AH321">
@@ -41241,16 +41244,16 @@
       <c r="AC322" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD322">
-        <v>0</v>
-      </c>
-      <c r="AE322">
-        <v>0</v>
-      </c>
-      <c r="AF322">
-        <v>0</v>
-      </c>
-      <c r="AG322">
+      <c r="AD322" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE322" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF322" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG322" s="3">
         <v>0</v>
       </c>
       <c r="AH322">
@@ -41336,16 +41339,16 @@
       <c r="AC323" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD323">
-        <v>0</v>
-      </c>
-      <c r="AE323">
-        <v>0</v>
-      </c>
-      <c r="AF323">
-        <v>0</v>
-      </c>
-      <c r="AG323">
+      <c r="AD323" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE323" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF323" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG323" s="3">
         <v>0</v>
       </c>
       <c r="AH323">
@@ -41431,16 +41434,16 @@
       <c r="AC324" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="AD324">
-        <v>0</v>
-      </c>
-      <c r="AE324">
-        <v>0</v>
-      </c>
-      <c r="AF324">
-        <v>0</v>
-      </c>
-      <c r="AG324">
+      <c r="AD324" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF324" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG324" s="3">
         <v>0</v>
       </c>
       <c r="AH324">
@@ -41526,16 +41529,16 @@
       <c r="AC325" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD325">
-        <v>0</v>
-      </c>
-      <c r="AE325">
-        <v>0</v>
-      </c>
-      <c r="AF325">
-        <v>0</v>
-      </c>
-      <c r="AG325">
+      <c r="AD325" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE325" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF325" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG325" s="3">
         <v>0</v>
       </c>
       <c r="AH325">
@@ -41598,7 +41601,7 @@
         <v>10</v>
       </c>
       <c r="M326" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N326" t="s">
         <v>5</v>
@@ -41645,16 +41648,16 @@
       <c r="AC326" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="AD326" t="s">
+      <c r="AD326" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AE326" t="s">
+      <c r="AE326" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF326" t="s">
+      <c r="AF326" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AG326" t="s">
+      <c r="AG326" s="3" t="s">
         <v>560</v>
       </c>
       <c r="AH326" t="s">
@@ -41764,16 +41767,16 @@
       <c r="AC327" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="AD327" t="s">
+      <c r="AD327" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE327" t="s">
+      <c r="AE327" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF327" t="s">
+      <c r="AF327" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AG327">
+      <c r="AG327" s="3">
         <v>13</v>
       </c>
       <c r="AH327" t="s">
@@ -41883,16 +41886,16 @@
       <c r="AC328" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="AD328" t="s">
+      <c r="AD328" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE328" t="s">
+      <c r="AE328" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AF328" t="s">
+      <c r="AF328" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG328" t="s">
+      <c r="AG328" s="3" t="s">
         <v>358</v>
       </c>
       <c r="AH328" t="s">
@@ -41961,7 +41964,7 @@
         <v>10</v>
       </c>
       <c r="M329" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N329" t="s">
         <v>5</v>
@@ -42008,16 +42011,16 @@
       <c r="AC329" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="AD329" t="s">
+      <c r="AD329" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE329" t="s">
+      <c r="AE329" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF329" t="s">
+      <c r="AF329" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AG329" t="s">
+      <c r="AG329" s="3" t="s">
         <v>817</v>
       </c>
       <c r="AH329" t="s">
@@ -42115,16 +42118,16 @@
       <c r="AC330" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="AD330">
-        <v>0</v>
-      </c>
-      <c r="AE330">
-        <v>0</v>
-      </c>
-      <c r="AF330">
-        <v>0</v>
-      </c>
-      <c r="AG330">
+      <c r="AD330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG330" s="3">
         <v>0</v>
       </c>
       <c r="AH330" t="s">
@@ -42225,16 +42228,16 @@
       <c r="AC331" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="AD331">
-        <v>0</v>
-      </c>
-      <c r="AE331">
-        <v>0</v>
-      </c>
-      <c r="AF331">
-        <v>0</v>
-      </c>
-      <c r="AG331">
+      <c r="AD331" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE331" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF331" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG331" s="3">
         <v>0</v>
       </c>
       <c r="AH331">
@@ -42341,16 +42344,16 @@
       <c r="AC332" s="2" t="s">
         <v>1844</v>
       </c>
-      <c r="AD332">
-        <v>0</v>
-      </c>
-      <c r="AE332">
-        <v>0</v>
-      </c>
-      <c r="AF332">
-        <v>0</v>
-      </c>
-      <c r="AG332">
+      <c r="AD332" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE332" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF332" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG332" s="3">
         <v>0</v>
       </c>
       <c r="AH332">
@@ -42451,16 +42454,16 @@
       <c r="AC333" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="AD333">
-        <v>0</v>
-      </c>
-      <c r="AE333">
-        <v>0</v>
-      </c>
-      <c r="AF333">
-        <v>0</v>
-      </c>
-      <c r="AG333">
+      <c r="AD333" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE333" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF333" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG333" s="3">
         <v>0</v>
       </c>
       <c r="AH333">
@@ -42549,16 +42552,16 @@
       <c r="AC334" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="AD334">
-        <v>0</v>
-      </c>
-      <c r="AE334">
-        <v>0</v>
-      </c>
-      <c r="AF334">
-        <v>0</v>
-      </c>
-      <c r="AG334">
+      <c r="AD334" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE334" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF334" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG334" s="3">
         <v>0</v>
       </c>
       <c r="AH334">
@@ -42665,16 +42668,16 @@
       <c r="AC335" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="AD335" t="s">
+      <c r="AD335" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AE335">
-        <v>0</v>
-      </c>
-      <c r="AF335" t="s">
+      <c r="AE335" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF335" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AG335" t="s">
+      <c r="AG335" s="3" t="s">
         <v>126</v>
       </c>
       <c r="AH335" t="s">
@@ -42766,16 +42769,16 @@
       <c r="AC336" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="AD336">
-        <v>0</v>
-      </c>
-      <c r="AE336">
-        <v>0</v>
-      </c>
-      <c r="AF336">
-        <v>0</v>
-      </c>
-      <c r="AG336">
+      <c r="AD336" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE336" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF336" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG336" s="3">
         <v>0</v>
       </c>
       <c r="AH336">
@@ -42873,16 +42876,16 @@
       <c r="AC337" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="AD337" t="s">
+      <c r="AD337" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE337" t="s">
+      <c r="AE337" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF337" t="s">
+      <c r="AF337" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="AG337" t="s">
+      <c r="AG337" s="3" t="s">
         <v>997</v>
       </c>
       <c r="AH337" t="s">
@@ -42974,16 +42977,16 @@
       <c r="AC338" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="AD338">
+      <c r="AD338" s="3">
         <v>7</v>
       </c>
-      <c r="AE338" t="s">
+      <c r="AE338" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AF338" t="s">
+      <c r="AF338" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="AG338" t="s">
+      <c r="AG338" s="3" t="s">
         <v>945</v>
       </c>
       <c r="AH338" t="s">
@@ -43075,16 +43078,16 @@
       <c r="AC339" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="AD339">
-        <v>0</v>
-      </c>
-      <c r="AE339">
-        <v>0</v>
-      </c>
-      <c r="AF339">
-        <v>0</v>
-      </c>
-      <c r="AG339">
+      <c r="AD339" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE339" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF339" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG339" s="3">
         <v>0</v>
       </c>
       <c r="AH339">
@@ -43188,16 +43191,16 @@
       <c r="AC340" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="AD340">
-        <v>0</v>
-      </c>
-      <c r="AE340">
-        <v>0</v>
-      </c>
-      <c r="AF340">
-        <v>0</v>
-      </c>
-      <c r="AG340">
+      <c r="AD340" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE340" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF340" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG340" s="3">
         <v>0</v>
       </c>
       <c r="AH340">
@@ -43286,16 +43289,16 @@
       <c r="AC341" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="AD341" t="s">
+      <c r="AD341" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE341" t="s">
+      <c r="AE341" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AF341" t="s">
+      <c r="AF341" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AG341" t="s">
+      <c r="AG341" s="3" t="s">
         <v>805</v>
       </c>
       <c r="AH341" t="s">
@@ -43393,16 +43396,16 @@
       <c r="AC342" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="AD342" t="s">
+      <c r="AD342" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AE342" t="s">
+      <c r="AE342" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AF342" t="s">
+      <c r="AF342" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG342" t="s">
+      <c r="AG342" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AH342" t="s">
@@ -43491,16 +43494,16 @@
       <c r="AC343" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="AD343" t="s">
+      <c r="AD343" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AE343" t="s">
+      <c r="AE343" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="AF343" t="s">
+      <c r="AF343" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="AG343" t="s">
+      <c r="AG343" s="3" t="s">
         <v>440</v>
       </c>
       <c r="AH343" t="s">
@@ -43566,7 +43569,7 @@
         <v>3</v>
       </c>
       <c r="M344" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="N344" t="s">
         <v>6</v>
@@ -43604,16 +43607,16 @@
       <c r="AC344" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="AD344" t="s">
+      <c r="AD344" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE344" t="s">
+      <c r="AE344" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="AF344" t="s">
+      <c r="AF344" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG344" t="s">
+      <c r="AG344" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AH344" t="s">
@@ -43726,16 +43729,16 @@
       <c r="AC345" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="AD345">
+      <c r="AD345" s="3">
         <v>10</v>
       </c>
-      <c r="AE345">
-        <v>0</v>
-      </c>
-      <c r="AF345" t="s">
+      <c r="AE345" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF345" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AG345" t="s">
+      <c r="AG345" s="3" t="s">
         <v>1712</v>
       </c>
       <c r="AH345" t="s">
@@ -43842,16 +43845,16 @@
       <c r="AC346" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="AD346" t="s">
+      <c r="AD346" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="AE346">
-        <v>0</v>
-      </c>
-      <c r="AF346" t="s">
+      <c r="AE346" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF346" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AG346" t="s">
+      <c r="AG346" s="3" t="s">
         <v>118</v>
       </c>
       <c r="AH346" t="s">
@@ -43937,16 +43940,16 @@
       <c r="AC347" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="AD347">
-        <v>0</v>
-      </c>
-      <c r="AE347">
-        <v>0</v>
-      </c>
-      <c r="AF347">
-        <v>0</v>
-      </c>
-      <c r="AG347">
+      <c r="AD347" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE347" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF347" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG347" s="3">
         <v>0</v>
       </c>
       <c r="AH347">
@@ -44056,16 +44059,16 @@
       <c r="AC348" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="AD348">
+      <c r="AD348" s="3">
         <v>7</v>
       </c>
-      <c r="AE348" t="s">
+      <c r="AE348" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="AF348" t="s">
+      <c r="AF348" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AG348" t="s">
+      <c r="AG348" s="3" t="s">
         <v>126</v>
       </c>
       <c r="AH348" t="s">
@@ -44094,7 +44097,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ348"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/analysis/Balve/raw_data/Balver_Höhle.xlsx
+++ b/analysis/Balve/raw_data/Balver_Höhle.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11572" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11571" uniqueCount="1855">
   <si>
     <t>Balver_Höhle</t>
   </si>
@@ -3323,9 +3323,6 @@
   </si>
   <si>
     <t>St/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.56</t>
   </si>
   <si>
     <t xml:space="preserve"> 31.5</t>
@@ -5997,8 +5994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" topLeftCell="I157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z182" sqref="Z182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6045,133 +6042,133 @@
   <sheetData>
     <row r="1" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1" t="s">
         <v>1729</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1730</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1731</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1732</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1733</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1734</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1735</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1736</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1737</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1738</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1739</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N1" t="s">
         <v>1740</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>1742</v>
       </c>
-      <c r="N1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1743</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1744</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1745</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1746</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1747</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>1748</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="X1" t="s">
         <v>1749</v>
       </c>
-      <c r="V1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1750</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1751</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1752</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1753</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>1755</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>1851</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1756</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" t="s">
         <v>1757</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>1758</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>1759</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1760</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>1761</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>1762</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>1763</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>1764</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>1765</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>1766</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -6257,7 +6254,7 @@
         <v>19</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>20</v>
@@ -6495,7 +6492,7 @@
         <v>42</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>43</v>
@@ -6572,7 +6569,7 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
@@ -6608,7 +6605,7 @@
         <v>51</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>52</v>
@@ -6730,7 +6727,7 @@
         <v>61</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AD6" s="3" t="s">
         <v>62</v>
@@ -6807,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -6843,7 +6840,7 @@
         <v>69</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="AD7" s="3" t="s">
         <v>70</v>
@@ -6956,7 +6953,7 @@
         <v>78</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>79</v>
@@ -7027,13 +7024,13 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N9" t="s">
         <v>5</v>
@@ -7075,7 +7072,7 @@
         <v>87</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>88</v>
@@ -7191,7 +7188,7 @@
         <v>98</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>53</v>
@@ -7307,7 +7304,7 @@
         <v>105</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>106</v>
@@ -7384,7 +7381,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N12" t="s">
         <v>5</v>
@@ -7426,7 +7423,7 @@
         <v>113</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>114</v>
@@ -7542,7 +7539,7 @@
         <v>123</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="AD13" s="3">
         <v>6</v>
@@ -7661,7 +7658,7 @@
         <v>131</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>132</v>
@@ -7780,7 +7777,7 @@
         <v>140</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>20</v>
@@ -7896,7 +7893,7 @@
         <v>149</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD16" s="3" t="s">
         <v>150</v>
@@ -8009,7 +8006,7 @@
         <v>158</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="AD17" s="3" t="s">
         <v>159</v>
@@ -8128,7 +8125,7 @@
         <v>165</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>166</v>
@@ -8244,7 +8241,7 @@
         <v>173</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AD19" s="3" t="s">
         <v>153</v>
@@ -8360,7 +8357,7 @@
         <v>181</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>182</v>
@@ -8479,7 +8476,7 @@
         <v>189</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>43</v>
@@ -8598,7 +8595,7 @@
         <v>198</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>199</v>
@@ -8666,7 +8663,7 @@
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K23" t="s">
         <v>9</v>
@@ -8675,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N23" t="s">
         <v>5</v>
@@ -8720,7 +8717,7 @@
         <v>168</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>132</v>
@@ -8788,7 +8785,7 @@
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K24" t="s">
         <v>9</v>
@@ -8797,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N24" t="s">
         <v>12</v>
@@ -8836,7 +8833,7 @@
         <v>211</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>80</v>
@@ -8937,7 +8934,7 @@
         <v>221</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD25" s="3">
         <v>0</v>
@@ -9035,7 +9032,7 @@
         <v>227</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD26" s="3">
         <v>0</v>
@@ -9133,7 +9130,7 @@
         <v>232</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD27" s="3">
         <v>0</v>
@@ -9231,7 +9228,7 @@
         <v>237</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD28" s="3">
         <v>0</v>
@@ -9329,7 +9326,7 @@
         <v>241</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
@@ -9403,7 +9400,7 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N30" t="s">
         <v>12</v>
@@ -9442,7 +9439,7 @@
         <v>62</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>52</v>
@@ -9564,7 +9561,7 @@
         <v>251</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AD31" s="3" t="s">
         <v>166</v>
@@ -9641,7 +9638,7 @@
         <v>10</v>
       </c>
       <c r="M32" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N32" t="s">
         <v>12</v>
@@ -9680,7 +9677,7 @@
         <v>257</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>141</v>
@@ -9865,7 +9862,7 @@
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N34" t="s">
         <v>5</v>
@@ -9979,7 +9976,7 @@
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N35" t="s">
         <v>5</v>
@@ -10084,7 +10081,7 @@
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K36" t="s">
         <v>9</v>
@@ -10234,7 +10231,7 @@
         <v>298</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="AD37" s="3" t="s">
         <v>277</v>
@@ -10347,7 +10344,7 @@
         <v>305</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AD38" s="3" t="s">
         <v>306</v>
@@ -10460,7 +10457,7 @@
         <v>312</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="AD39" s="3" t="s">
         <v>159</v>
@@ -10567,7 +10564,7 @@
         <v>318</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AD40" s="3" t="s">
         <v>90</v>
@@ -10677,7 +10674,7 @@
         <v>325</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD41" s="3">
         <v>6</v>
@@ -10790,7 +10787,7 @@
         <v>331</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>199</v>
@@ -10861,7 +10858,7 @@
         <v>10</v>
       </c>
       <c r="M43" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N43" t="s">
         <v>12</v>
@@ -10900,7 +10897,7 @@
         <v>212</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>278</v>
@@ -11007,7 +11004,7 @@
         <v>339</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AD44" s="3">
         <v>8</v>
@@ -11069,7 +11066,7 @@
         <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K45" t="s">
         <v>9</v>
@@ -11078,7 +11075,7 @@
         <v>3</v>
       </c>
       <c r="M45" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N45" t="s">
         <v>12</v>
@@ -11111,7 +11108,7 @@
         <v>345</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>124</v>
@@ -11176,13 +11173,13 @@
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L46" t="s">
         <v>10</v>
       </c>
       <c r="M46" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N46" t="s">
         <v>5</v>
@@ -11224,7 +11221,7 @@
         <v>351</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>352</v>
@@ -11295,7 +11292,7 @@
         <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N47" t="s">
         <v>12</v>
@@ -11334,7 +11331,7 @@
         <v>357</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>43</v>
@@ -11447,7 +11444,7 @@
         <v>364</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>365</v>
@@ -11563,7 +11560,7 @@
         <v>371</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>125</v>
@@ -11679,7 +11676,7 @@
         <v>377</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="AD50" s="3" t="s">
         <v>378</v>
@@ -11795,7 +11792,7 @@
         <v>385</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="AD51" s="3" t="s">
         <v>386</v>
@@ -11905,7 +11902,7 @@
         <v>392</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>54</v>
@@ -12015,7 +12012,7 @@
         <v>396</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AD53" s="3" t="s">
         <v>397</v>
@@ -12131,7 +12128,7 @@
         <v>403</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>372</v>
@@ -12202,7 +12199,7 @@
         <v>10</v>
       </c>
       <c r="M55" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N55" t="s">
         <v>12</v>
@@ -12238,7 +12235,7 @@
         <v>408</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD55" s="3" t="s">
         <v>44</v>
@@ -12351,7 +12348,7 @@
         <v>414</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="AD56" s="3" t="s">
         <v>267</v>
@@ -12568,7 +12565,7 @@
         <v>426</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>90</v>
@@ -12657,7 +12654,7 @@
         <v>433</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>150</v>
@@ -12719,7 +12716,7 @@
         <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K60" t="s">
         <v>9</v>
@@ -12761,7 +12758,7 @@
         <v>439</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>286</v>
@@ -12826,7 +12823,7 @@
         <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K61" t="s">
         <v>9</v>
@@ -12835,7 +12832,7 @@
         <v>37</v>
       </c>
       <c r="M61" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N61" t="s">
         <v>5</v>
@@ -12880,7 +12877,7 @@
         <v>449</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
@@ -12939,7 +12936,7 @@
         <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K62" t="s">
         <v>9</v>
@@ -12993,7 +12990,7 @@
         <v>305</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>71</v>
@@ -13064,7 +13061,7 @@
         <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K63" t="s">
         <v>9</v>
@@ -13118,7 +13115,7 @@
         <v>464</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD63" s="3" t="s">
         <v>52</v>
@@ -13186,7 +13183,7 @@
         <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K64" t="s">
         <v>9</v>
@@ -13234,7 +13231,7 @@
         <v>142</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AD64" s="3" t="s">
         <v>471</v>
@@ -13302,7 +13299,7 @@
         <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K65" t="s">
         <v>9</v>
@@ -13350,7 +13347,7 @@
         <v>477</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AD65" s="3" t="s">
         <v>71</v>
@@ -13415,7 +13412,7 @@
         <v>8</v>
       </c>
       <c r="K66" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L66" t="s">
         <v>10</v>
@@ -13466,7 +13463,7 @@
         <v>485</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>90</v>
@@ -13546,7 +13543,7 @@
         <v>37</v>
       </c>
       <c r="M67" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N67" t="s">
         <v>6</v>
@@ -13585,7 +13582,7 @@
         <v>134</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AD67" s="3" t="s">
         <v>125</v>
@@ -13704,7 +13701,7 @@
         <v>497</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD68" s="3" t="s">
         <v>199</v>
@@ -13772,7 +13769,7 @@
         <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K69" t="s">
         <v>9</v>
@@ -13820,7 +13817,7 @@
         <v>502</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AD69" s="3" t="s">
         <v>503</v>
@@ -13885,7 +13882,7 @@
         <v>26</v>
       </c>
       <c r="J70" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K70" t="s">
         <v>9</v>
@@ -13894,7 +13891,7 @@
         <v>37</v>
       </c>
       <c r="M70" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N70" t="s">
         <v>6</v>
@@ -13933,7 +13930,7 @@
         <v>509</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AD70" s="3" t="s">
         <v>478</v>
@@ -14052,7 +14049,7 @@
         <v>514</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD71" s="3" t="s">
         <v>125</v>
@@ -14177,7 +14174,7 @@
         <v>521</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>90</v>
@@ -14245,7 +14242,7 @@
         <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K73" t="s">
         <v>9</v>
@@ -14254,7 +14251,7 @@
         <v>37</v>
       </c>
       <c r="M73" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N73" t="s">
         <v>6</v>
@@ -14293,7 +14290,7 @@
         <v>526</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AD73" s="3" t="s">
         <v>199</v>
@@ -14355,7 +14352,7 @@
         <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K74" t="s">
         <v>9</v>
@@ -14364,7 +14361,7 @@
         <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N74" t="s">
         <v>6</v>
@@ -14403,7 +14400,7 @@
         <v>532</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AD74" s="3">
         <v>6</v>
@@ -14471,7 +14468,7 @@
         <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K75" t="s">
         <v>9</v>
@@ -14525,7 +14522,7 @@
         <v>538</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD75" s="3" t="s">
         <v>160</v>
@@ -14587,7 +14584,7 @@
         <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K76" t="s">
         <v>9</v>
@@ -14641,7 +14638,7 @@
         <v>543</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>21</v>
@@ -14706,7 +14703,7 @@
         <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K77" t="s">
         <v>9</v>
@@ -14754,7 +14751,7 @@
         <v>548</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="AD77" s="3" t="s">
         <v>299</v>
@@ -14825,7 +14822,7 @@
         <v>8</v>
       </c>
       <c r="K78" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L78" t="s">
         <v>3</v>
@@ -14870,7 +14867,7 @@
         <v>554</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD78" s="3" t="s">
         <v>79</v>
@@ -14935,7 +14932,7 @@
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K79" t="s">
         <v>9</v>
@@ -14983,7 +14980,7 @@
         <v>559</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD79" s="3" t="s">
         <v>319</v>
@@ -15048,7 +15045,7 @@
         <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K80" t="s">
         <v>9</v>
@@ -15057,7 +15054,7 @@
         <v>3</v>
       </c>
       <c r="M80" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N80" t="s">
         <v>6</v>
@@ -15096,7 +15093,7 @@
         <v>566</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD80" s="3" t="s">
         <v>53</v>
@@ -15167,7 +15164,7 @@
         <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K81" t="s">
         <v>9</v>
@@ -15176,7 +15173,7 @@
         <v>37</v>
       </c>
       <c r="M81" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N81" t="s">
         <v>6</v>
@@ -15215,7 +15212,7 @@
         <v>573</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="AD81" s="3">
         <v>4</v>
@@ -15283,7 +15280,7 @@
         <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K82" t="s">
         <v>9</v>
@@ -15337,7 +15334,7 @@
         <v>579</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD82" s="3" t="s">
         <v>386</v>
@@ -15405,7 +15402,7 @@
         <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K83" t="s">
         <v>9</v>
@@ -15456,7 +15453,7 @@
         <v>584</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>132</v>
@@ -15524,7 +15521,7 @@
         <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K84" t="s">
         <v>9</v>
@@ -15533,7 +15530,7 @@
         <v>37</v>
       </c>
       <c r="M84" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N84" t="s">
         <v>6</v>
@@ -15572,7 +15569,7 @@
         <v>590</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD84" s="3" t="s">
         <v>44</v>
@@ -15640,7 +15637,7 @@
         <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K85" t="s">
         <v>9</v>
@@ -15688,7 +15685,7 @@
         <v>305</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AD85" s="3" t="s">
         <v>397</v>
@@ -15810,7 +15807,7 @@
         <v>598</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="AD86" s="3" t="s">
         <v>160</v>
@@ -15926,7 +15923,7 @@
         <v>602</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD87" s="3" t="s">
         <v>52</v>
@@ -16042,7 +16039,7 @@
         <v>609</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AD88" s="3" t="s">
         <v>610</v>
@@ -16155,7 +16152,7 @@
         <v>616</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>617</v>
@@ -16274,7 +16271,7 @@
         <v>622</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD90" s="3" t="s">
         <v>44</v>
@@ -16390,7 +16387,7 @@
         <v>627</v>
       </c>
       <c r="AC91" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>372</v>
@@ -16458,7 +16455,7 @@
         <v>8</v>
       </c>
       <c r="K92" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L92" t="s">
         <v>10</v>
@@ -16506,7 +16503,7 @@
         <v>632</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD92" s="3" t="s">
         <v>90</v>
@@ -16616,7 +16613,7 @@
         <v>639</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AD93" s="3" t="s">
         <v>286</v>
@@ -16732,7 +16729,7 @@
         <v>645</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>152</v>
@@ -16842,7 +16839,7 @@
         <v>651</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD95" s="3" t="s">
         <v>125</v>
@@ -16916,7 +16913,7 @@
         <v>10</v>
       </c>
       <c r="M96" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N96" t="s">
         <v>5</v>
@@ -16958,7 +16955,7 @@
         <v>658</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD96" s="3" t="s">
         <v>471</v>
@@ -17032,7 +17029,7 @@
         <v>8</v>
       </c>
       <c r="K97" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L97" t="s">
         <v>3</v>
@@ -17080,7 +17077,7 @@
         <v>548</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="AD97" s="3" t="s">
         <v>610</v>
@@ -17157,7 +17154,7 @@
         <v>10</v>
       </c>
       <c r="M98" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N98" t="s">
         <v>6</v>
@@ -17193,7 +17190,7 @@
         <v>671</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AD98" s="3">
         <v>6</v>
@@ -17270,7 +17267,7 @@
         <v>3</v>
       </c>
       <c r="M99" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N99" t="s">
         <v>6</v>
@@ -17306,7 +17303,7 @@
         <v>676</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD99" s="3" t="s">
         <v>114</v>
@@ -17416,7 +17413,7 @@
         <v>681</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>79</v>
@@ -17493,7 +17490,7 @@
         <v>10</v>
       </c>
       <c r="M101" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N101" t="s">
         <v>5</v>
@@ -17538,7 +17535,7 @@
         <v>486</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>153</v>
@@ -17615,7 +17612,7 @@
         <v>10</v>
       </c>
       <c r="M102" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N102" t="s">
         <v>12</v>
@@ -17654,7 +17651,7 @@
         <v>693</v>
       </c>
       <c r="AC102" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AD102" s="3" t="s">
         <v>278</v>
@@ -17731,7 +17728,7 @@
         <v>10</v>
       </c>
       <c r="M103" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N103" t="s">
         <v>5</v>
@@ -17776,7 +17773,7 @@
         <v>55</v>
       </c>
       <c r="AC103" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AD103" s="3" t="s">
         <v>199</v>
@@ -17853,7 +17850,7 @@
         <v>10</v>
       </c>
       <c r="M104" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N104" t="s">
         <v>12</v>
@@ -17892,7 +17889,7 @@
         <v>236</v>
       </c>
       <c r="AC104" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AD104" s="3" t="s">
         <v>153</v>
@@ -18014,7 +18011,7 @@
         <v>118</v>
       </c>
       <c r="AC105" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AD105" s="3">
         <v>6</v>
@@ -18091,7 +18088,7 @@
         <v>10</v>
       </c>
       <c r="M106" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N106" t="s">
         <v>5</v>
@@ -18136,7 +18133,7 @@
         <v>711</v>
       </c>
       <c r="AC106" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD106" s="3" t="s">
         <v>141</v>
@@ -18213,7 +18210,7 @@
         <v>10</v>
       </c>
       <c r="M107" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N107" t="s">
         <v>12</v>
@@ -18252,7 +18249,7 @@
         <v>716</v>
       </c>
       <c r="AC107" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD107" s="3" t="s">
         <v>246</v>
@@ -18329,7 +18326,7 @@
         <v>10</v>
       </c>
       <c r="M108" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N108" t="s">
         <v>5</v>
@@ -18374,7 +18371,7 @@
         <v>318</v>
       </c>
       <c r="AC108" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AD108" s="3" t="s">
         <v>286</v>
@@ -18493,7 +18490,7 @@
         <v>728</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="AD109" s="3" t="s">
         <v>160</v>
@@ -18606,7 +18603,7 @@
         <v>734</v>
       </c>
       <c r="AC110" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD110" s="3" t="s">
         <v>52</v>
@@ -18725,7 +18722,7 @@
         <v>739</v>
       </c>
       <c r="AC111" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AD111" s="3" t="s">
         <v>740</v>
@@ -18796,7 +18793,7 @@
         <v>8</v>
       </c>
       <c r="K112" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L112" t="s">
         <v>3</v>
@@ -18838,7 +18835,7 @@
         <v>382</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD112" s="3" t="s">
         <v>646</v>
@@ -18951,7 +18948,7 @@
         <v>752</v>
       </c>
       <c r="AC113" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD113" s="3" t="s">
         <v>114</v>
@@ -19073,7 +19070,7 @@
         <v>757</v>
       </c>
       <c r="AC114" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AD114" s="3" t="s">
         <v>124</v>
@@ -19144,7 +19141,7 @@
         <v>10</v>
       </c>
       <c r="M115" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N115" t="s">
         <v>5</v>
@@ -19186,7 +19183,7 @@
         <v>763</v>
       </c>
       <c r="AC115" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AD115" s="3" t="s">
         <v>379</v>
@@ -19302,7 +19299,7 @@
         <v>768</v>
       </c>
       <c r="AC116" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD116" s="3" t="s">
         <v>599</v>
@@ -19415,7 +19412,7 @@
         <v>775</v>
       </c>
       <c r="AC117" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD117" s="3" t="s">
         <v>372</v>
@@ -19489,7 +19486,7 @@
         <v>8</v>
       </c>
       <c r="K118" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L118" t="s">
         <v>10</v>
@@ -19531,7 +19528,7 @@
         <v>768</v>
       </c>
       <c r="AC118" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD118" s="3" t="s">
         <v>599</v>
@@ -19647,7 +19644,7 @@
         <v>782</v>
       </c>
       <c r="AC119" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AD119" s="3" t="s">
         <v>90</v>
@@ -19995,7 +19992,7 @@
         <v>796</v>
       </c>
       <c r="AC122" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AD122" s="3">
         <v>5</v>
@@ -20072,7 +20069,7 @@
         <v>10</v>
       </c>
       <c r="M123" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N123" t="s">
         <v>6</v>
@@ -20108,7 +20105,7 @@
         <v>800</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD123" s="3" t="s">
         <v>397</v>
@@ -20221,7 +20218,7 @@
         <v>804</v>
       </c>
       <c r="AC124" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD124" s="3" t="s">
         <v>52</v>
@@ -20295,7 +20292,7 @@
         <v>10</v>
       </c>
       <c r="M125" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N125" t="s">
         <v>5</v>
@@ -20337,7 +20334,7 @@
         <v>810</v>
       </c>
       <c r="AC125" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AD125" s="3" t="s">
         <v>43</v>
@@ -20459,7 +20456,7 @@
         <v>816</v>
       </c>
       <c r="AC126" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AD126" s="3" t="s">
         <v>503</v>
@@ -20572,7 +20569,7 @@
         <v>565</v>
       </c>
       <c r="AC127" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AD127" s="3" t="s">
         <v>286</v>
@@ -20640,7 +20637,7 @@
         <v>8</v>
       </c>
       <c r="K128" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L128" t="s">
         <v>3</v>
@@ -20682,7 +20679,7 @@
         <v>827</v>
       </c>
       <c r="AC128" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AD128" s="3" t="s">
         <v>471</v>
@@ -20798,7 +20795,7 @@
         <v>833</v>
       </c>
       <c r="AC129" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AD129" s="3" t="s">
         <v>90</v>
@@ -20872,7 +20869,7 @@
         <v>8</v>
       </c>
       <c r="K130" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L130" t="s">
         <v>3</v>
@@ -20914,7 +20911,7 @@
         <v>838</v>
       </c>
       <c r="AC130" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD130" s="3" t="s">
         <v>478</v>
@@ -21036,7 +21033,7 @@
         <v>843</v>
       </c>
       <c r="AC131" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD131" s="3" t="s">
         <v>150</v>
@@ -21158,7 +21155,7 @@
         <v>847</v>
       </c>
       <c r="AC132" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AD132" s="3" t="s">
         <v>848</v>
@@ -21277,7 +21274,7 @@
         <v>854</v>
       </c>
       <c r="AC133" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AD133" s="3" t="s">
         <v>43</v>
@@ -21396,7 +21393,7 @@
         <v>859</v>
       </c>
       <c r="AC134" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AD134" s="3" t="s">
         <v>860</v>
@@ -21506,7 +21503,7 @@
         <v>865</v>
       </c>
       <c r="AC135" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD135" s="3" t="s">
         <v>53</v>
@@ -21580,7 +21577,7 @@
         <v>10</v>
       </c>
       <c r="M136" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N136" t="s">
         <v>6</v>
@@ -21616,7 +21613,7 @@
         <v>870</v>
       </c>
       <c r="AC136" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="AD136" s="3" t="s">
         <v>79</v>
@@ -21690,7 +21687,7 @@
         <v>3</v>
       </c>
       <c r="M137" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N137" t="s">
         <v>5</v>
@@ -21735,7 +21732,7 @@
         <v>875</v>
       </c>
       <c r="AC137" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD137" s="3" t="s">
         <v>365</v>
@@ -21851,7 +21848,7 @@
         <v>880</v>
       </c>
       <c r="AC138" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD138" s="3" t="s">
         <v>54</v>
@@ -21919,7 +21916,7 @@
         <v>8</v>
       </c>
       <c r="K139" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L139" t="s">
         <v>3</v>
@@ -21961,7 +21958,7 @@
         <v>884</v>
       </c>
       <c r="AC139" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD139" s="3" t="s">
         <v>54</v>
@@ -22080,7 +22077,7 @@
         <v>890</v>
       </c>
       <c r="AC140" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="AD140" s="3" t="s">
         <v>241</v>
@@ -22187,7 +22184,7 @@
         <v>894</v>
       </c>
       <c r="AC141" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD141" s="3" t="s">
         <v>478</v>
@@ -22303,7 +22300,7 @@
         <v>859</v>
       </c>
       <c r="AC142" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AD142" s="3" t="s">
         <v>899</v>
@@ -22371,7 +22368,7 @@
         <v>8</v>
       </c>
       <c r="K143" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L143" t="s">
         <v>3</v>
@@ -22413,7 +22410,7 @@
         <v>904</v>
       </c>
       <c r="AC143" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD143" s="3" t="s">
         <v>365</v>
@@ -22532,7 +22529,7 @@
         <v>107</v>
       </c>
       <c r="AC144" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD144" s="3" t="s">
         <v>124</v>
@@ -22600,7 +22597,7 @@
         <v>8</v>
       </c>
       <c r="K145" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L145" t="s">
         <v>3</v>
@@ -22642,7 +22639,7 @@
         <v>914</v>
       </c>
       <c r="AC145" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AD145" s="3" t="s">
         <v>258</v>
@@ -22758,7 +22755,7 @@
         <v>918</v>
       </c>
       <c r="AC146" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD146" s="3" t="s">
         <v>266</v>
@@ -22877,7 +22874,7 @@
         <v>922</v>
       </c>
       <c r="AC147" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AD147" s="3" t="s">
         <v>150</v>
@@ -22984,7 +22981,7 @@
         <v>926</v>
       </c>
       <c r="AC148" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AD148" s="3" t="s">
         <v>397</v>
@@ -23097,7 +23094,7 @@
         <v>332</v>
       </c>
       <c r="AC149" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD149" s="3" t="s">
         <v>191</v>
@@ -23171,7 +23168,7 @@
         <v>10</v>
       </c>
       <c r="M150" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N150" t="s">
         <v>5</v>
@@ -23213,7 +23210,7 @@
         <v>936</v>
       </c>
       <c r="AC150" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AD150" s="3" t="s">
         <v>397</v>
@@ -23290,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="M151" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N151" t="s">
         <v>5</v>
@@ -23332,7 +23329,7 @@
         <v>941</v>
       </c>
       <c r="AC151" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AD151" s="3">
         <v>7</v>
@@ -23451,7 +23448,7 @@
         <v>640</v>
       </c>
       <c r="AC152" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="AD152" s="3" t="s">
         <v>153</v>
@@ -23570,7 +23567,7 @@
         <v>950</v>
       </c>
       <c r="AC153" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AD153" s="3" t="s">
         <v>135</v>
@@ -23683,7 +23680,7 @@
         <v>957</v>
       </c>
       <c r="AC154" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AD154" s="3" t="s">
         <v>44</v>
@@ -23802,7 +23799,7 @@
         <v>962</v>
       </c>
       <c r="AC155" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD155" s="3" t="s">
         <v>849</v>
@@ -23873,7 +23870,7 @@
         <v>10</v>
       </c>
       <c r="M156" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N156" t="s">
         <v>6</v>
@@ -23909,7 +23906,7 @@
         <v>966</v>
       </c>
       <c r="AC156" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD156" s="3" t="s">
         <v>478</v>
@@ -24028,7 +24025,7 @@
         <v>855</v>
       </c>
       <c r="AC157" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AD157" s="3">
         <v>4</v>
@@ -24147,7 +24144,7 @@
         <v>973</v>
       </c>
       <c r="AC158" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD158" s="3" t="s">
         <v>79</v>
@@ -24266,7 +24263,7 @@
         <v>633</v>
       </c>
       <c r="AC159" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD159" s="3" t="s">
         <v>53</v>
@@ -24340,7 +24337,7 @@
         <v>10</v>
       </c>
       <c r="M160" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N160" t="s">
         <v>6</v>
@@ -24376,7 +24373,7 @@
         <v>982</v>
       </c>
       <c r="AC160" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AD160" s="3" t="s">
         <v>115</v>
@@ -24441,13 +24438,13 @@
         <v>8</v>
       </c>
       <c r="K161" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L161" t="s">
         <v>3</v>
       </c>
       <c r="M161" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N161" t="s">
         <v>5</v>
@@ -24489,7 +24486,7 @@
         <v>988</v>
       </c>
       <c r="AC161" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AD161" s="3" t="s">
         <v>44</v>
@@ -24608,7 +24605,7 @@
         <v>992</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AD162" s="3" t="s">
         <v>267</v>
@@ -24679,7 +24676,7 @@
         <v>10</v>
       </c>
       <c r="M163" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N163" t="s">
         <v>5</v>
@@ -24724,7 +24721,7 @@
         <v>996</v>
       </c>
       <c r="AC163" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="AD163" s="3" t="s">
         <v>241</v>
@@ -24846,7 +24843,7 @@
         <v>1001</v>
       </c>
       <c r="AC164" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AD164" s="3" t="s">
         <v>125</v>
@@ -24914,7 +24911,7 @@
         <v>26</v>
       </c>
       <c r="J165" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K165" t="s">
         <v>9</v>
@@ -24968,7 +24965,7 @@
         <v>1006</v>
       </c>
       <c r="AC165" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD165" s="3" t="s">
         <v>80</v>
@@ -25090,7 +25087,7 @@
         <v>1010</v>
       </c>
       <c r="AC166" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD166" s="3" t="s">
         <v>503</v>
@@ -25164,7 +25161,7 @@
         <v>3</v>
       </c>
       <c r="M167" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N167" t="s">
         <v>12</v>
@@ -25203,7 +25200,7 @@
         <v>1015</v>
       </c>
       <c r="AC167" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AD167" s="3" t="s">
         <v>115</v>
@@ -25328,7 +25325,7 @@
         <v>584</v>
       </c>
       <c r="AC168" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD168" s="3">
         <v>7</v>
@@ -25453,7 +25450,7 @@
         <v>414</v>
       </c>
       <c r="AC169" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD169" s="3" t="s">
         <v>44</v>
@@ -25524,7 +25521,7 @@
         <v>37</v>
       </c>
       <c r="M170" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N170" t="s">
         <v>6</v>
@@ -25563,7 +25560,7 @@
         <v>1029</v>
       </c>
       <c r="AC170" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AD170" s="3" t="s">
         <v>849</v>
@@ -25634,7 +25631,7 @@
         <v>3</v>
       </c>
       <c r="M171" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N171" t="s">
         <v>12</v>
@@ -25673,7 +25670,7 @@
         <v>1034</v>
       </c>
       <c r="AC171" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD171" s="3" t="s">
         <v>53</v>
@@ -25747,7 +25744,7 @@
         <v>3</v>
       </c>
       <c r="M172" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N172" t="s">
         <v>5</v>
@@ -25792,7 +25789,7 @@
         <v>539</v>
       </c>
       <c r="AC172" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD172" s="3" t="s">
         <v>435</v>
@@ -25869,7 +25866,7 @@
         <v>10</v>
       </c>
       <c r="M173" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N173" t="s">
         <v>6</v>
@@ -25908,7 +25905,7 @@
         <v>82</v>
       </c>
       <c r="AC173" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AD173" s="3" t="s">
         <v>152</v>
@@ -26110,7 +26107,7 @@
         <v>3</v>
       </c>
       <c r="M175" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N175" t="s">
         <v>5</v>
@@ -26155,7 +26152,7 @@
         <v>775</v>
       </c>
       <c r="AC175" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD175" s="3" t="s">
         <v>43</v>
@@ -26232,7 +26229,7 @@
         <v>10</v>
       </c>
       <c r="M176" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N176" t="s">
         <v>12</v>
@@ -26271,7 +26268,7 @@
         <v>1056</v>
       </c>
       <c r="AC176" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AD176" s="3" t="s">
         <v>849</v>
@@ -26393,7 +26390,7 @@
         <v>775</v>
       </c>
       <c r="AC177" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AD177" s="3" t="s">
         <v>652</v>
@@ -26515,7 +26512,7 @@
         <v>1068</v>
       </c>
       <c r="AC178" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AD178" s="3" t="s">
         <v>503</v>
@@ -26634,7 +26631,7 @@
         <v>1070</v>
       </c>
       <c r="AC179" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD179" s="3" t="s">
         <v>90</v>
@@ -26708,7 +26705,7 @@
         <v>3</v>
       </c>
       <c r="M180" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N180" t="s">
         <v>5</v>
@@ -26753,7 +26750,7 @@
         <v>1074</v>
       </c>
       <c r="AC180" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AD180" s="3" t="s">
         <v>150</v>
@@ -26872,7 +26869,7 @@
         <v>1080</v>
       </c>
       <c r="AC181" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AD181" s="3" t="s">
         <v>90</v>
@@ -26984,23 +26981,23 @@
       <c r="Y182" t="s">
         <v>39</v>
       </c>
-      <c r="Z182" t="s">
+      <c r="Z182">
+        <v>55.6</v>
+      </c>
+      <c r="AA182" t="s">
         <v>1083</v>
       </c>
-      <c r="AA182" t="s">
+      <c r="AB182" t="s">
         <v>1084</v>
       </c>
-      <c r="AB182" t="s">
-        <v>1085</v>
-      </c>
       <c r="AC182" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AD182" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE182" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AF182" s="3">
         <v>5</v>
@@ -27009,7 +27006,7 @@
         <v>15</v>
       </c>
       <c r="AH182" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AI182" t="s">
         <v>270</v>
@@ -27041,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C183" t="s">
         <v>442</v>
@@ -27071,7 +27068,7 @@
         <v>10</v>
       </c>
       <c r="M183" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N183" t="s">
         <v>5</v>
@@ -27107,16 +27104,16 @@
         <v>39</v>
       </c>
       <c r="Z183" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AA183" t="s">
         <v>1089</v>
       </c>
-      <c r="AA183" t="s">
+      <c r="AB183" t="s">
         <v>1090</v>
       </c>
-      <c r="AB183" t="s">
-        <v>1091</v>
-      </c>
       <c r="AC183" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AD183" s="3" t="s">
         <v>1062</v>
@@ -27131,7 +27128,7 @@
         <v>358</v>
       </c>
       <c r="AH183" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AI183" t="s">
         <v>270</v>
@@ -27163,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C184" t="s">
         <v>442</v>
@@ -27235,10 +27232,10 @@
         <v>188</v>
       </c>
       <c r="AB184" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AC184" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AD184" s="3" t="s">
         <v>79</v>
@@ -27282,7 +27279,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C185" t="s">
         <v>442</v>
@@ -27348,16 +27345,16 @@
         <v>39</v>
       </c>
       <c r="Z185" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AA185" t="s">
         <v>1096</v>
       </c>
-      <c r="AA185" t="s">
+      <c r="AB185" t="s">
         <v>1097</v>
       </c>
-      <c r="AB185" t="s">
-        <v>1098</v>
-      </c>
       <c r="AC185" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD185" s="3" t="s">
         <v>365</v>
@@ -27372,7 +27369,7 @@
         <v>471</v>
       </c>
       <c r="AH185" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AI185" t="s">
         <v>270</v>
@@ -27401,7 +27398,7 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C186" t="s">
         <v>442</v>
@@ -27410,7 +27407,7 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F186" t="s">
         <v>444</v>
@@ -27467,16 +27464,16 @@
         <v>39</v>
       </c>
       <c r="Z186" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AA186" t="s">
         <v>1848</v>
       </c>
-      <c r="AA186" t="s">
-        <v>1849</v>
-      </c>
       <c r="AB186" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AC186" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD186" s="3" t="s">
         <v>135</v>
@@ -27491,7 +27488,7 @@
         <v>320</v>
       </c>
       <c r="AH186" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AI186" t="s">
         <v>493</v>
@@ -27523,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C187" t="s">
         <v>442</v>
@@ -27547,13 +27544,13 @@
         <v>8</v>
       </c>
       <c r="K187" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L187" t="s">
         <v>3</v>
       </c>
       <c r="M187" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N187" t="s">
         <v>6</v>
@@ -27583,16 +27580,16 @@
         <v>39</v>
       </c>
       <c r="Z187" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA187" t="s">
         <v>1105</v>
       </c>
-      <c r="AA187" t="s">
+      <c r="AB187" t="s">
         <v>1106</v>
       </c>
-      <c r="AB187" t="s">
-        <v>1107</v>
-      </c>
       <c r="AC187" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="AD187" s="3" t="s">
         <v>435</v>
@@ -27639,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C188" t="s">
         <v>442</v>
@@ -27672,7 +27669,7 @@
         <v>10</v>
       </c>
       <c r="M188" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N188" t="s">
         <v>5</v>
@@ -27681,7 +27678,7 @@
         <v>261</v>
       </c>
       <c r="P188" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q188" t="s">
         <v>48</v>
@@ -27708,16 +27705,16 @@
         <v>39</v>
       </c>
       <c r="Z188" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AA188" t="s">
         <v>1110</v>
       </c>
-      <c r="AA188" t="s">
+      <c r="AB188" t="s">
         <v>1111</v>
       </c>
-      <c r="AB188" t="s">
-        <v>1112</v>
-      </c>
       <c r="AC188" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="AD188" s="3" t="s">
         <v>44</v>
@@ -27732,7 +27729,7 @@
         <v>801</v>
       </c>
       <c r="AH188" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AI188" t="s">
         <v>677</v>
@@ -27761,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C189" t="s">
         <v>442</v>
@@ -27770,7 +27767,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F189" t="s">
         <v>5</v>
@@ -27788,13 +27785,13 @@
         <v>8</v>
       </c>
       <c r="K189" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L189" t="s">
         <v>3</v>
       </c>
       <c r="M189" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N189" t="s">
         <v>6</v>
@@ -27827,13 +27824,13 @@
         <v>26</v>
       </c>
       <c r="AA189" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AB189" t="s">
         <v>1116</v>
       </c>
-      <c r="AB189" t="s">
-        <v>1117</v>
-      </c>
       <c r="AC189" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD189" s="3" t="s">
         <v>849</v>
@@ -27848,7 +27845,7 @@
         <v>11</v>
       </c>
       <c r="AH189" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AI189" t="s">
         <v>270</v>
@@ -27877,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C190" t="s">
         <v>442</v>
@@ -27886,7 +27883,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F190" t="s">
         <v>5</v>
@@ -27904,13 +27901,13 @@
         <v>8</v>
       </c>
       <c r="K190" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L190" t="s">
         <v>3</v>
       </c>
       <c r="M190" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N190" t="s">
         <v>5</v>
@@ -27946,16 +27943,16 @@
         <v>39</v>
       </c>
       <c r="Z190" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AA190" t="s">
         <v>1121</v>
       </c>
-      <c r="AA190" t="s">
+      <c r="AB190" t="s">
         <v>1122</v>
       </c>
-      <c r="AB190" t="s">
-        <v>1123</v>
-      </c>
       <c r="AC190" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AD190" s="3" t="s">
         <v>71</v>
@@ -27970,7 +27967,7 @@
         <v>398</v>
       </c>
       <c r="AH190" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AI190" t="s">
         <v>481</v>
@@ -28002,7 +27999,7 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C191" t="s">
         <v>442</v>
@@ -28074,10 +28071,10 @@
         <v>196</v>
       </c>
       <c r="AB191" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AC191" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AD191" s="3" t="s">
         <v>54</v>
@@ -28092,7 +28089,7 @@
         <v>159</v>
       </c>
       <c r="AH191" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AI191" t="s">
         <v>493</v>
@@ -28124,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C192" t="s">
         <v>442</v>
@@ -28133,7 +28130,7 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F192" t="s">
         <v>5</v>
@@ -28193,16 +28190,16 @@
         <v>39</v>
       </c>
       <c r="Z192" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AA192" t="s">
         <v>1130</v>
       </c>
-      <c r="AA192" t="s">
+      <c r="AB192" t="s">
         <v>1131</v>
       </c>
-      <c r="AB192" t="s">
-        <v>1132</v>
-      </c>
       <c r="AC192" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AD192" s="3" t="s">
         <v>266</v>
@@ -28214,10 +28211,10 @@
         <v>848</v>
       </c>
       <c r="AG192" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AH192" t="s">
         <v>1133</v>
-      </c>
-      <c r="AH192" t="s">
-        <v>1134</v>
       </c>
       <c r="AI192" t="s">
         <v>270</v>
@@ -28249,7 +28246,7 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C193" t="s">
         <v>442</v>
@@ -28312,16 +28309,16 @@
         <v>3</v>
       </c>
       <c r="Z193" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AA193" t="s">
         <v>1136</v>
       </c>
-      <c r="AA193" t="s">
+      <c r="AB193" t="s">
         <v>1137</v>
       </c>
-      <c r="AB193" t="s">
-        <v>1138</v>
-      </c>
       <c r="AC193" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="AD193" s="3" t="s">
         <v>584</v>
@@ -28333,10 +28330,10 @@
         <v>286</v>
       </c>
       <c r="AG193" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AH193" t="s">
         <v>1139</v>
-      </c>
-      <c r="AH193" t="s">
-        <v>1140</v>
       </c>
       <c r="AI193" t="s">
         <v>270</v>
@@ -28368,7 +28365,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C194" t="s">
         <v>442</v>
@@ -28398,7 +28395,7 @@
         <v>10</v>
       </c>
       <c r="M194" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N194" t="s">
         <v>5</v>
@@ -28434,16 +28431,16 @@
         <v>39</v>
       </c>
       <c r="Z194" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AA194" t="s">
         <v>1142</v>
       </c>
-      <c r="AA194" t="s">
+      <c r="AB194" t="s">
         <v>1143</v>
       </c>
-      <c r="AB194" t="s">
-        <v>1144</v>
-      </c>
       <c r="AC194" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AD194" s="3" t="s">
         <v>132</v>
@@ -28458,7 +28455,7 @@
         <v>434</v>
       </c>
       <c r="AH194" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AI194" t="s">
         <v>270</v>
@@ -28487,7 +28484,7 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C195" t="s">
         <v>442</v>
@@ -28496,7 +28493,7 @@
         <v>1939</v>
       </c>
       <c r="E195" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F195" t="s">
         <v>444</v>
@@ -28553,16 +28550,16 @@
         <v>39</v>
       </c>
       <c r="Z195" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AA195" t="s">
         <v>1148</v>
       </c>
-      <c r="AA195" t="s">
+      <c r="AB195" t="s">
         <v>1149</v>
       </c>
-      <c r="AB195" t="s">
-        <v>1150</v>
-      </c>
       <c r="AC195" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="AD195" s="3" t="s">
         <v>182</v>
@@ -28574,10 +28571,10 @@
         <v>633</v>
       </c>
       <c r="AG195" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AH195" t="s">
         <v>1151</v>
-      </c>
-      <c r="AH195" t="s">
-        <v>1152</v>
       </c>
       <c r="AI195" t="s">
         <v>270</v>
@@ -28609,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C196" t="s">
         <v>442</v>
@@ -28618,7 +28615,7 @@
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F196" t="s">
         <v>5</v>
@@ -28672,16 +28669,16 @@
         <v>39</v>
       </c>
       <c r="Z196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AA196" t="s">
         <v>1155</v>
       </c>
-      <c r="AA196" t="s">
+      <c r="AB196" t="s">
         <v>1156</v>
       </c>
-      <c r="AB196" t="s">
-        <v>1157</v>
-      </c>
       <c r="AC196" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AD196" s="3" t="s">
         <v>71</v>
@@ -28728,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C197" t="s">
         <v>442</v>
@@ -28791,16 +28788,16 @@
         <v>39</v>
       </c>
       <c r="Z197" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AA197" t="s">
         <v>1159</v>
-      </c>
-      <c r="AA197" t="s">
-        <v>1160</v>
       </c>
       <c r="AB197" t="s">
         <v>859</v>
       </c>
       <c r="AC197" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AD197" s="3" t="s">
         <v>153</v>
@@ -28815,7 +28812,7 @@
         <v>91</v>
       </c>
       <c r="AH197" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AI197" t="s">
         <v>493</v>
@@ -28847,7 +28844,7 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C198" t="s">
         <v>442</v>
@@ -28886,7 +28883,7 @@
         <v>273</v>
       </c>
       <c r="P198" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q198" t="s">
         <v>208</v>
@@ -28913,16 +28910,16 @@
         <v>39</v>
       </c>
       <c r="Z198" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AA198" t="s">
         <v>1163</v>
       </c>
-      <c r="AA198" t="s">
+      <c r="AB198" t="s">
         <v>1164</v>
       </c>
-      <c r="AB198" t="s">
-        <v>1165</v>
-      </c>
       <c r="AC198" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AD198" s="3" t="s">
         <v>299</v>
@@ -28966,7 +28963,7 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C199" t="s">
         <v>442</v>
@@ -28993,7 +28990,7 @@
         <v>3</v>
       </c>
       <c r="M199" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N199" t="s">
         <v>5</v>
@@ -29029,16 +29026,16 @@
         <v>39</v>
       </c>
       <c r="Z199" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AA199" t="s">
         <v>1167</v>
       </c>
-      <c r="AA199" t="s">
+      <c r="AB199" t="s">
         <v>1168</v>
       </c>
-      <c r="AB199" t="s">
-        <v>1169</v>
-      </c>
       <c r="AC199" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AD199" s="3" t="s">
         <v>152</v>
@@ -29053,7 +29050,7 @@
         <v>817</v>
       </c>
       <c r="AH199" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI199" t="s">
         <v>493</v>
@@ -29085,7 +29082,7 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C200" t="s">
         <v>442</v>
@@ -29094,7 +29091,7 @@
         <v>1939</v>
       </c>
       <c r="E200" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F200" t="s">
         <v>444</v>
@@ -29124,7 +29121,7 @@
         <v>261</v>
       </c>
       <c r="P200" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q200" t="s">
         <v>75</v>
@@ -29151,16 +29148,16 @@
         <v>39</v>
       </c>
       <c r="Z200" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AA200" t="s">
         <v>902</v>
       </c>
       <c r="AB200" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AC200" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD200" s="3" t="s">
         <v>379</v>
@@ -29175,7 +29172,7 @@
         <v>55</v>
       </c>
       <c r="AH200" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AI200" t="s">
         <v>270</v>
@@ -29207,7 +29204,7 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C201" t="s">
         <v>442</v>
@@ -29228,7 +29225,7 @@
         <v>8</v>
       </c>
       <c r="K201" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L201" t="s">
         <v>3</v>
@@ -29264,16 +29261,16 @@
         <v>39</v>
       </c>
       <c r="Z201" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA201" t="s">
         <v>1176</v>
       </c>
-      <c r="AA201" t="s">
+      <c r="AB201" t="s">
         <v>1177</v>
       </c>
-      <c r="AB201" t="s">
-        <v>1178</v>
-      </c>
       <c r="AC201" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AD201" s="3" t="s">
         <v>124</v>
@@ -29288,7 +29285,7 @@
         <v>159</v>
       </c>
       <c r="AH201" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AI201" t="s">
         <v>270</v>
@@ -29320,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C202" t="s">
         <v>442</v>
@@ -29344,13 +29341,13 @@
         <v>8</v>
       </c>
       <c r="K202" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L202" t="s">
         <v>10</v>
       </c>
       <c r="M202" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N202" t="s">
         <v>5</v>
@@ -29386,16 +29383,16 @@
         <v>16</v>
       </c>
       <c r="Z202" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AA202" t="s">
         <v>1181</v>
       </c>
-      <c r="AA202" t="s">
+      <c r="AB202" t="s">
         <v>1182</v>
       </c>
-      <c r="AB202" t="s">
-        <v>1183</v>
-      </c>
       <c r="AC202" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AD202" s="3" t="s">
         <v>152</v>
@@ -29410,7 +29407,7 @@
         <v>106</v>
       </c>
       <c r="AH202" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AI202" t="s">
         <v>270</v>
@@ -29442,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C203" t="s">
         <v>442</v>
@@ -29463,7 +29460,7 @@
         <v>8</v>
       </c>
       <c r="K203" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L203" t="s">
         <v>3</v>
@@ -29496,16 +29493,16 @@
         <v>16</v>
       </c>
       <c r="Z203" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AA203" t="s">
         <v>1186</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>1187</v>
       </c>
       <c r="AB203" t="s">
         <v>1046</v>
       </c>
       <c r="AC203" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="AD203" s="3" t="s">
         <v>365</v>
@@ -29520,7 +29517,7 @@
         <v>287</v>
       </c>
       <c r="AH203" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AI203" t="s">
         <v>270</v>
@@ -29549,7 +29546,7 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C204" t="s">
         <v>442</v>
@@ -29558,7 +29555,7 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F204" t="s">
         <v>5</v>
@@ -29567,7 +29564,7 @@
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I204" t="s">
         <v>26</v>
@@ -29582,7 +29579,7 @@
         <v>3</v>
       </c>
       <c r="M204" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N204" t="s">
         <v>6</v>
@@ -29612,16 +29609,16 @@
         <v>16</v>
       </c>
       <c r="Z204" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AA204" t="s">
         <v>1192</v>
       </c>
-      <c r="AA204" t="s">
+      <c r="AB204" t="s">
         <v>1193</v>
       </c>
-      <c r="AB204" t="s">
-        <v>1194</v>
-      </c>
       <c r="AC204" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD204" s="3" t="s">
         <v>43</v>
@@ -29636,7 +29633,7 @@
         <v>205</v>
       </c>
       <c r="AH204" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AI204" t="s">
         <v>270</v>
@@ -29665,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C205" t="s">
         <v>442</v>
@@ -29701,7 +29698,7 @@
         <v>655</v>
       </c>
       <c r="P205" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q205" t="s">
         <v>14</v>
@@ -29728,16 +29725,16 @@
         <v>16</v>
       </c>
       <c r="Z205" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AA205" t="s">
         <v>1197</v>
       </c>
-      <c r="AA205" t="s">
+      <c r="AB205" t="s">
         <v>1198</v>
       </c>
-      <c r="AB205" t="s">
-        <v>1199</v>
-      </c>
       <c r="AC205" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AD205" s="3" t="s">
         <v>277</v>
@@ -29752,7 +29749,7 @@
         <v>612</v>
       </c>
       <c r="AH205" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AI205" t="s">
         <v>493</v>
@@ -29781,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C206" t="s">
         <v>442</v>
@@ -29850,16 +29847,16 @@
         <v>16</v>
       </c>
       <c r="Z206" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AA206" t="s">
         <v>1202</v>
       </c>
-      <c r="AA206" t="s">
+      <c r="AB206" t="s">
         <v>1203</v>
       </c>
-      <c r="AB206" t="s">
-        <v>1204</v>
-      </c>
       <c r="AC206" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AD206" s="3" t="s">
         <v>44</v>
@@ -29874,7 +29871,7 @@
         <v>848</v>
       </c>
       <c r="AH206" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AI206" t="s">
         <v>270</v>
@@ -29903,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C207" t="s">
         <v>442</v>
@@ -29912,7 +29909,7 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F207" t="s">
         <v>5</v>
@@ -29972,16 +29969,16 @@
         <v>16</v>
       </c>
       <c r="Z207" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AA207" t="s">
         <v>1208</v>
       </c>
-      <c r="AA207" t="s">
+      <c r="AB207" t="s">
         <v>1209</v>
       </c>
-      <c r="AB207" t="s">
-        <v>1210</v>
-      </c>
       <c r="AC207" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AD207" s="3" t="s">
         <v>299</v>
@@ -29996,7 +29993,7 @@
         <v>64</v>
       </c>
       <c r="AH207" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AI207" t="s">
         <v>270</v>
@@ -30028,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C208" t="s">
         <v>442</v>
@@ -30097,16 +30094,16 @@
         <v>16</v>
       </c>
       <c r="Z208" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA208" t="s">
         <v>1213</v>
       </c>
-      <c r="AA208" t="s">
+      <c r="AB208" t="s">
         <v>1214</v>
       </c>
-      <c r="AB208" t="s">
-        <v>1215</v>
-      </c>
       <c r="AC208" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD208" s="3" t="s">
         <v>372</v>
@@ -30121,7 +30118,7 @@
         <v>20</v>
       </c>
       <c r="AH208" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AI208" t="s">
         <v>270</v>
@@ -30150,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C209" t="s">
         <v>442</v>
@@ -30177,7 +30174,7 @@
         <v>10</v>
       </c>
       <c r="M209" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N209" t="s">
         <v>5</v>
@@ -30213,16 +30210,16 @@
         <v>16</v>
       </c>
       <c r="Z209" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AA209" t="s">
         <v>1218</v>
       </c>
-      <c r="AA209" t="s">
+      <c r="AB209" t="s">
         <v>1219</v>
       </c>
-      <c r="AB209" t="s">
-        <v>1220</v>
-      </c>
       <c r="AC209" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AD209" s="3" t="s">
         <v>386</v>
@@ -30237,7 +30234,7 @@
         <v>434</v>
       </c>
       <c r="AH209" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AI209" t="s">
         <v>493</v>
@@ -30269,7 +30266,7 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C210" t="s">
         <v>442</v>
@@ -30335,16 +30332,16 @@
         <v>16</v>
       </c>
       <c r="Z210" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AA210" t="s">
         <v>1223</v>
       </c>
-      <c r="AA210" t="s">
+      <c r="AB210" t="s">
         <v>1224</v>
       </c>
-      <c r="AB210" t="s">
-        <v>1225</v>
-      </c>
       <c r="AC210" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AD210" s="3" t="s">
         <v>159</v>
@@ -30356,10 +30353,10 @@
         <v>267</v>
       </c>
       <c r="AG210" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AH210" t="s">
         <v>1226</v>
-      </c>
-      <c r="AH210" t="s">
-        <v>1227</v>
       </c>
       <c r="AI210" t="s">
         <v>270</v>
@@ -30388,7 +30385,7 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C211" t="s">
         <v>442</v>
@@ -30421,7 +30418,7 @@
         <v>10</v>
       </c>
       <c r="M211" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N211" t="s">
         <v>5</v>
@@ -30457,16 +30454,16 @@
         <v>16</v>
       </c>
       <c r="Z211" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AA211" t="s">
         <v>1229</v>
-      </c>
-      <c r="AA211" t="s">
-        <v>1230</v>
       </c>
       <c r="AB211" t="s">
         <v>791</v>
       </c>
       <c r="AC211" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AD211" s="3" t="s">
         <v>372</v>
@@ -30481,7 +30478,7 @@
         <v>378</v>
       </c>
       <c r="AH211" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AI211" t="s">
         <v>270</v>
@@ -30510,7 +30507,7 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C212" t="s">
         <v>442</v>
@@ -30537,7 +30534,7 @@
         <v>8</v>
       </c>
       <c r="K212" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L212" t="s">
         <v>3</v>
@@ -30579,16 +30576,16 @@
         <v>16</v>
       </c>
       <c r="Z212" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AA212" t="s">
         <v>1233</v>
       </c>
-      <c r="AA212" t="s">
+      <c r="AB212" t="s">
         <v>1234</v>
       </c>
-      <c r="AB212" t="s">
-        <v>1235</v>
-      </c>
       <c r="AC212" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AD212" s="3" t="s">
         <v>124</v>
@@ -30603,7 +30600,7 @@
         <v>611</v>
       </c>
       <c r="AH212" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AI212" t="s">
         <v>270</v>
@@ -30632,7 +30629,7 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C213" t="s">
         <v>442</v>
@@ -30641,7 +30638,7 @@
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F213" t="s">
         <v>5</v>
@@ -30680,16 +30677,16 @@
         <v>16</v>
       </c>
       <c r="Z213" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AA213" t="s">
         <v>1239</v>
       </c>
-      <c r="AA213" t="s">
+      <c r="AB213" t="s">
         <v>1240</v>
       </c>
-      <c r="AB213" t="s">
-        <v>1241</v>
-      </c>
       <c r="AC213" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD213" s="3">
         <v>0</v>
@@ -30733,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C214" t="s">
         <v>442</v>
@@ -30742,7 +30739,7 @@
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F214" t="s">
         <v>5</v>
@@ -30775,22 +30772,22 @@
         <v>3</v>
       </c>
       <c r="X214" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y214" t="s">
         <v>16</v>
       </c>
       <c r="Z214" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AA214" t="s">
         <v>1245</v>
-      </c>
-      <c r="AA214" t="s">
-        <v>1246</v>
       </c>
       <c r="AB214" t="s">
         <v>1016</v>
       </c>
       <c r="AC214" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD214" s="3">
         <v>0</v>
@@ -30834,7 +30831,7 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C215" t="s">
         <v>442</v>
@@ -30843,7 +30840,7 @@
         <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F215" t="s">
         <v>5</v>
@@ -30882,16 +30879,16 @@
         <v>16</v>
       </c>
       <c r="Z215" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AA215" t="s">
         <v>537</v>
       </c>
       <c r="AB215" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AC215" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD215" s="3">
         <v>0</v>
@@ -30935,7 +30932,7 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C216" t="s">
         <v>442</v>
@@ -30944,7 +30941,7 @@
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F216" t="s">
         <v>5</v>
@@ -30983,16 +30980,16 @@
         <v>16</v>
       </c>
       <c r="Z216" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AA216" t="s">
         <v>1253</v>
-      </c>
-      <c r="AA216" t="s">
-        <v>1254</v>
       </c>
       <c r="AB216" t="s">
         <v>90</v>
       </c>
       <c r="AC216" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD216" s="3">
         <v>0</v>
@@ -31036,7 +31033,7 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C217" t="s">
         <v>442</v>
@@ -31045,7 +31042,7 @@
         <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F217" t="s">
         <v>5</v>
@@ -31084,16 +31081,16 @@
         <v>16</v>
       </c>
       <c r="Z217" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AA217" t="s">
         <v>1257</v>
       </c>
-      <c r="AA217" t="s">
+      <c r="AB217" t="s">
         <v>1258</v>
       </c>
-      <c r="AB217" t="s">
-        <v>1259</v>
-      </c>
       <c r="AC217" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD217" s="3">
         <v>0</v>
@@ -31137,7 +31134,7 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C218" t="s">
         <v>442</v>
@@ -31185,16 +31182,16 @@
         <v>16</v>
       </c>
       <c r="Z218" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AA218" t="s">
         <v>1261</v>
       </c>
-      <c r="AA218" t="s">
+      <c r="AB218" t="s">
         <v>1262</v>
       </c>
-      <c r="AB218" t="s">
-        <v>1263</v>
-      </c>
       <c r="AC218" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AD218" s="3">
         <v>0</v>
@@ -31238,7 +31235,7 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C219" t="s">
         <v>442</v>
@@ -31280,16 +31277,16 @@
         <v>16</v>
       </c>
       <c r="Z219" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AA219" t="s">
         <v>1265</v>
-      </c>
-      <c r="AA219" t="s">
-        <v>1266</v>
       </c>
       <c r="AB219" t="s">
         <v>1052</v>
       </c>
       <c r="AC219" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD219" s="3">
         <v>0</v>
@@ -31333,7 +31330,7 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C220" t="s">
         <v>442</v>
@@ -31375,16 +31372,16 @@
         <v>16</v>
       </c>
       <c r="Z220" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AA220" t="s">
         <v>1268</v>
       </c>
-      <c r="AA220" t="s">
+      <c r="AB220" t="s">
         <v>1269</v>
       </c>
-      <c r="AB220" t="s">
-        <v>1270</v>
-      </c>
       <c r="AC220" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD220" s="3">
         <v>0</v>
@@ -31428,7 +31425,7 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C221" t="s">
         <v>442</v>
@@ -31470,16 +31467,16 @@
         <v>16</v>
       </c>
       <c r="Z221" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AA221" t="s">
         <v>1272</v>
       </c>
-      <c r="AA221" t="s">
+      <c r="AB221" t="s">
         <v>1273</v>
       </c>
-      <c r="AB221" t="s">
-        <v>1274</v>
-      </c>
       <c r="AC221" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD221" s="3">
         <v>0</v>
@@ -31523,7 +31520,7 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C222" t="s">
         <v>442</v>
@@ -31565,16 +31562,16 @@
         <v>16</v>
       </c>
       <c r="Z222" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AA222" t="s">
         <v>1276</v>
       </c>
-      <c r="AA222" t="s">
+      <c r="AB222" t="s">
         <v>1277</v>
       </c>
-      <c r="AB222" t="s">
-        <v>1278</v>
-      </c>
       <c r="AC222" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD222" s="3">
         <v>0</v>
@@ -31618,7 +31615,7 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C223" t="s">
         <v>442</v>
@@ -31660,16 +31657,16 @@
         <v>16</v>
       </c>
       <c r="Z223" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AA223" t="s">
         <v>1280</v>
-      </c>
-      <c r="AA223" t="s">
-        <v>1281</v>
       </c>
       <c r="AB223" t="s">
         <v>246</v>
       </c>
       <c r="AC223" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD223" s="3">
         <v>0</v>
@@ -31713,7 +31710,7 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C224" t="s">
         <v>442</v>
@@ -31755,16 +31752,16 @@
         <v>16</v>
       </c>
       <c r="Z224" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AA224" t="s">
         <v>1283</v>
       </c>
-      <c r="AA224" t="s">
+      <c r="AB224" t="s">
         <v>1284</v>
       </c>
-      <c r="AB224" t="s">
-        <v>1285</v>
-      </c>
       <c r="AC224" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD224" s="3">
         <v>0</v>
@@ -31808,7 +31805,7 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C225" t="s">
         <v>442</v>
@@ -31850,16 +31847,16 @@
         <v>16</v>
       </c>
       <c r="Z225" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AA225" t="s">
         <v>1287</v>
       </c>
-      <c r="AA225" t="s">
+      <c r="AB225" t="s">
         <v>1288</v>
       </c>
-      <c r="AB225" t="s">
-        <v>1289</v>
-      </c>
       <c r="AC225" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD225" s="3">
         <v>0</v>
@@ -31903,7 +31900,7 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -31939,7 +31936,7 @@
         <v>3</v>
       </c>
       <c r="X226" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y226" t="s">
         <v>16</v>
@@ -31948,13 +31945,13 @@
         <v>815</v>
       </c>
       <c r="AA226" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AB226" t="s">
         <v>71</v>
       </c>
       <c r="AC226" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD226" s="3">
         <v>0</v>
@@ -31998,7 +31995,7 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C227" t="s">
         <v>442</v>
@@ -32034,22 +32031,22 @@
         <v>3</v>
       </c>
       <c r="X227" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y227" t="s">
         <v>16</v>
       </c>
       <c r="Z227" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AA227" t="s">
         <v>1293</v>
       </c>
-      <c r="AA227" t="s">
-        <v>1294</v>
-      </c>
       <c r="AB227" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AC227" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD227" s="3">
         <v>0</v>
@@ -32093,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C228" t="s">
         <v>442</v>
@@ -32135,16 +32132,16 @@
         <v>16</v>
       </c>
       <c r="Z228" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AA228" t="s">
         <v>64</v>
       </c>
       <c r="AB228" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AC228" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD228" s="3">
         <v>0</v>
@@ -32188,7 +32185,7 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C229" t="s">
         <v>442</v>
@@ -32236,10 +32233,10 @@
         <v>797</v>
       </c>
       <c r="AB229" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AC229" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD229" s="3">
         <v>0</v>
@@ -32283,7 +32280,7 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C230" t="s">
         <v>442</v>
@@ -32325,16 +32322,16 @@
         <v>16</v>
       </c>
       <c r="Z230" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AB230" t="s">
         <v>1301</v>
       </c>
-      <c r="AA230" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AB230" t="s">
-        <v>1302</v>
-      </c>
       <c r="AC230" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD230" s="3">
         <v>0</v>
@@ -32378,7 +32375,7 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C231" t="s">
         <v>442</v>
@@ -32420,16 +32417,16 @@
         <v>16</v>
       </c>
       <c r="Z231" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AA231" t="s">
         <v>1304</v>
       </c>
-      <c r="AA231" t="s">
+      <c r="AB231" t="s">
         <v>1305</v>
       </c>
-      <c r="AB231" t="s">
-        <v>1306</v>
-      </c>
       <c r="AC231" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD231" s="3">
         <v>0</v>
@@ -32473,7 +32470,7 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C232" t="s">
         <v>442</v>
@@ -32509,22 +32506,22 @@
         <v>3</v>
       </c>
       <c r="X232" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y232" t="s">
         <v>16</v>
       </c>
       <c r="Z232" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AA232" t="s">
         <v>1308</v>
       </c>
-      <c r="AA232" t="s">
-        <v>1309</v>
-      </c>
       <c r="AB232" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AC232" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD232" s="3">
         <v>0</v>
@@ -32568,7 +32565,7 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C233" t="s">
         <v>442</v>
@@ -32604,22 +32601,22 @@
         <v>3</v>
       </c>
       <c r="X233" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y233" t="s">
         <v>16</v>
       </c>
       <c r="Z233" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AA233" t="s">
         <v>1311</v>
       </c>
-      <c r="AA233" t="s">
+      <c r="AB233" t="s">
         <v>1312</v>
       </c>
-      <c r="AB233" t="s">
-        <v>1313</v>
-      </c>
       <c r="AC233" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD233" s="3">
         <v>0</v>
@@ -32663,7 +32660,7 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C234" t="s">
         <v>442</v>
@@ -32699,7 +32696,7 @@
         <v>3</v>
       </c>
       <c r="X234" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y234" t="s">
         <v>16</v>
@@ -32708,13 +32705,13 @@
         <v>615</v>
       </c>
       <c r="AA234" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AB234" t="s">
         <v>372</v>
       </c>
       <c r="AC234" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD234" s="3">
         <v>0</v>
@@ -32758,7 +32755,7 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C235" t="s">
         <v>442</v>
@@ -32800,16 +32797,16 @@
         <v>16</v>
       </c>
       <c r="Z235" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AA235" t="s">
         <v>91</v>
       </c>
       <c r="AB235" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AC235" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD235" s="3">
         <v>0</v>
@@ -32853,7 +32850,7 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C236" t="s">
         <v>442</v>
@@ -32889,22 +32886,22 @@
         <v>3</v>
       </c>
       <c r="X236" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y236" t="s">
         <v>16</v>
       </c>
       <c r="Z236" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AA236" t="s">
         <v>1320</v>
       </c>
-      <c r="AA236" t="s">
-        <v>1321</v>
-      </c>
       <c r="AB236" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AC236" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD236" s="3">
         <v>0</v>
@@ -32948,7 +32945,7 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C237" t="s">
         <v>442</v>
@@ -32990,16 +32987,16 @@
         <v>16</v>
       </c>
       <c r="Z237" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AA237" t="s">
         <v>1323</v>
-      </c>
-      <c r="AA237" t="s">
-        <v>1324</v>
       </c>
       <c r="AB237" t="s">
         <v>844</v>
       </c>
       <c r="AC237" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD237" s="3">
         <v>0</v>
@@ -33043,7 +33040,7 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C238" t="s">
         <v>442</v>
@@ -33085,16 +33082,16 @@
         <v>16</v>
       </c>
       <c r="Z238" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AA238" t="s">
         <v>113</v>
       </c>
       <c r="AB238" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AC238" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD238" s="3">
         <v>0</v>
@@ -33138,7 +33135,7 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C239" t="s">
         <v>442</v>
@@ -33180,16 +33177,16 @@
         <v>16</v>
       </c>
       <c r="Z239" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="AA239" t="s">
         <v>1010</v>
       </c>
       <c r="AB239" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="AC239" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD239" s="3">
         <v>0</v>
@@ -33233,7 +33230,7 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C240" t="s">
         <v>442</v>
@@ -33275,16 +33272,16 @@
         <v>16</v>
       </c>
       <c r="Z240" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AA240" t="s">
         <v>1332</v>
       </c>
-      <c r="AA240" t="s">
+      <c r="AB240" t="s">
         <v>1333</v>
       </c>
-      <c r="AB240" t="s">
-        <v>1334</v>
-      </c>
       <c r="AC240" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AD240" s="3">
         <v>0</v>
@@ -33328,7 +33325,7 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C241" t="s">
         <v>442</v>
@@ -33370,16 +33367,16 @@
         <v>16</v>
       </c>
       <c r="Z241" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="AA241" t="s">
         <v>331</v>
       </c>
       <c r="AB241" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AC241" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD241" s="3">
         <v>0</v>
@@ -33423,7 +33420,7 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C242" t="s">
         <v>442</v>
@@ -33462,22 +33459,22 @@
         <v>3</v>
       </c>
       <c r="X242" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y242" t="s">
         <v>16</v>
       </c>
       <c r="Z242" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AA242" t="s">
         <v>1339</v>
       </c>
-      <c r="AA242" t="s">
+      <c r="AB242" t="s">
         <v>1340</v>
       </c>
-      <c r="AB242" t="s">
-        <v>1341</v>
-      </c>
       <c r="AC242" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD242" s="3">
         <v>0</v>
@@ -33521,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C243" t="s">
         <v>442</v>
@@ -33563,16 +33560,16 @@
         <v>16</v>
       </c>
       <c r="Z243" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AA243" t="s">
         <v>1070</v>
       </c>
       <c r="AB243" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AC243" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD243" s="3">
         <v>0</v>
@@ -33616,7 +33613,7 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C244" t="s">
         <v>442</v>
@@ -33667,7 +33664,7 @@
         <v>278</v>
       </c>
       <c r="AC244" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD244" s="3">
         <v>0</v>
@@ -33711,7 +33708,7 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C245" t="s">
         <v>442</v>
@@ -33747,22 +33744,22 @@
         <v>3</v>
       </c>
       <c r="X245" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y245" t="s">
         <v>16</v>
       </c>
       <c r="Z245" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="AA245" t="s">
         <v>1068</v>
       </c>
       <c r="AB245" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="AC245" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD245" s="3">
         <v>0</v>
@@ -33806,7 +33803,7 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C246" t="s">
         <v>442</v>
@@ -33842,7 +33839,7 @@
         <v>3</v>
       </c>
       <c r="X246" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y246" t="s">
         <v>16</v>
@@ -33851,13 +33848,13 @@
         <v>508</v>
       </c>
       <c r="AA246" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AB246" t="s">
         <v>1350</v>
       </c>
-      <c r="AB246" t="s">
-        <v>1351</v>
-      </c>
       <c r="AC246" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD246" s="3">
         <v>0</v>
@@ -33901,7 +33898,7 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C247" t="s">
         <v>442</v>
@@ -33943,22 +33940,22 @@
         <v>3</v>
       </c>
       <c r="X247" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y247" t="s">
         <v>39</v>
       </c>
       <c r="Z247" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AA247" t="s">
         <v>1353</v>
       </c>
-      <c r="AA247" t="s">
+      <c r="AB247" t="s">
         <v>1354</v>
       </c>
-      <c r="AB247" t="s">
-        <v>1355</v>
-      </c>
       <c r="AC247" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD247" s="3">
         <v>0</v>
@@ -34002,7 +33999,7 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C248" t="s">
         <v>442</v>
@@ -34011,7 +34008,7 @@
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F248" t="s">
         <v>5</v>
@@ -34044,22 +34041,22 @@
         <v>3</v>
       </c>
       <c r="X248" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y248" t="s">
         <v>39</v>
       </c>
       <c r="Z248" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA248" t="s">
         <v>1358</v>
       </c>
-      <c r="AA248" t="s">
+      <c r="AB248" t="s">
         <v>1359</v>
       </c>
-      <c r="AB248" t="s">
-        <v>1360</v>
-      </c>
       <c r="AC248" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD248" s="3">
         <v>0</v>
@@ -34103,7 +34100,7 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C249" t="s">
         <v>442</v>
@@ -34145,22 +34142,22 @@
         <v>3</v>
       </c>
       <c r="X249" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y249" t="s">
         <v>39</v>
       </c>
       <c r="Z249" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AA249" t="s">
         <v>1362</v>
       </c>
-      <c r="AA249" t="s">
+      <c r="AB249" t="s">
         <v>1363</v>
       </c>
-      <c r="AB249" t="s">
-        <v>1364</v>
-      </c>
       <c r="AC249" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD249" s="3">
         <v>0</v>
@@ -34204,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C250" t="s">
         <v>442</v>
@@ -34213,7 +34210,7 @@
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F250" t="s">
         <v>12</v>
@@ -34249,16 +34246,16 @@
         <v>39</v>
       </c>
       <c r="Z250" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AA250" t="s">
         <v>1367</v>
       </c>
-      <c r="AA250" t="s">
+      <c r="AB250" t="s">
         <v>1368</v>
       </c>
-      <c r="AB250" t="s">
-        <v>1369</v>
-      </c>
       <c r="AC250" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD250" s="3">
         <v>0</v>
@@ -34302,7 +34299,7 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C251" t="s">
         <v>442</v>
@@ -34311,7 +34308,7 @@
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F251" t="s">
         <v>5</v>
@@ -34344,22 +34341,22 @@
         <v>3</v>
       </c>
       <c r="X251" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y251" t="s">
         <v>39</v>
       </c>
       <c r="Z251" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AA251" t="s">
         <v>1372</v>
       </c>
-      <c r="AA251" t="s">
+      <c r="AB251" t="s">
         <v>1373</v>
       </c>
-      <c r="AB251" t="s">
-        <v>1374</v>
-      </c>
       <c r="AC251" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD251" s="3">
         <v>0</v>
@@ -34406,7 +34403,7 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C252" t="s">
         <v>442</v>
@@ -34415,7 +34412,7 @@
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F252" t="s">
         <v>5</v>
@@ -34454,16 +34451,16 @@
         <v>39</v>
       </c>
       <c r="Z252" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AB252" t="s">
         <v>1377</v>
       </c>
-      <c r="AA252" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AB252" t="s">
-        <v>1378</v>
-      </c>
       <c r="AC252" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD252" s="3">
         <v>0</v>
@@ -34507,7 +34504,7 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C253" t="s">
         <v>442</v>
@@ -34516,7 +34513,7 @@
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F253" t="s">
         <v>5</v>
@@ -34555,16 +34552,16 @@
         <v>39</v>
       </c>
       <c r="Z253" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AA253" t="s">
         <v>1381</v>
-      </c>
-      <c r="AA253" t="s">
-        <v>1382</v>
       </c>
       <c r="AB253" t="s">
         <v>574</v>
       </c>
       <c r="AC253" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD253" s="3">
         <v>0</v>
@@ -34608,7 +34605,7 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C254" t="s">
         <v>442</v>
@@ -34617,7 +34614,7 @@
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F254" t="s">
         <v>5</v>
@@ -34656,16 +34653,16 @@
         <v>39</v>
       </c>
       <c r="Z254" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AA254" t="s">
         <v>1385</v>
       </c>
-      <c r="AA254" t="s">
+      <c r="AB254" t="s">
         <v>1386</v>
       </c>
-      <c r="AB254" t="s">
-        <v>1387</v>
-      </c>
       <c r="AC254" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD254" s="3">
         <v>0</v>
@@ -34709,7 +34706,7 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C255" t="s">
         <v>442</v>
@@ -34718,7 +34715,7 @@
         <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F255" t="s">
         <v>5</v>
@@ -34757,16 +34754,16 @@
         <v>39</v>
       </c>
       <c r="Z255" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AA255" t="s">
         <v>827</v>
       </c>
       <c r="AB255" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="AC255" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD255" s="3">
         <v>0</v>
@@ -34810,7 +34807,7 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C256" t="s">
         <v>442</v>
@@ -34819,7 +34816,7 @@
         <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F256" t="s">
         <v>5</v>
@@ -34852,22 +34849,22 @@
         <v>3</v>
       </c>
       <c r="X256" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y256" t="s">
         <v>39</v>
       </c>
       <c r="Z256" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AA256" t="s">
         <v>1394</v>
       </c>
-      <c r="AA256" t="s">
+      <c r="AB256" t="s">
         <v>1395</v>
       </c>
-      <c r="AB256" t="s">
-        <v>1396</v>
-      </c>
       <c r="AC256" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD256" s="3">
         <v>0</v>
@@ -34911,7 +34908,7 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C257" t="s">
         <v>442</v>
@@ -34953,22 +34950,22 @@
         <v>3</v>
       </c>
       <c r="X257" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y257" t="s">
         <v>39</v>
       </c>
       <c r="Z257" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AA257" t="s">
         <v>1398</v>
-      </c>
-      <c r="AA257" t="s">
-        <v>1399</v>
       </c>
       <c r="AB257" t="s">
         <v>141</v>
       </c>
       <c r="AC257" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD257" s="3">
         <v>0</v>
@@ -35012,7 +35009,7 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C258" t="s">
         <v>442</v>
@@ -35021,7 +35018,7 @@
         <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F258" t="s">
         <v>5</v>
@@ -35063,13 +35060,13 @@
         <v>931</v>
       </c>
       <c r="AA258" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AB258" t="s">
         <v>1402</v>
       </c>
-      <c r="AB258" t="s">
-        <v>1403</v>
-      </c>
       <c r="AC258" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD258" s="3">
         <v>0</v>
@@ -35116,7 +35113,7 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C259" t="s">
         <v>442</v>
@@ -35158,22 +35155,22 @@
         <v>3</v>
       </c>
       <c r="X259" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y259" t="s">
         <v>39</v>
       </c>
       <c r="Z259" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AA259" t="s">
         <v>1405</v>
       </c>
-      <c r="AA259" t="s">
+      <c r="AB259" t="s">
         <v>1406</v>
       </c>
-      <c r="AB259" t="s">
-        <v>1407</v>
-      </c>
       <c r="AC259" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD259" s="3">
         <v>0</v>
@@ -35217,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C260" t="s">
         <v>442</v>
@@ -35226,7 +35223,7 @@
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F260" t="s">
         <v>5</v>
@@ -35265,16 +35262,16 @@
         <v>39</v>
       </c>
       <c r="Z260" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AA260" t="s">
         <v>1410</v>
       </c>
-      <c r="AA260" t="s">
+      <c r="AB260" t="s">
         <v>1411</v>
       </c>
-      <c r="AB260" t="s">
-        <v>1412</v>
-      </c>
       <c r="AC260" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD260" s="3">
         <v>0</v>
@@ -35318,7 +35315,7 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C261" t="s">
         <v>442</v>
@@ -35327,7 +35324,7 @@
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F261" t="s">
         <v>5</v>
@@ -35366,16 +35363,16 @@
         <v>39</v>
       </c>
       <c r="Z261" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AA261" t="s">
         <v>1415</v>
       </c>
-      <c r="AA261" t="s">
+      <c r="AB261" t="s">
         <v>1416</v>
       </c>
-      <c r="AB261" t="s">
-        <v>1417</v>
-      </c>
       <c r="AC261" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="AD261" s="3">
         <v>0</v>
@@ -35419,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C262" t="s">
         <v>442</v>
@@ -35428,7 +35425,7 @@
         <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F262" t="s">
         <v>5</v>
@@ -35467,16 +35464,16 @@
         <v>39</v>
       </c>
       <c r="Z262" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="AA262" t="s">
         <v>313</v>
       </c>
       <c r="AB262" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="AC262" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD262" s="3">
         <v>0</v>
@@ -35520,7 +35517,7 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C263" t="s">
         <v>442</v>
@@ -35529,7 +35526,7 @@
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F263" t="s">
         <v>5</v>
@@ -35568,16 +35565,16 @@
         <v>39</v>
       </c>
       <c r="Z263" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AA263" t="s">
         <v>874</v>
       </c>
       <c r="AB263" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="AC263" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD263" s="3">
         <v>0</v>
@@ -35621,7 +35618,7 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C264" t="s">
         <v>442</v>
@@ -35663,16 +35660,16 @@
         <v>39</v>
       </c>
       <c r="Z264" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AA264" t="s">
         <v>1426</v>
       </c>
-      <c r="AA264" t="s">
+      <c r="AB264" t="s">
         <v>1427</v>
       </c>
-      <c r="AB264" t="s">
-        <v>1428</v>
-      </c>
       <c r="AC264" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD264" s="3">
         <v>0</v>
@@ -35716,7 +35713,7 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C265" t="s">
         <v>442</v>
@@ -35752,22 +35749,22 @@
         <v>3</v>
       </c>
       <c r="X265" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y265" t="s">
         <v>39</v>
       </c>
       <c r="Z265" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="AA265" t="s">
         <v>77</v>
       </c>
       <c r="AB265" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="AC265" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AD265" s="3">
         <v>0</v>
@@ -35811,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C266" t="s">
         <v>442</v>
@@ -35853,16 +35850,16 @@
         <v>39</v>
       </c>
       <c r="Z266" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AA266" t="s">
         <v>671</v>
       </c>
       <c r="AB266" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC266" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD266" s="3">
         <v>0</v>
@@ -35906,7 +35903,7 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C267" t="s">
         <v>442</v>
@@ -35948,16 +35945,16 @@
         <v>39</v>
       </c>
       <c r="Z267" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AB267" t="s">
         <v>1436</v>
       </c>
-      <c r="AA267" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AB267" t="s">
-        <v>1437</v>
-      </c>
       <c r="AC267" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD267" s="3">
         <v>0</v>
@@ -36001,7 +35998,7 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C268" t="s">
         <v>442</v>
@@ -36043,16 +36040,16 @@
         <v>39</v>
       </c>
       <c r="Z268" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AA268" t="s">
         <v>757</v>
       </c>
       <c r="AB268" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="AC268" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD268" s="3">
         <v>0</v>
@@ -36096,7 +36093,7 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C269" t="s">
         <v>442</v>
@@ -36144,16 +36141,16 @@
         <v>39</v>
       </c>
       <c r="Z269" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AA269" t="s">
         <v>1442</v>
       </c>
-      <c r="AA269" t="s">
+      <c r="AB269" t="s">
         <v>1443</v>
       </c>
-      <c r="AB269" t="s">
-        <v>1444</v>
-      </c>
       <c r="AC269" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD269" s="3">
         <v>0</v>
@@ -36197,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C270" t="s">
         <v>442</v>
@@ -36239,16 +36236,16 @@
         <v>39</v>
       </c>
       <c r="Z270" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="AA270">
         <v>7</v>
       </c>
       <c r="AB270" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AC270" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD270" s="3">
         <v>0</v>
@@ -36292,7 +36289,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C271" t="s">
         <v>442</v>
@@ -36334,16 +36331,16 @@
         <v>39</v>
       </c>
       <c r="Z271" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="AA271" t="s">
         <v>477</v>
       </c>
       <c r="AB271" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="AC271" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD271" s="3">
         <v>0</v>
@@ -36387,7 +36384,7 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C272" t="s">
         <v>442</v>
@@ -36429,16 +36426,16 @@
         <v>39</v>
       </c>
       <c r="Z272" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AA272" t="s">
         <v>829</v>
       </c>
       <c r="AB272" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AC272" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD272" s="3">
         <v>0</v>
@@ -36482,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C273" t="s">
         <v>442</v>
@@ -36524,16 +36521,16 @@
         <v>39</v>
       </c>
       <c r="Z273" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="AA273" t="s">
         <v>666</v>
       </c>
       <c r="AB273" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="AC273" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD273" s="3">
         <v>0</v>
@@ -36577,7 +36574,7 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C274" t="s">
         <v>442</v>
@@ -36619,16 +36616,16 @@
         <v>39</v>
       </c>
       <c r="Z274" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AA274" t="s">
         <v>268</v>
       </c>
       <c r="AB274" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AC274" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD274" s="3">
         <v>0</v>
@@ -36672,7 +36669,7 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C275" t="s">
         <v>442</v>
@@ -36714,16 +36711,16 @@
         <v>39</v>
       </c>
       <c r="Z275" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AA275" t="s">
         <v>1461</v>
       </c>
-      <c r="AA275" t="s">
+      <c r="AB275" t="s">
         <v>1462</v>
       </c>
-      <c r="AB275" t="s">
-        <v>1463</v>
-      </c>
       <c r="AC275" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD275" s="3">
         <v>0</v>
@@ -36767,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C276" t="s">
         <v>442</v>
@@ -36809,16 +36806,16 @@
         <v>39</v>
       </c>
       <c r="Z276" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AA276" t="s">
         <v>1465</v>
       </c>
-      <c r="AA276" t="s">
+      <c r="AB276" t="s">
         <v>1466</v>
       </c>
-      <c r="AB276" t="s">
-        <v>1467</v>
-      </c>
       <c r="AC276" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD276" s="3">
         <v>0</v>
@@ -36862,7 +36859,7 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C277" t="s">
         <v>442</v>
@@ -36904,16 +36901,16 @@
         <v>39</v>
       </c>
       <c r="Z277" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AA277" t="s">
         <v>1469</v>
       </c>
-      <c r="AA277" t="s">
-        <v>1470</v>
-      </c>
       <c r="AB277" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AC277" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD277" s="3">
         <v>0</v>
@@ -36957,7 +36954,7 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C278" t="s">
         <v>442</v>
@@ -36993,22 +36990,22 @@
         <v>3</v>
       </c>
       <c r="X278" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y278" t="s">
         <v>39</v>
       </c>
       <c r="Z278" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AA278" t="s">
         <v>1472</v>
       </c>
-      <c r="AA278" t="s">
+      <c r="AB278" t="s">
         <v>1473</v>
       </c>
-      <c r="AB278" t="s">
-        <v>1474</v>
-      </c>
       <c r="AC278" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD278" s="3">
         <v>0</v>
@@ -37052,7 +37049,7 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C279" t="s">
         <v>442</v>
@@ -37097,13 +37094,13 @@
         <v>35</v>
       </c>
       <c r="AA279" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="AB279" t="s">
         <v>895</v>
       </c>
       <c r="AC279" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD279" s="3">
         <v>0</v>
@@ -37147,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C280" t="s">
         <v>442</v>
@@ -37189,16 +37186,16 @@
         <v>39</v>
       </c>
       <c r="Z280" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AA280" t="s">
         <v>1478</v>
-      </c>
-      <c r="AA280" t="s">
-        <v>1479</v>
       </c>
       <c r="AB280" t="s">
         <v>213</v>
       </c>
       <c r="AC280" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AD280" s="3">
         <v>0</v>
@@ -37242,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C281" t="s">
         <v>442</v>
@@ -37251,7 +37248,7 @@
         <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F281" t="s">
         <v>444</v>
@@ -37287,16 +37284,16 @@
         <v>39</v>
       </c>
       <c r="Z281" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AA281" t="s">
         <v>1481</v>
       </c>
-      <c r="AA281" t="s">
+      <c r="AB281" t="s">
         <v>1482</v>
       </c>
-      <c r="AB281" t="s">
-        <v>1483</v>
-      </c>
       <c r="AC281" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD281" s="3">
         <v>0</v>
@@ -37340,7 +37337,7 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C282" t="s">
         <v>442</v>
@@ -37361,7 +37358,7 @@
         <v>26</v>
       </c>
       <c r="J282" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K282" t="s">
         <v>9</v>
@@ -37400,16 +37397,16 @@
         <v>39</v>
       </c>
       <c r="Z282" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AA282" t="s">
         <v>1485</v>
       </c>
-      <c r="AA282" t="s">
-        <v>1486</v>
-      </c>
       <c r="AB282" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="AC282" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AD282" s="3" t="s">
         <v>319</v>
@@ -37453,7 +37450,7 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C283" t="s">
         <v>442</v>
@@ -37501,10 +37498,10 @@
         <v>672</v>
       </c>
       <c r="AB283" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AC283" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD283" s="3">
         <v>0</v>
@@ -37548,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C284" t="s">
         <v>442</v>
@@ -37590,16 +37587,16 @@
         <v>39</v>
       </c>
       <c r="Z284" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AA284" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AB284" t="s">
         <v>1490</v>
       </c>
-      <c r="AB284" t="s">
-        <v>1491</v>
-      </c>
       <c r="AC284" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD284" s="3">
         <v>0</v>
@@ -37643,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C285" t="s">
         <v>442</v>
@@ -37685,16 +37682,16 @@
         <v>39</v>
       </c>
       <c r="Z285" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AA285" t="s">
         <v>1493</v>
       </c>
-      <c r="AA285" t="s">
+      <c r="AB285" t="s">
         <v>1494</v>
       </c>
-      <c r="AB285" t="s">
-        <v>1495</v>
-      </c>
       <c r="AC285" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD285" s="3">
         <v>0</v>
@@ -37738,7 +37735,7 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C286" t="s">
         <v>442</v>
@@ -37780,16 +37777,16 @@
         <v>39</v>
       </c>
       <c r="Z286" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AA286" t="s">
         <v>900</v>
       </c>
       <c r="AB286" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AC286" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD286" s="3">
         <v>0</v>
@@ -37833,7 +37830,7 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C287" t="s">
         <v>442</v>
@@ -37875,16 +37872,16 @@
         <v>39</v>
       </c>
       <c r="Z287" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AA287" t="s">
         <v>1500</v>
       </c>
-      <c r="AA287" t="s">
+      <c r="AB287" t="s">
         <v>1501</v>
       </c>
-      <c r="AB287" t="s">
-        <v>1502</v>
-      </c>
       <c r="AC287" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD287" s="3">
         <v>0</v>
@@ -37928,7 +37925,7 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C288" t="s">
         <v>442</v>
@@ -37970,16 +37967,16 @@
         <v>39</v>
       </c>
       <c r="Z288" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AA288" t="s">
         <v>1504</v>
       </c>
-      <c r="AA288" t="s">
+      <c r="AB288" t="s">
         <v>1505</v>
       </c>
-      <c r="AB288" t="s">
-        <v>1506</v>
-      </c>
       <c r="AC288" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD288" s="3">
         <v>0</v>
@@ -38023,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C289" t="s">
         <v>442</v>
@@ -38059,22 +38056,22 @@
         <v>3</v>
       </c>
       <c r="X289" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y289" t="s">
         <v>39</v>
       </c>
       <c r="Z289" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AA289" t="s">
         <v>1508</v>
       </c>
-      <c r="AA289" t="s">
+      <c r="AB289" t="s">
         <v>1509</v>
       </c>
-      <c r="AB289" t="s">
-        <v>1510</v>
-      </c>
       <c r="AC289" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AD289" s="3">
         <v>0</v>
@@ -38118,7 +38115,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C290" t="s">
         <v>442</v>
@@ -38160,16 +38157,16 @@
         <v>39</v>
       </c>
       <c r="Z290" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AA290" t="s">
         <v>1512</v>
       </c>
-      <c r="AA290" t="s">
+      <c r="AB290" t="s">
         <v>1513</v>
       </c>
-      <c r="AB290" t="s">
-        <v>1514</v>
-      </c>
       <c r="AC290" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD290" s="3">
         <v>0</v>
@@ -38213,7 +38210,7 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C291" t="s">
         <v>442</v>
@@ -38255,16 +38252,16 @@
         <v>39</v>
       </c>
       <c r="Z291" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="AA291" t="s">
         <v>20</v>
       </c>
       <c r="AB291" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="AC291" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD291" s="3">
         <v>0</v>
@@ -38308,7 +38305,7 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C292" t="s">
         <v>442</v>
@@ -38350,16 +38347,16 @@
         <v>39</v>
       </c>
       <c r="Z292" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="AA292" t="s">
         <v>627</v>
       </c>
       <c r="AB292" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="AC292" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD292" s="3">
         <v>0</v>
@@ -38403,7 +38400,7 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C293" t="s">
         <v>442</v>
@@ -38445,16 +38442,16 @@
         <v>39</v>
       </c>
       <c r="Z293" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AA293" t="s">
         <v>1522</v>
       </c>
-      <c r="AA293" t="s">
+      <c r="AB293" t="s">
         <v>1523</v>
       </c>
-      <c r="AB293" t="s">
-        <v>1524</v>
-      </c>
       <c r="AC293" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD293" s="3">
         <v>0</v>
@@ -38498,7 +38495,7 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C294" t="s">
         <v>442</v>
@@ -38540,16 +38537,16 @@
         <v>39</v>
       </c>
       <c r="Z294" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AA294" t="s">
         <v>1526</v>
       </c>
-      <c r="AA294" t="s">
+      <c r="AB294" t="s">
         <v>1527</v>
       </c>
-      <c r="AB294" t="s">
-        <v>1528</v>
-      </c>
       <c r="AC294" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD294" s="3">
         <v>0</v>
@@ -38593,7 +38590,7 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C295" t="s">
         <v>442</v>
@@ -38635,16 +38632,16 @@
         <v>39</v>
       </c>
       <c r="Z295" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AA295" t="s">
         <v>1530</v>
       </c>
-      <c r="AA295" t="s">
+      <c r="AB295" t="s">
         <v>1531</v>
       </c>
-      <c r="AB295" t="s">
-        <v>1532</v>
-      </c>
       <c r="AC295" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD295" s="3">
         <v>0</v>
@@ -38688,7 +38685,7 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C296" t="s">
         <v>442</v>
@@ -38733,13 +38730,13 @@
         <v>385</v>
       </c>
       <c r="AA296" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AB296" t="s">
         <v>1534</v>
       </c>
-      <c r="AB296" t="s">
-        <v>1535</v>
-      </c>
       <c r="AC296" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD296" s="3">
         <v>0</v>
@@ -38783,7 +38780,7 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C297" t="s">
         <v>442</v>
@@ -38825,16 +38822,16 @@
         <v>39</v>
       </c>
       <c r="Z297" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AA297" t="s">
         <v>1537</v>
       </c>
-      <c r="AA297" t="s">
+      <c r="AB297" t="s">
         <v>1538</v>
       </c>
-      <c r="AB297" t="s">
-        <v>1539</v>
-      </c>
       <c r="AC297" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD297" s="3">
         <v>0</v>
@@ -38878,7 +38875,7 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C298" t="s">
         <v>442</v>
@@ -38920,16 +38917,16 @@
         <v>39</v>
       </c>
       <c r="Z298" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AA298" t="s">
         <v>1541</v>
-      </c>
-      <c r="AA298" t="s">
-        <v>1542</v>
       </c>
       <c r="AB298" t="s">
         <v>595</v>
       </c>
       <c r="AC298" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD298" s="3">
         <v>0</v>
@@ -38973,7 +38970,7 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C299" t="s">
         <v>442</v>
@@ -39015,16 +39012,16 @@
         <v>39</v>
       </c>
       <c r="Z299" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AA299" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AB299" t="s">
         <v>1544</v>
       </c>
-      <c r="AB299" t="s">
-        <v>1545</v>
-      </c>
       <c r="AC299" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD299" s="3">
         <v>0</v>
@@ -39068,7 +39065,7 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C300" t="s">
         <v>442</v>
@@ -39110,16 +39107,16 @@
         <v>39</v>
       </c>
       <c r="Z300" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AA300" t="s">
         <v>1547</v>
-      </c>
-      <c r="AA300" t="s">
-        <v>1548</v>
       </c>
       <c r="AB300" t="s">
         <v>108</v>
       </c>
       <c r="AC300" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD300" s="3">
         <v>0</v>
@@ -39163,7 +39160,7 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C301" t="s">
         <v>442</v>
@@ -39205,7 +39202,7 @@
         <v>39</v>
       </c>
       <c r="Z301" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="AA301" t="s">
         <v>419</v>
@@ -39214,7 +39211,7 @@
         <v>895</v>
       </c>
       <c r="AC301" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD301" s="3">
         <v>0</v>
@@ -39258,7 +39255,7 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C302" t="s">
         <v>442</v>
@@ -39300,16 +39297,16 @@
         <v>39</v>
       </c>
       <c r="Z302" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AA302" t="s">
         <v>1552</v>
       </c>
-      <c r="AA302" t="s">
+      <c r="AB302" t="s">
         <v>1553</v>
       </c>
-      <c r="AB302" t="s">
-        <v>1554</v>
-      </c>
       <c r="AC302" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="AD302" s="3">
         <v>0</v>
@@ -39353,7 +39350,7 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C303" t="s">
         <v>442</v>
@@ -39395,16 +39392,16 @@
         <v>39</v>
       </c>
       <c r="Z303" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA303" t="s">
         <v>734</v>
       </c>
       <c r="AB303" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="AC303" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD303" s="3">
         <v>0</v>
@@ -39448,7 +39445,7 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C304" t="s">
         <v>442</v>
@@ -39484,7 +39481,7 @@
         <v>3</v>
       </c>
       <c r="X304" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y304" t="s">
         <v>39</v>
@@ -39496,10 +39493,10 @@
         <v>396</v>
       </c>
       <c r="AB304" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="AC304" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD304" s="3">
         <v>0</v>
@@ -39543,7 +39540,7 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C305" t="s">
         <v>442</v>
@@ -39579,22 +39576,22 @@
         <v>3</v>
       </c>
       <c r="X305" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y305" t="s">
         <v>39</v>
       </c>
       <c r="Z305" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AA305" t="s">
         <v>1560</v>
       </c>
-      <c r="AA305" t="s">
+      <c r="AB305" t="s">
         <v>1561</v>
       </c>
-      <c r="AB305" t="s">
-        <v>1562</v>
-      </c>
       <c r="AC305" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AD305" s="3">
         <v>0</v>
@@ -39638,7 +39635,7 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C306" t="s">
         <v>442</v>
@@ -39680,16 +39677,16 @@
         <v>39</v>
       </c>
       <c r="Z306" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AA306" t="s">
         <v>1564</v>
       </c>
-      <c r="AA306" t="s">
+      <c r="AB306" t="s">
         <v>1565</v>
       </c>
-      <c r="AB306" t="s">
-        <v>1566</v>
-      </c>
       <c r="AC306" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD306" s="3">
         <v>0</v>
@@ -39733,7 +39730,7 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C307" t="s">
         <v>442</v>
@@ -39778,16 +39775,16 @@
         <v>39</v>
       </c>
       <c r="Z307" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AA307" t="s">
         <v>1568</v>
       </c>
-      <c r="AA307" t="s">
+      <c r="AB307" t="s">
         <v>1569</v>
       </c>
-      <c r="AB307" t="s">
-        <v>1570</v>
-      </c>
       <c r="AC307" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AD307" s="3">
         <v>0</v>
@@ -39831,7 +39828,7 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C308" t="s">
         <v>442</v>
@@ -39867,22 +39864,22 @@
         <v>3</v>
       </c>
       <c r="X308" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y308" t="s">
         <v>39</v>
       </c>
       <c r="Z308" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AA308">
         <v>10</v>
       </c>
       <c r="AB308" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="AC308" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD308" s="3">
         <v>0</v>
@@ -39926,7 +39923,7 @@
         <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C309" t="s">
         <v>442</v>
@@ -39968,16 +39965,16 @@
         <v>39</v>
       </c>
       <c r="Z309" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AA309" t="s">
         <v>1575</v>
       </c>
-      <c r="AA309" t="s">
+      <c r="AB309" t="s">
         <v>1576</v>
       </c>
-      <c r="AB309" t="s">
-        <v>1577</v>
-      </c>
       <c r="AC309" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD309" s="3">
         <v>0</v>
@@ -40024,7 +40021,7 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C310" t="s">
         <v>442</v>
@@ -40066,16 +40063,16 @@
         <v>39</v>
       </c>
       <c r="Z310" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="AA310" t="s">
         <v>723</v>
       </c>
       <c r="AB310" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AC310" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD310" s="3">
         <v>0</v>
@@ -40119,7 +40116,7 @@
         <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -40161,16 +40158,16 @@
         <v>39</v>
       </c>
       <c r="Z311" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AB311" t="s">
         <v>1581</v>
       </c>
-      <c r="AA311" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AB311" t="s">
-        <v>1582</v>
-      </c>
       <c r="AC311" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD311" s="3">
         <v>0</v>
@@ -40214,7 +40211,7 @@
         <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C312" t="s">
         <v>442</v>
@@ -40256,7 +40253,7 @@
         <v>39</v>
       </c>
       <c r="Z312" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="AA312" t="s">
         <v>373</v>
@@ -40265,7 +40262,7 @@
         <v>237</v>
       </c>
       <c r="AC312" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AD312" s="3">
         <v>0</v>
@@ -40309,7 +40306,7 @@
         <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C313" t="s">
         <v>442</v>
@@ -40351,13 +40348,13 @@
         <v>39</v>
       </c>
       <c r="Z313" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AA313" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AB313" t="s">
         <v>1586</v>
-      </c>
-      <c r="AB313" t="s">
-        <v>1587</v>
       </c>
       <c r="AC313" t="s">
         <v>12</v>
@@ -40404,7 +40401,7 @@
         <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C314" t="s">
         <v>442</v>
@@ -40428,7 +40425,7 @@
         <v>26</v>
       </c>
       <c r="J314" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K314" t="s">
         <v>9</v>
@@ -40473,16 +40470,16 @@
         <v>39</v>
       </c>
       <c r="Z314" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AB314" t="s">
         <v>1589</v>
       </c>
-      <c r="AA314" t="s">
-        <v>1581</v>
-      </c>
-      <c r="AB314" t="s">
-        <v>1590</v>
-      </c>
       <c r="AC314" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD314" s="3" t="s">
         <v>352</v>
@@ -40526,7 +40523,7 @@
         <v>0</v>
       </c>
       <c r="B315" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C315" t="s">
         <v>442</v>
@@ -40574,10 +40571,10 @@
         <v>671</v>
       </c>
       <c r="AB315" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AC315" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AD315" s="3">
         <v>0</v>
@@ -40621,7 +40618,7 @@
         <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C316" t="s">
         <v>442</v>
@@ -40663,16 +40660,16 @@
         <v>39</v>
       </c>
       <c r="Z316" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AA316" t="s">
         <v>32</v>
       </c>
       <c r="AB316" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AC316" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD316" s="3">
         <v>0</v>
@@ -40716,7 +40713,7 @@
         <v>0</v>
       </c>
       <c r="B317" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C317" t="s">
         <v>442</v>
@@ -40752,22 +40749,22 @@
         <v>3</v>
       </c>
       <c r="X317" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y317" t="s">
         <v>39</v>
       </c>
       <c r="Z317" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="AA317" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AB317" t="s">
         <v>473</v>
       </c>
       <c r="AC317" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AD317" s="3">
         <v>0</v>
@@ -40811,7 +40808,7 @@
         <v>0</v>
       </c>
       <c r="B318" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C318" t="s">
         <v>442</v>
@@ -40856,13 +40853,13 @@
         <v>826</v>
       </c>
       <c r="AA318" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AB318" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AC318" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD318" s="3">
         <v>0</v>
@@ -40906,7 +40903,7 @@
         <v>0</v>
       </c>
       <c r="B319" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C319" t="s">
         <v>442</v>
@@ -40942,22 +40939,22 @@
         <v>3</v>
       </c>
       <c r="X319" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y319" t="s">
         <v>39</v>
       </c>
       <c r="Z319" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AA319" t="s">
         <v>1601</v>
       </c>
-      <c r="AA319" t="s">
+      <c r="AB319" t="s">
         <v>1602</v>
       </c>
-      <c r="AB319" t="s">
-        <v>1603</v>
-      </c>
       <c r="AC319" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AD319" s="3">
         <v>0</v>
@@ -41001,7 +40998,7 @@
         <v>0</v>
       </c>
       <c r="B320" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C320" t="s">
         <v>442</v>
@@ -41037,22 +41034,22 @@
         <v>3</v>
       </c>
       <c r="X320" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y320" t="s">
         <v>39</v>
       </c>
       <c r="Z320" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AA320" t="s">
         <v>1605</v>
       </c>
-      <c r="AA320" t="s">
+      <c r="AB320" t="s">
         <v>1606</v>
       </c>
-      <c r="AB320" t="s">
-        <v>1607</v>
-      </c>
       <c r="AC320" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AD320" s="3">
         <v>0</v>
@@ -41096,7 +41093,7 @@
         <v>0</v>
       </c>
       <c r="B321" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C321" t="s">
         <v>442</v>
@@ -41138,16 +41135,16 @@
         <v>39</v>
       </c>
       <c r="Z321" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AA321" t="s">
         <v>1609</v>
       </c>
-      <c r="AA321" t="s">
+      <c r="AB321" t="s">
         <v>1610</v>
       </c>
-      <c r="AB321" t="s">
-        <v>1611</v>
-      </c>
       <c r="AC321" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD321" s="3">
         <v>0</v>
@@ -41191,7 +41188,7 @@
         <v>0</v>
       </c>
       <c r="B322" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C322" t="s">
         <v>442</v>
@@ -41227,22 +41224,22 @@
         <v>3</v>
       </c>
       <c r="X322" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y322" t="s">
         <v>39</v>
       </c>
       <c r="Z322" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AA322" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AB322" t="s">
         <v>278</v>
       </c>
       <c r="AC322" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD322" s="3">
         <v>0</v>
@@ -41286,7 +41283,7 @@
         <v>0</v>
       </c>
       <c r="B323" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C323" t="s">
         <v>442</v>
@@ -41328,16 +41325,16 @@
         <v>39</v>
       </c>
       <c r="Z323" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AA323" t="s">
         <v>1615</v>
       </c>
-      <c r="AA323" t="s">
+      <c r="AB323" t="s">
         <v>1616</v>
       </c>
-      <c r="AB323" t="s">
-        <v>1617</v>
-      </c>
       <c r="AC323" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD323" s="3">
         <v>0</v>
@@ -41381,7 +41378,7 @@
         <v>0</v>
       </c>
       <c r="B324" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C324" t="s">
         <v>442</v>
@@ -41417,22 +41414,22 @@
         <v>3</v>
       </c>
       <c r="X324" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y324" t="s">
         <v>39</v>
       </c>
       <c r="Z324" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AA324" t="s">
         <v>1619</v>
       </c>
-      <c r="AA324" t="s">
+      <c r="AB324" t="s">
         <v>1620</v>
       </c>
-      <c r="AB324" t="s">
-        <v>1621</v>
-      </c>
       <c r="AC324" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AD324" s="3">
         <v>0</v>
@@ -41476,7 +41473,7 @@
         <v>0</v>
       </c>
       <c r="B325" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C325" t="s">
         <v>442</v>
@@ -41521,13 +41518,13 @@
         <v>839</v>
       </c>
       <c r="AA325" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AB325" t="s">
         <v>1623</v>
       </c>
-      <c r="AB325" t="s">
-        <v>1624</v>
-      </c>
       <c r="AC325" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD325" s="3">
         <v>0</v>
@@ -41571,7 +41568,7 @@
         <v>0</v>
       </c>
       <c r="B326" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C326" t="s">
         <v>442</v>
@@ -41601,7 +41598,7 @@
         <v>10</v>
       </c>
       <c r="M326" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N326" t="s">
         <v>5</v>
@@ -41637,16 +41634,16 @@
         <v>39</v>
       </c>
       <c r="Z326" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AA326" t="s">
         <v>1626</v>
       </c>
-      <c r="AA326" t="s">
+      <c r="AB326" t="s">
         <v>1627</v>
       </c>
-      <c r="AB326" t="s">
-        <v>1628</v>
-      </c>
       <c r="AC326" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AD326" s="3" t="s">
         <v>21</v>
@@ -41661,7 +41658,7 @@
         <v>560</v>
       </c>
       <c r="AH326" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AI326" t="s">
         <v>270</v>
@@ -41693,7 +41690,7 @@
         <v>0</v>
       </c>
       <c r="B327" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C327" t="s">
         <v>442</v>
@@ -41702,7 +41699,7 @@
         <v>3</v>
       </c>
       <c r="E327" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F327" t="s">
         <v>444</v>
@@ -41756,16 +41753,16 @@
         <v>39</v>
       </c>
       <c r="Z327" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AA327" t="s">
         <v>1632</v>
       </c>
-      <c r="AA327" t="s">
+      <c r="AB327" t="s">
         <v>1633</v>
       </c>
-      <c r="AB327" t="s">
-        <v>1634</v>
-      </c>
       <c r="AC327" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AD327" s="3" t="s">
         <v>54</v>
@@ -41780,7 +41777,7 @@
         <v>13</v>
       </c>
       <c r="AH327" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AI327" t="s">
         <v>270</v>
@@ -41812,7 +41809,7 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C328" t="s">
         <v>442</v>
@@ -41878,13 +41875,13 @@
         <v>785</v>
       </c>
       <c r="AA328" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AB328" t="s">
         <v>1637</v>
       </c>
-      <c r="AB328" t="s">
-        <v>1638</v>
-      </c>
       <c r="AC328" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AD328" s="3" t="s">
         <v>53</v>
@@ -41899,7 +41896,7 @@
         <v>358</v>
       </c>
       <c r="AH328" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="AI328" t="s">
         <v>270</v>
@@ -41931,7 +41928,7 @@
         <v>0</v>
       </c>
       <c r="B329" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C329" t="s">
         <v>442</v>
@@ -41964,7 +41961,7 @@
         <v>10</v>
       </c>
       <c r="M329" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N329" t="s">
         <v>5</v>
@@ -42000,16 +41997,16 @@
         <v>39</v>
       </c>
       <c r="Z329" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AA329" t="s">
         <v>1641</v>
       </c>
-      <c r="AA329" t="s">
-        <v>1642</v>
-      </c>
       <c r="AB329" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AC329" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AD329" s="3" t="s">
         <v>124</v>
@@ -42053,7 +42050,7 @@
         <v>0</v>
       </c>
       <c r="B330" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C330" t="s">
         <v>442</v>
@@ -42062,7 +42059,7 @@
         <v>3</v>
       </c>
       <c r="E330" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F330" t="s">
         <v>5</v>
@@ -42107,31 +42104,31 @@
         <v>3</v>
       </c>
       <c r="Z330" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AA330" t="s">
         <v>1645</v>
       </c>
-      <c r="AA330" t="s">
+      <c r="AB330" t="s">
         <v>1646</v>
       </c>
-      <c r="AB330" t="s">
+      <c r="AC330" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AD330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG330" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH330" t="s">
         <v>1647</v>
-      </c>
-      <c r="AC330" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AD330" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE330" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF330" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG330" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH330" t="s">
-        <v>1648</v>
       </c>
       <c r="AI330" t="s">
         <v>270</v>
@@ -42163,7 +42160,7 @@
         <v>0</v>
       </c>
       <c r="B331" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C331" t="s">
         <v>442</v>
@@ -42172,7 +42169,7 @@
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F331" t="s">
         <v>5</v>
@@ -42202,7 +42199,7 @@
         <v>261</v>
       </c>
       <c r="P331" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="R331" t="s">
         <v>5</v>
@@ -42217,16 +42214,16 @@
         <v>3</v>
       </c>
       <c r="Z331" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AA331" t="s">
         <v>1651</v>
       </c>
-      <c r="AA331" t="s">
+      <c r="AB331" t="s">
         <v>1652</v>
       </c>
-      <c r="AB331" t="s">
-        <v>1653</v>
-      </c>
       <c r="AC331" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="AD331" s="3">
         <v>0</v>
@@ -42273,7 +42270,7 @@
         <v>0</v>
       </c>
       <c r="B332" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C332" t="s">
         <v>442</v>
@@ -42306,7 +42303,7 @@
         <v>5</v>
       </c>
       <c r="O332" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="P332" t="s">
         <v>846</v>
@@ -42333,16 +42330,16 @@
         <v>3</v>
       </c>
       <c r="Z332" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AA332" t="s">
         <v>1656</v>
-      </c>
-      <c r="AA332" t="s">
-        <v>1657</v>
       </c>
       <c r="AB332" t="s">
         <v>600</v>
       </c>
       <c r="AC332" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="AD332" s="3">
         <v>0</v>
@@ -42389,7 +42386,7 @@
         <v>0</v>
       </c>
       <c r="B333" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C333" t="s">
         <v>442</v>
@@ -42398,7 +42395,7 @@
         <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F333" t="s">
         <v>5</v>
@@ -42443,16 +42440,16 @@
         <v>3</v>
       </c>
       <c r="Z333" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA333" t="s">
         <v>1660</v>
       </c>
-      <c r="AA333" t="s">
+      <c r="AB333" t="s">
         <v>1661</v>
       </c>
-      <c r="AB333" t="s">
-        <v>1662</v>
-      </c>
       <c r="AC333" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="AD333" s="3">
         <v>0</v>
@@ -42499,7 +42496,7 @@
         <v>0</v>
       </c>
       <c r="B334" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C334" t="s">
         <v>442</v>
@@ -42541,16 +42538,16 @@
         <v>461</v>
       </c>
       <c r="Z334" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AA334" t="s">
         <v>1664</v>
       </c>
-      <c r="AA334" t="s">
-        <v>1665</v>
-      </c>
       <c r="AB334" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="AC334" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="AD334" s="3">
         <v>0</v>
@@ -42594,7 +42591,7 @@
         <v>0</v>
       </c>
       <c r="B335" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C335" t="s">
         <v>442</v>
@@ -42603,7 +42600,7 @@
         <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F335" t="s">
         <v>444</v>
@@ -42633,7 +42630,7 @@
         <v>261</v>
       </c>
       <c r="P335" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q335" t="s">
         <v>208</v>
@@ -42657,16 +42654,16 @@
         <v>3</v>
       </c>
       <c r="Z335" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AA335" t="s">
         <v>1668</v>
-      </c>
-      <c r="AA335" t="s">
-        <v>1669</v>
       </c>
       <c r="AB335" t="s">
         <v>847</v>
       </c>
       <c r="AC335" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AD335" s="3" t="s">
         <v>277</v>
@@ -42710,7 +42707,7 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C336" t="s">
         <v>442</v>
@@ -42719,7 +42716,7 @@
         <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F336" t="s">
         <v>5</v>
@@ -42758,16 +42755,16 @@
         <v>3</v>
       </c>
       <c r="Z336" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="AA336" t="s">
         <v>235</v>
       </c>
       <c r="AB336" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AC336" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AD336" s="3">
         <v>0</v>
@@ -42811,7 +42808,7 @@
         <v>0</v>
       </c>
       <c r="B337" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C337" t="s">
         <v>442</v>
@@ -42820,7 +42817,7 @@
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F337" t="s">
         <v>5</v>
@@ -42868,13 +42865,13 @@
         <v>29</v>
       </c>
       <c r="AA337" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="AB337" t="s">
         <v>926</v>
       </c>
       <c r="AC337" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AD337" s="3" t="s">
         <v>286</v>
@@ -42889,7 +42886,7 @@
         <v>997</v>
       </c>
       <c r="AH337" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AI337" t="s">
         <v>270</v>
@@ -42921,7 +42918,7 @@
         <v>0</v>
       </c>
       <c r="B338" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C338" t="s">
         <v>442</v>
@@ -42966,16 +42963,16 @@
         <v>3</v>
       </c>
       <c r="Z338" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AA338" t="s">
         <v>1678</v>
       </c>
-      <c r="AA338" t="s">
+      <c r="AB338" t="s">
         <v>1679</v>
       </c>
-      <c r="AB338" t="s">
-        <v>1680</v>
-      </c>
       <c r="AC338" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AD338" s="3">
         <v>7</v>
@@ -42990,7 +42987,7 @@
         <v>945</v>
       </c>
       <c r="AH338" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="AI338" t="s">
         <v>270</v>
@@ -43022,7 +43019,7 @@
         <v>0</v>
       </c>
       <c r="B339" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C339" t="s">
         <v>442</v>
@@ -43067,16 +43064,16 @@
         <v>3</v>
       </c>
       <c r="Z339" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AA339" t="s">
         <v>1683</v>
-      </c>
-      <c r="AA339" t="s">
-        <v>1684</v>
       </c>
       <c r="AB339" t="s">
         <v>486</v>
       </c>
       <c r="AC339" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AD339" s="3">
         <v>0</v>
@@ -43120,7 +43117,7 @@
         <v>0</v>
       </c>
       <c r="B340" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C340" t="s">
         <v>442</v>
@@ -43156,7 +43153,7 @@
         <v>261</v>
       </c>
       <c r="P340" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q340" t="s">
         <v>208</v>
@@ -43180,16 +43177,16 @@
         <v>3</v>
       </c>
       <c r="Z340" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AA340" t="s">
         <v>1686</v>
       </c>
-      <c r="AA340" t="s">
+      <c r="AB340" t="s">
         <v>1687</v>
       </c>
-      <c r="AB340" t="s">
-        <v>1688</v>
-      </c>
       <c r="AC340" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="AD340" s="3">
         <v>0</v>
@@ -43233,7 +43230,7 @@
         <v>0</v>
       </c>
       <c r="B341" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C341" t="s">
         <v>442</v>
@@ -43278,16 +43275,16 @@
         <v>3</v>
       </c>
       <c r="Z341" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AB341" t="s">
         <v>1690</v>
       </c>
-      <c r="AA341" t="s">
-        <v>1619</v>
-      </c>
-      <c r="AB341" t="s">
-        <v>1691</v>
-      </c>
       <c r="AC341" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AD341" s="3" t="s">
         <v>152</v>
@@ -43302,7 +43299,7 @@
         <v>805</v>
       </c>
       <c r="AH341" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="AI341" t="s">
         <v>270</v>
@@ -43334,7 +43331,7 @@
         <v>0</v>
       </c>
       <c r="B342" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C342" t="s">
         <v>442</v>
@@ -43385,16 +43382,16 @@
         <v>3</v>
       </c>
       <c r="Z342" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AA342" t="s">
         <v>1694</v>
       </c>
-      <c r="AA342" t="s">
+      <c r="AB342" t="s">
         <v>1695</v>
       </c>
-      <c r="AB342" t="s">
-        <v>1696</v>
-      </c>
       <c r="AC342" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD342" s="3" t="s">
         <v>54</v>
@@ -43409,7 +43406,7 @@
         <v>81</v>
       </c>
       <c r="AH342" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="AI342" t="s">
         <v>493</v>
@@ -43438,7 +43435,7 @@
         <v>0</v>
       </c>
       <c r="B343" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C343" t="s">
         <v>442</v>
@@ -43483,22 +43480,22 @@
         <v>3</v>
       </c>
       <c r="Z343" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AA343" t="s">
         <v>1699</v>
-      </c>
-      <c r="AA343" t="s">
-        <v>1700</v>
       </c>
       <c r="AB343" t="s">
         <v>419</v>
       </c>
       <c r="AC343" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AD343" s="3" t="s">
         <v>386</v>
       </c>
       <c r="AE343" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="AF343" s="3" t="s">
         <v>646</v>
@@ -43507,7 +43504,7 @@
         <v>440</v>
       </c>
       <c r="AH343" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AI343" t="s">
         <v>270</v>
@@ -43536,7 +43533,7 @@
         <v>0</v>
       </c>
       <c r="B344" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C344" t="s">
         <v>442</v>
@@ -43545,7 +43542,7 @@
         <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F344" t="s">
         <v>5</v>
@@ -43554,7 +43551,7 @@
         <v>4</v>
       </c>
       <c r="H344" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I344" t="s">
         <v>26</v>
@@ -43569,7 +43566,7 @@
         <v>3</v>
       </c>
       <c r="M344" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N344" t="s">
         <v>6</v>
@@ -43596,22 +43593,22 @@
         <v>16</v>
       </c>
       <c r="Z344" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AA344" t="s">
         <v>1704</v>
       </c>
-      <c r="AA344" t="s">
+      <c r="AB344" t="s">
         <v>1705</v>
       </c>
-      <c r="AB344" t="s">
-        <v>1706</v>
-      </c>
       <c r="AC344" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AD344" s="3" t="s">
         <v>124</v>
       </c>
       <c r="AE344" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="AF344" s="3" t="s">
         <v>43</v>
@@ -43652,7 +43649,7 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C345" t="s">
         <v>442</v>
@@ -43661,7 +43658,7 @@
         <v>3</v>
       </c>
       <c r="E345" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F345" t="s">
         <v>5</v>
@@ -43670,7 +43667,7 @@
         <v>3</v>
       </c>
       <c r="H345" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I345" t="s">
         <v>26</v>
@@ -43718,16 +43715,16 @@
         <v>3</v>
       </c>
       <c r="Z345" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AA345" t="s">
         <v>1709</v>
       </c>
-      <c r="AA345" t="s">
+      <c r="AB345" t="s">
         <v>1710</v>
       </c>
-      <c r="AB345" t="s">
-        <v>1711</v>
-      </c>
       <c r="AC345" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="AD345" s="3">
         <v>10</v>
@@ -43739,10 +43736,10 @@
         <v>135</v>
       </c>
       <c r="AG345" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AH345" t="s">
         <v>1712</v>
-      </c>
-      <c r="AH345" t="s">
-        <v>1713</v>
       </c>
       <c r="AI345" t="s">
         <v>270</v>
@@ -43771,7 +43768,7 @@
         <v>0</v>
       </c>
       <c r="B346" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C346" t="s">
         <v>442</v>
@@ -43780,13 +43777,13 @@
         <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
       </c>
       <c r="H346" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I346" t="s">
         <v>26</v>
@@ -43834,16 +43831,16 @@
         <v>39</v>
       </c>
       <c r="Z346" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AA346" t="s">
         <v>1716</v>
       </c>
-      <c r="AA346" t="s">
+      <c r="AB346" t="s">
         <v>1717</v>
       </c>
-      <c r="AB346" t="s">
-        <v>1718</v>
-      </c>
       <c r="AC346" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AD346" s="3" t="s">
         <v>899</v>
@@ -43858,7 +43855,7 @@
         <v>118</v>
       </c>
       <c r="AH346" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="AI346" t="s">
         <v>270</v>
@@ -43887,7 +43884,7 @@
         <v>0</v>
       </c>
       <c r="B347" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C347" t="s">
         <v>442</v>
@@ -43929,16 +43926,16 @@
         <v>39</v>
       </c>
       <c r="Z347" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AA347" t="s">
         <v>1721</v>
       </c>
-      <c r="AA347" t="s">
+      <c r="AB347" t="s">
         <v>1722</v>
       </c>
-      <c r="AB347" t="s">
-        <v>1723</v>
-      </c>
       <c r="AC347" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AD347" s="3">
         <v>0</v>
@@ -43982,7 +43979,7 @@
         <v>0</v>
       </c>
       <c r="B348" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C348" t="s">
         <v>442</v>
@@ -43991,7 +43988,7 @@
         <v>3</v>
       </c>
       <c r="E348" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F348" t="s">
         <v>5</v>
@@ -44048,16 +44045,16 @@
         <v>16</v>
       </c>
       <c r="Z348" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AA348" t="s">
         <v>1726</v>
-      </c>
-      <c r="AA348" t="s">
-        <v>1727</v>
       </c>
       <c r="AB348" t="s">
         <v>385</v>
       </c>
       <c r="AC348" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AD348" s="3">
         <v>7</v>
@@ -44072,7 +44069,7 @@
         <v>126</v>
       </c>
       <c r="AH348" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AI348" t="s">
         <v>270</v>
